--- a/data_clean/Storebrand 21.12.2020.xlsx
+++ b/data_clean/Storebrand 21.12.2020.xlsx
@@ -1692,7 +1692,7 @@
         <v>1.034760628825506</v>
       </c>
       <c r="K2">
-        <v>47.25252897907795</v>
+        <v>-0.0274747102092208</v>
       </c>
       <c r="L2">
         <v>-0.001953125523507364</v>
@@ -1722,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.07826321633109919</v>
@@ -1793,13 +1793,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1834,7 +1834,7 @@
         <v>0.2105263157894787</v>
       </c>
       <c r="K4">
-        <v>17.39130434782643</v>
+        <v>-0.3260869565217357</v>
       </c>
       <c r="L4">
         <v>-0.05207524930153581</v>
@@ -1864,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9995063353628436</v>
+        <v>-0.000493664637156388</v>
       </c>
       <c r="V4">
-        <v>0.9995063353628436</v>
+        <v>-0.000493664637156388</v>
       </c>
       <c r="W4">
-        <v>1.000989772352359</v>
+        <v>0.0009897723523590862</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1905,7 +1905,7 @@
         <v>0.183427192276755</v>
       </c>
       <c r="K5">
-        <v>15.49966009517372</v>
+        <v>-0.3450033990482628</v>
       </c>
       <c r="L5">
         <v>-0.04065997113829571</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9995884096147514</v>
+        <v>-0.000411590385248628</v>
       </c>
       <c r="V5">
-        <v>0.9995884096147514</v>
+        <v>-0.000411590385248628</v>
       </c>
       <c r="W5">
-        <v>0.999340804218853</v>
+        <v>-0.0006591957811470373</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1976,7 +1976,7 @@
         <v>0.1615393220718253</v>
       </c>
       <c r="K6">
-        <v>13.90734855051565</v>
+        <v>-0.3609265144948435</v>
       </c>
       <c r="L6">
         <v>-0.03483956438132058</v>
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.999621180927283</v>
+        <v>-0.0003788190727169738</v>
       </c>
       <c r="V6">
-        <v>0.999621180927283</v>
+        <v>-0.0003788190727169738</v>
       </c>
       <c r="W6">
-        <v>0.9993403693931399</v>
+        <v>-0.0006596306068601399</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2047,7 +2047,7 @@
         <v>0.07160187312476833</v>
       </c>
       <c r="K7">
-        <v>6.681760728541718</v>
+        <v>-0.4331823927145828</v>
       </c>
       <c r="L7">
         <v>-0.04021222298106468</v>
@@ -2077,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9986489158373428</v>
+        <v>-0.001351084162657168</v>
       </c>
       <c r="V7">
-        <v>0.9986489158373428</v>
+        <v>-0.001351084162657168</v>
       </c>
       <c r="W7">
-        <v>0.9933993399339934</v>
+        <v>-0.00660066006600657</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2118,7 +2118,7 @@
         <v>0.06956347059733549</v>
       </c>
       <c r="K8">
-        <v>6.503912344583483</v>
+        <v>-0.4349608765541652</v>
       </c>
       <c r="L8">
         <v>-0.04603740562571691</v>
@@ -2148,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9989864944492893</v>
+        <v>-0.001013505550710669</v>
       </c>
       <c r="V8">
-        <v>0.9989864944492893</v>
+        <v>-0.001013505550710669</v>
       </c>
       <c r="W8">
-        <v>0.9996677740863786</v>
+        <v>-0.0003322259136213646</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2189,7 +2189,7 @@
         <v>0.5190671170821146</v>
       </c>
       <c r="K9">
-        <v>34.17012396918707</v>
+        <v>-0.1582987603081293</v>
       </c>
       <c r="L9">
         <v>-0.04565393084988099</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9998584371460928</v>
+        <v>-0.0001415628539072067</v>
       </c>
       <c r="V9">
-        <v>0.9998584371460928</v>
+        <v>-0.0001415628539072067</v>
       </c>
       <c r="W9">
-        <v>1.004985044865404</v>
+        <v>0.004985044865403632</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2260,7 +2260,7 @@
         <v>0.394595467034223</v>
       </c>
       <c r="K10">
-        <v>28.29461850133346</v>
+        <v>-0.2170538149866654</v>
       </c>
       <c r="L10">
         <v>-0.04542343232835689</v>
@@ -2290,13 +2290,13 @@
         <v>-0.051111111111112</v>
       </c>
       <c r="U10">
-        <v>0.999522813199721</v>
+        <v>-0.0004771868002789725</v>
       </c>
       <c r="V10">
-        <v>0.999522813199721</v>
+        <v>-0.0004771868002789725</v>
       </c>
       <c r="W10">
-        <v>0.9966931216931217</v>
+        <v>-0.003306878306878258</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2331,7 +2331,7 @@
         <v>0.6470152124047799</v>
       </c>
       <c r="K11">
-        <v>39.28410663919027</v>
+        <v>-0.1071589336080973</v>
       </c>
       <c r="L11">
         <v>-0.04264417694330323</v>
@@ -2361,13 +2361,13 @@
         <v>-0.06550000000000722</v>
       </c>
       <c r="U11">
-        <v>0.999948586118252</v>
+        <v>-5.141388174800809E-05</v>
       </c>
       <c r="V11">
-        <v>0.999948586118252</v>
+        <v>-5.141388174800809E-05</v>
       </c>
       <c r="W11">
-        <v>1.003317850033179</v>
+        <v>0.003317850033178527</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2402,7 +2402,7 @@
         <v>0.7267267109428553</v>
       </c>
       <c r="K12">
-        <v>42.08695599236061</v>
+        <v>-0.07913044007639386</v>
       </c>
       <c r="L12">
         <v>-0.03826480679972365</v>
@@ -2432,13 +2432,13 @@
         <v>-0.08590909090908383</v>
       </c>
       <c r="U12">
-        <v>1.000048077789864</v>
+        <v>4.807778986393174E-05</v>
       </c>
       <c r="V12">
-        <v>1.000048077789864</v>
+        <v>4.807778986393174E-05</v>
       </c>
       <c r="W12">
-        <v>1.000992063492063</v>
+        <v>0.0009920634920634885</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2473,7 +2473,7 @@
         <v>0.8106335515092505</v>
       </c>
       <c r="K13">
-        <v>44.77071303762974</v>
+        <v>-0.05229286962370261</v>
       </c>
       <c r="L13">
         <v>-0.03287505420172378</v>
@@ -2503,13 +2503,13 @@
         <v>-0.09833333333333627</v>
       </c>
       <c r="U13">
-        <v>1.000122692627425</v>
+        <v>0.0001226926274251472</v>
       </c>
       <c r="V13">
-        <v>1.000122692627425</v>
+        <v>0.0001226926274251472</v>
       </c>
       <c r="W13">
-        <v>1.000991080277503</v>
+        <v>0.0009910802775026095</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2544,7 +2544,7 @@
         <v>0.8400745481992068</v>
       </c>
       <c r="K14">
-        <v>45.65437574370819</v>
+        <v>-0.04345624256291808</v>
       </c>
       <c r="L14">
         <v>-0.02720335957898704</v>
@@ -2574,13 +2574,13 @@
         <v>-0.103653846153847</v>
       </c>
       <c r="U14">
-        <v>1.000129225515472</v>
+        <v>0.00012922551547212</v>
       </c>
       <c r="V14">
-        <v>1.000129225515472</v>
+        <v>0.00012922551547212</v>
       </c>
       <c r="W14">
-        <v>1.0003300330033</v>
+        <v>0.0003300330033002563</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2615,7 +2615,7 @@
         <v>0.9330461166938273</v>
       </c>
       <c r="K15">
-        <v>48.268176772195</v>
+        <v>-0.01731823227805002</v>
       </c>
       <c r="L15">
         <v>-0.02129601243391533</v>
@@ -2645,13 +2645,13 @@
         <v>-0.05464285714285921</v>
       </c>
       <c r="U15">
-        <v>1.000181558058636</v>
+        <v>0.0001815580586359555</v>
       </c>
       <c r="V15">
-        <v>1.000181558058636</v>
+        <v>0.0001815580586359555</v>
       </c>
       <c r="W15">
-        <v>1.000989772352359</v>
+        <v>0.0009897723523590862</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2686,7 +2686,7 @@
         <v>0.9035702081001121</v>
       </c>
       <c r="K16">
-        <v>47.46713329801134</v>
+        <v>-0.02532866701988662</v>
       </c>
       <c r="L16">
         <v>-0.0158419117976134</v>
@@ -2716,13 +2716,13 @@
         <v>-0.00283333333333502</v>
       </c>
       <c r="U16">
-        <v>1.000135296708829</v>
+        <v>0.0001352967088288359</v>
       </c>
       <c r="V16">
-        <v>1.000135296708829</v>
+        <v>0.0001352967088288359</v>
       </c>
       <c r="W16">
-        <v>0.9996704021094265</v>
+        <v>-0.0003295978905735186</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2757,7 +2757,7 @@
         <v>0.970077686452529</v>
       </c>
       <c r="K17">
-        <v>49.24058036509841</v>
+        <v>-0.007594196349015925</v>
       </c>
       <c r="L17">
         <v>-0.01070915161170309</v>
@@ -2787,13 +2787,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U17">
-        <v>1.000159659979299</v>
+        <v>0.0001596599792992315</v>
       </c>
       <c r="V17">
-        <v>0.9997577572727874</v>
+        <v>-0.0002422427272126271</v>
       </c>
       <c r="W17">
-        <v>1.000659413122321</v>
+        <v>0.0006594131223212063</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2828,7 +2828,7 @@
         <v>1.390124918151929</v>
       </c>
       <c r="K18">
-        <v>58.16118260575222</v>
+        <v>0.08161182605752215</v>
       </c>
       <c r="L18">
         <v>-0.004384076669439295</v>
@@ -2858,13 +2858,13 @@
         <v>0.09624999999999062</v>
       </c>
       <c r="U18">
-        <v>1.000373991558476</v>
+        <v>0.0003739915584761722</v>
       </c>
       <c r="V18">
-        <v>1.000352438433411</v>
+        <v>0.0003524384334110398</v>
       </c>
       <c r="W18">
-        <v>1.003953871499176</v>
+        <v>0.003953871499176254</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2899,7 +2899,7 @@
         <v>1.42697116654662</v>
       </c>
       <c r="K19">
-        <v>58.7963790512222</v>
+        <v>0.08796379051222203</v>
       </c>
       <c r="L19">
         <v>0.002258611704697541</v>
@@ -2929,13 +2929,13 @@
         <v>0.134999999999998</v>
       </c>
       <c r="U19">
-        <v>1.000350654591202</v>
+        <v>0.000350654591201538</v>
       </c>
       <c r="V19">
-        <v>1.000308274981283</v>
+        <v>0.0003082749812832741</v>
       </c>
       <c r="W19">
-        <v>1.000328191663932</v>
+        <v>0.0003281916639317206</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2970,7 +2970,7 @@
         <v>1.15758574421337</v>
       </c>
       <c r="K20">
-        <v>53.65189992184584</v>
+        <v>0.03651899921845836</v>
       </c>
       <c r="L20">
         <v>0.007746467075968621</v>
@@ -3000,13 +3000,13 @@
         <v>0.1625000000000014</v>
       </c>
       <c r="U20">
-        <v>1.000209410745184</v>
+        <v>0.000209410745183769</v>
       </c>
       <c r="V20">
-        <v>1.000220128555076</v>
+        <v>0.0002201285550762488</v>
       </c>
       <c r="W20">
-        <v>0.9980314960629921</v>
+        <v>-0.001968503937007871</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3041,7 +3041,7 @@
         <v>1.052964688341658</v>
       </c>
       <c r="K21">
-        <v>51.28995614591992</v>
+        <v>0.01289956145919913</v>
       </c>
       <c r="L21">
         <v>0.01174686301675379</v>
@@ -3071,13 +3071,13 @@
         <v>0.176249999999996</v>
       </c>
       <c r="U21">
-        <v>1.00013893471805</v>
+        <v>0.0001389347180495992</v>
       </c>
       <c r="V21">
-        <v>1.000198072098244</v>
+        <v>0.0001980720982437401</v>
       </c>
       <c r="W21">
-        <v>0.9990138067061144</v>
+        <v>-0.0009861932938856066</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3112,7 +3112,7 @@
         <v>0.819168753062463</v>
       </c>
       <c r="K22">
-        <v>45.02983858333323</v>
+        <v>-0.04970161416666768</v>
       </c>
       <c r="L22">
         <v>0.01337938693762464</v>
@@ -3142,13 +3142,13 @@
         <v>0.1737500000000054</v>
       </c>
       <c r="U22">
-        <v>0.9999842893277403</v>
+        <v>-1.571067225969447E-05</v>
       </c>
       <c r="V22">
-        <v>1.000440073052127</v>
+        <v>0.0004400730521267882</v>
       </c>
       <c r="W22">
-        <v>0.9970384995064165</v>
+        <v>-0.002961500493583458</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3183,7 +3183,7 @@
         <v>0.8711069692943655</v>
       </c>
       <c r="K23">
-        <v>46.55570117527159</v>
+        <v>-0.03444298824728415</v>
       </c>
       <c r="L23">
         <v>0.01374143955106429</v>
@@ -3213,13 +3213,13 @@
         <v>0.1412499999999994</v>
       </c>
       <c r="U23">
-        <v>1.000015710919089</v>
+        <v>1.571091908880717E-05</v>
       </c>
       <c r="V23">
-        <v>1.000505861393978</v>
+        <v>0.0005058613939779022</v>
       </c>
       <c r="W23">
-        <v>1.000660066006601</v>
+        <v>0.0006600660066007347</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3254,7 +3254,7 @@
         <v>0.8259507496798657</v>
       </c>
       <c r="K24">
-        <v>45.23401027243891</v>
+        <v>-0.04765989727561093</v>
       </c>
       <c r="L24">
         <v>0.01303091318686844</v>
@@ -3284,13 +3284,13 @@
         <v>0.1075000000000017</v>
       </c>
       <c r="U24">
-        <v>0.9999856554731542</v>
+        <v>-1.434452684578869E-05</v>
       </c>
       <c r="V24">
-        <v>1.000131897120246</v>
+        <v>0.0001318971202461938</v>
       </c>
       <c r="W24">
-        <v>0.9993403693931399</v>
+        <v>-0.0006596306068601399</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3325,7 +3325,7 @@
         <v>0.7268037350138167</v>
       </c>
       <c r="K25">
-        <v>42.08953920336531</v>
+        <v>-0.07910460796634694</v>
       </c>
       <c r="L25">
         <v>0.01105728677901196</v>
@@ -3355,13 +3355,13 @@
         <v>0.08125000000000426</v>
       </c>
       <c r="U25">
-        <v>0.9999181154846607</v>
+        <v>-8.18845153393033E-05</v>
       </c>
       <c r="V25">
-        <v>1.000241779497099</v>
+        <v>0.0002417794970988041</v>
       </c>
       <c r="W25">
-        <v>0.9983498349834983</v>
+        <v>-0.001650165016501726</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3396,7 +3396,7 @@
         <v>0.7088890108868816</v>
       </c>
       <c r="K26">
-        <v>41.48244891100221</v>
+        <v>-0.08517551088997793</v>
       </c>
       <c r="L26">
         <v>0.008307233144670356</v>
@@ -3426,13 +3426,13 @@
         <v>0.01124999999999687</v>
       </c>
       <c r="U26">
-        <v>0.9999114618419787</v>
+        <v>-8.853815802134513E-05</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.9996694214876033</v>
+        <v>-0.0003305785123967064</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3467,7 +3467,7 @@
         <v>0.8645646363880204</v>
       </c>
       <c r="K27">
-        <v>46.3681772954157</v>
+        <v>-0.03631822704584303</v>
       </c>
       <c r="L27">
         <v>0.006001378046609708</v>
@@ -3497,13 +3497,13 @@
         <v>-0.04124999999999801</v>
       </c>
       <c r="U27">
-        <v>0.9999944156370285</v>
+        <v>-5.584362971489121E-06</v>
       </c>
       <c r="V27">
-        <v>1.000065923923792</v>
+        <v>6.59239237918996E-05</v>
       </c>
       <c r="W27">
-        <v>1.001984126984127</v>
+        <v>0.001984126984126977</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3538,7 +3538,7 @@
         <v>0.7606870624745575</v>
       </c>
       <c r="K28">
-        <v>43.20399000407545</v>
+        <v>-0.06796009995924551</v>
       </c>
       <c r="L28">
         <v>0.003468163372209006</v>
@@ -3568,13 +3568,13 @@
         <v>-0.08125000000000426</v>
       </c>
       <c r="U28">
-        <v>0.9999337205744029</v>
+        <v>-6.627942559711553E-05</v>
       </c>
       <c r="V28">
-        <v>0.9998901340364755</v>
+        <v>-0.0001098659635244692</v>
       </c>
       <c r="W28">
-        <v>0.9983498349834983</v>
+        <v>-0.001650165016501726</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3609,7 +3609,7 @@
         <v>0.8365713700510788</v>
       </c>
       <c r="K29">
-        <v>45.55071388419891</v>
+        <v>-0.04449286115801093</v>
       </c>
       <c r="L29">
         <v>0.001324617512672121</v>
@@ -3639,13 +3639,13 @@
         <v>-0.1062499999999957</v>
       </c>
       <c r="U29">
-        <v>0.9999738088253783</v>
+        <v>-2.619117462165921E-05</v>
       </c>
       <c r="V29">
-        <v>0.9999340731787716</v>
+        <v>-6.592682122841254E-05</v>
       </c>
       <c r="W29">
-        <v>1.00099173553719</v>
+        <v>0.0009917355371902303</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3680,7 +3680,7 @@
         <v>0.996327807054272</v>
       </c>
       <c r="K30">
-        <v>49.90802630377757</v>
+        <v>-0.0009197369622243046</v>
       </c>
       <c r="L30">
         <v>0.0002871936262101789</v>
@@ -3710,13 +3710,13 @@
         <v>-0.1000000000000014</v>
       </c>
       <c r="U30">
-        <v>1.000043893945724</v>
+        <v>4.389394572434924E-05</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>1.001981505944518</v>
+        <v>0.001981505944517847</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3751,7 +3751,7 @@
         <v>0.9691645994613596</v>
       </c>
       <c r="K31">
-        <v>49.21704359942599</v>
+        <v>-0.007829564005740086</v>
       </c>
       <c r="L31">
         <v>-0.0001449251478800555</v>
@@ -3781,13 +3781,13 @@
         <v>-0.09624999999999773</v>
       </c>
       <c r="U31">
-        <v>1.0000299657859</v>
+        <v>2.996578590019894E-05</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W31">
-        <v>0.9996704021094265</v>
+        <v>-0.0003295978905735186</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3822,7 +3822,7 @@
         <v>1.141354012797136</v>
       </c>
       <c r="K32">
-        <v>53.30057552259872</v>
+        <v>0.03300575522598725</v>
       </c>
       <c r="L32">
         <v>0.0005472687603730121</v>
@@ -3852,13 +3852,13 @@
         <v>-0.08125000000000426</v>
       </c>
       <c r="U32">
-        <v>0.9999230016169659</v>
+        <v>-7.699838303409923E-05</v>
       </c>
       <c r="V32">
-        <v>1.000087908223814</v>
+        <v>8.790822381410379E-05</v>
       </c>
       <c r="W32">
-        <v>1.001978239366963</v>
+        <v>0.001978239366963397</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3893,7 +3893,7 @@
         <v>1.201771350809685</v>
       </c>
       <c r="K33">
-        <v>54.5820232590338</v>
+        <v>0.04582023259033807</v>
       </c>
       <c r="L33">
         <v>0.002110852451570298</v>
@@ -3923,13 +3923,13 @@
         <v>-0.0487500000000054</v>
       </c>
       <c r="U33">
-        <v>1.000110006160345</v>
+        <v>0.0001100061603449554</v>
       </c>
       <c r="V33">
-        <v>0.9998681492550434</v>
+        <v>-0.0001318507449565853</v>
       </c>
       <c r="W33">
-        <v>1.000658111220796</v>
+        <v>0.0006581112207963979</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3964,7 +3964,7 @@
         <v>1.097111522841791</v>
       </c>
       <c r="K34">
-        <v>52.31536381790024</v>
+        <v>0.0231536381790024</v>
       </c>
       <c r="L34">
         <v>0.003724236525121938</v>
@@ -3994,13 +3994,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U34">
-        <v>1.000043997624128</v>
+        <v>4.39976241282114E-05</v>
       </c>
       <c r="V34">
-        <v>0.9997802197802197</v>
+        <v>-0.0002197802197803078</v>
       </c>
       <c r="W34">
-        <v>0.9990134824071029</v>
+        <v>-0.0009865175928971404</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -4035,7 +4035,7 @@
         <v>1.127668705479457</v>
       </c>
       <c r="K35">
-        <v>53.00020170317558</v>
+        <v>0.03000201703175576</v>
       </c>
       <c r="L35">
         <v>0.005370913586152259</v>
@@ -4065,13 +4065,13 @@
         <v>0.03125</v>
       </c>
       <c r="U35">
-        <v>1.000076992454739</v>
+        <v>7.699245473946625E-05</v>
       </c>
       <c r="V35">
-        <v>0.9999340514398768</v>
+        <v>-6.594856012320793E-05</v>
       </c>
       <c r="W35">
-        <v>1.000329163923634</v>
+        <v>0.0003291639236340238</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4106,7 +4106,7 @@
         <v>1.127668705479457</v>
       </c>
       <c r="K36">
-        <v>53.00020170317558</v>
+        <v>0.03000201703175576</v>
       </c>
       <c r="L36">
         <v>0.006911602922161414</v>
@@ -4136,13 +4136,13 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="U36">
-        <v>1.000098982678031</v>
+        <v>9.898267803132299E-05</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4177,7 +4177,7 @@
         <v>1.127668705479457</v>
       </c>
       <c r="K37">
-        <v>53.00020170317558</v>
+        <v>0.03000201703175576</v>
       </c>
       <c r="L37">
         <v>0.008263712980515869</v>
@@ -4207,13 +4207,13 @@
         <v>0.09750000000000369</v>
       </c>
       <c r="U37">
-        <v>1.000318912617943</v>
+        <v>0.0003189126179428126</v>
       </c>
       <c r="V37">
-        <v>1.000197858728868</v>
+        <v>0.0001978587288675726</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4248,7 +4248,7 @@
         <v>1.377151462107101</v>
       </c>
       <c r="K38">
-        <v>57.93284458561163</v>
+        <v>0.07932844585611631</v>
       </c>
       <c r="L38">
         <v>0.01023058891468626</v>
@@ -4278,13 +4278,13 @@
         <v>0.1074999999999946</v>
       </c>
       <c r="U38">
-        <v>1.000406758792036</v>
+        <v>0.0004067587920362215</v>
       </c>
       <c r="V38">
-        <v>1.000307719359944</v>
+        <v>0.0003077193599436701</v>
       </c>
       <c r="W38">
-        <v>1.002303389272787</v>
+        <v>0.00230338927278706</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4319,7 +4319,7 @@
         <v>1.414667666111251</v>
       </c>
       <c r="K39">
-        <v>58.58643348587719</v>
+        <v>0.08586433485877187</v>
       </c>
       <c r="L39">
         <v>0.01252517431537672</v>
@@ -4349,13 +4349,13 @@
         <v>0.1237500000000082</v>
       </c>
       <c r="U39">
-        <v>1.000252747252747</v>
+        <v>0.0002527472527473762</v>
       </c>
       <c r="V39">
-        <v>1.000373544275983</v>
+        <v>0.0003735442759833507</v>
       </c>
       <c r="W39">
-        <v>1.000328299409061</v>
+        <v>0.0003282994090609836</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4390,7 +4390,7 @@
         <v>1.454158407168264</v>
       </c>
       <c r="K40">
-        <v>59.25283400292599</v>
+        <v>0.09252834002925991</v>
       </c>
       <c r="L40">
         <v>0.01494483212488178</v>
@@ -4420,13 +4420,13 @@
         <v>0.1237500000000011</v>
       </c>
       <c r="U40">
-        <v>1.000373531964448</v>
+        <v>0.0003735319644484481</v>
       </c>
       <c r="V40">
-        <v>1.000505194719617</v>
+        <v>0.0005051947196168527</v>
       </c>
       <c r="W40">
-        <v>1.000328191663932</v>
+        <v>0.0003281916639317206</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4461,7 +4461,7 @@
         <v>1.578866010506187</v>
       </c>
       <c r="K41">
-        <v>61.22326650837834</v>
+        <v>0.1122326650837834</v>
       </c>
       <c r="L41">
         <v>0.01759132147645173</v>
@@ -4491,13 +4491,13 @@
         <v>0.1162500000000009</v>
       </c>
       <c r="U41">
-        <v>1.00029651756592</v>
+        <v>0.0002965175659201957</v>
       </c>
       <c r="V41">
-        <v>1.00059275521405</v>
+        <v>0.0005927552140503334</v>
       </c>
       <c r="W41">
-        <v>1.000984251968504</v>
+        <v>0.0009842519685039353</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4532,7 +4532,7 @@
         <v>1.578866010506186</v>
       </c>
       <c r="K42">
-        <v>61.22326650837834</v>
+        <v>0.1122326650837834</v>
       </c>
       <c r="L42">
         <v>0.02014044079208353</v>
@@ -4562,13 +4562,13 @@
         <v>0.1150000000000091</v>
       </c>
       <c r="U42">
-        <v>1.000263493039392</v>
+        <v>0.0002634930393921042</v>
       </c>
       <c r="V42">
-        <v>1.000460758716019</v>
+        <v>0.0004607587160190274</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4603,7 +4603,7 @@
         <v>1.578866010506186</v>
       </c>
       <c r="K43">
-        <v>61.22326650837834</v>
+        <v>0.1122326650837834</v>
       </c>
       <c r="L43">
         <v>0.02239325622569633</v>
@@ -4633,13 +4633,13 @@
         <v>0.1187499999999986</v>
       </c>
       <c r="U43">
-        <v>1.000230495675462</v>
+        <v>0.0002304956754619614</v>
       </c>
       <c r="V43">
-        <v>1.000570200447388</v>
+        <v>0.0005702004473882027</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4674,7 +4674,7 @@
         <v>1.223068507105254</v>
       </c>
       <c r="K44">
-        <v>55.01713074501065</v>
+        <v>0.05017130745010656</v>
       </c>
       <c r="L44">
         <v>0.02351882928698091</v>
@@ -4704,13 +4704,13 @@
         <v>0.1087500000000006</v>
       </c>
       <c r="U44">
-        <v>1.000153628372966</v>
+        <v>0.0001536283729659527</v>
       </c>
       <c r="V44">
-        <v>1.000372610906541</v>
+        <v>0.0003726109065405048</v>
       </c>
       <c r="W44">
-        <v>0.9980334316617502</v>
+        <v>-0.001966568338249819</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4745,7 +4745,7 @@
         <v>1.223068507105254</v>
       </c>
       <c r="K45">
-        <v>55.01713074501065</v>
+        <v>0.05017130745010656</v>
       </c>
       <c r="L45">
         <v>0.02380457485006543</v>
@@ -4775,13 +4775,13 @@
         <v>0.1024999999999991</v>
       </c>
       <c r="U45">
-        <v>1.000120689466004</v>
+        <v>0.0001206894660037428</v>
       </c>
       <c r="V45">
-        <v>1.000241011371355</v>
+        <v>0.0002410113713546824</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4816,7 +4816,7 @@
         <v>1.174203006963568</v>
       </c>
       <c r="K46">
-        <v>54.00613480906863</v>
+        <v>0.04006134809068629</v>
       </c>
       <c r="L46">
         <v>0.02335690728196065</v>
@@ -4846,13 +4846,13 @@
         <v>0.08500000000000085</v>
       </c>
       <c r="U46">
-        <v>1.000120674901815</v>
+        <v>0.0001206749018145548</v>
       </c>
       <c r="V46">
-        <v>1.00024095329887</v>
+        <v>0.0002409532988696395</v>
       </c>
       <c r="W46">
-        <v>0.9996715927750411</v>
+        <v>-0.0003284072249588599</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4887,7 +4887,7 @@
         <v>1.005118032859753</v>
       </c>
       <c r="K47">
-        <v>50.12762422899497</v>
+        <v>0.001276242289949714</v>
       </c>
       <c r="L47">
         <v>0.02192865939779414</v>
@@ -4917,13 +4917,13 @@
         <v>0.05875000000001052</v>
       </c>
       <c r="U47">
-        <v>1.000054845609609</v>
+        <v>5.484560960899998E-05</v>
       </c>
       <c r="V47">
-        <v>1.000021899568578</v>
+        <v>2.189956857834296E-05</v>
       </c>
       <c r="W47">
-        <v>0.9986859395532194</v>
+        <v>-0.001314060446780618</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4958,7 +4958,7 @@
         <v>1.005118032859753</v>
       </c>
       <c r="K48">
-        <v>50.12762422899497</v>
+        <v>0.001276242289949714</v>
       </c>
       <c r="L48">
         <v>0.01991852853236081</v>
@@ -4988,13 +4988,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U48">
-        <v>0.9999232203575739</v>
+        <v>-7.677964242613911E-05</v>
       </c>
       <c r="V48">
-        <v>0.9999781009110021</v>
+        <v>-2.189908899785653E-05</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -5029,7 +5029,7 @@
         <v>1.005118032859753</v>
       </c>
       <c r="K49">
-        <v>50.12762422899497</v>
+        <v>0.001276242289949714</v>
       </c>
       <c r="L49">
         <v>0.01761214531298746</v>
@@ -5059,13 +5059,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U49">
-        <v>0.9999122450994373</v>
+        <v>-8.775490056267543E-05</v>
       </c>
       <c r="V49">
-        <v>1.000043799137157</v>
+        <v>4.379913715690797E-05</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5100,7 +5100,7 @@
         <v>0.9646152249558363</v>
       </c>
       <c r="K50">
-        <v>49.09944770368561</v>
+        <v>-0.009005522963143886</v>
       </c>
       <c r="L50">
         <v>0.01508966916402616</v>
@@ -5130,13 +5130,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U50">
-        <v>0.9999670890241896</v>
+        <v>-3.291097581037405E-05</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>0.999671052631579</v>
+        <v>-0.0003289473684210398</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5171,7 +5171,7 @@
         <v>1.049450106515778</v>
       </c>
       <c r="K51">
-        <v>51.20642377090718</v>
+        <v>0.01206423770907183</v>
       </c>
       <c r="L51">
         <v>0.01278223742410245</v>
@@ -5201,13 +5201,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U51">
-        <v>1.000021941372652</v>
+        <v>2.194137265210117E-05</v>
       </c>
       <c r="V51">
-        <v>1.000043797218877</v>
+        <v>4.379721887670662E-05</v>
       </c>
       <c r="W51">
-        <v>1.000658111220796</v>
+        <v>0.0006581112207963979</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5242,7 +5242,7 @@
         <v>1.183399919505167</v>
       </c>
       <c r="K52">
-        <v>54.19987007113959</v>
+        <v>0.04199870071139589</v>
       </c>
       <c r="L52">
         <v>0.01106520506367599</v>
@@ -5272,13 +5272,13 @@
         <v>-0.05624999999999858</v>
       </c>
       <c r="U52">
-        <v>1.000153586238673</v>
+        <v>0.0001535862386730091</v>
       </c>
       <c r="V52">
-        <v>1.000109488251911</v>
+        <v>0.0001094882519105944</v>
       </c>
       <c r="W52">
-        <v>1.000986517592897</v>
+        <v>0.0009865175928971404</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5313,7 +5313,7 @@
         <v>0.8600293393682771</v>
       </c>
       <c r="K53">
-        <v>46.23740718306999</v>
+        <v>-0.0376259281693001</v>
       </c>
       <c r="L53">
         <v>0.008816110292601372</v>
@@ -5343,13 +5343,13 @@
         <v>-0.07500000000000995</v>
       </c>
       <c r="U53">
-        <v>1.000043875043875</v>
+        <v>4.387504387493024E-05</v>
       </c>
       <c r="V53">
-        <v>0.9997810474689087</v>
+        <v>-0.0002189525310912765</v>
       </c>
       <c r="W53">
-        <v>0.9973718791064389</v>
+        <v>-0.002628120893561126</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5384,7 +5384,7 @@
         <v>0.9319386911318251</v>
       </c>
       <c r="K54">
-        <v>48.23852306544207</v>
+        <v>-0.01761476934557926</v>
       </c>
       <c r="L54">
         <v>0.006595895970481566</v>
@@ -5414,13 +5414,13 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="U54">
-        <v>1.00008774623788</v>
+        <v>8.774623788010416E-05</v>
       </c>
       <c r="V54">
-        <v>0.9998028995663791</v>
+        <v>-0.000197100433620867</v>
       </c>
       <c r="W54">
-        <v>1.000658761528327</v>
+        <v>0.0006587615283266679</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5455,7 +5455,7 @@
         <v>1.007632745619771</v>
       </c>
       <c r="K55">
-        <v>50.19009317407338</v>
+        <v>0.001900931740733802</v>
       </c>
       <c r="L55">
         <v>0.004750322840836829</v>
@@ -5485,13 +5485,13 @@
         <v>-0.07125000000000625</v>
       </c>
       <c r="U55">
-        <v>1.000164509760913</v>
+        <v>0.0001645097609126456</v>
       </c>
       <c r="V55">
-        <v>0.9998247650756795</v>
+        <v>-0.0001752349243204776</v>
       </c>
       <c r="W55">
-        <v>1.000658327847268</v>
+        <v>0.0006583278472678256</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5526,7 +5526,7 @@
         <v>1.007632745619771</v>
       </c>
       <c r="K56">
-        <v>50.19009317407338</v>
+        <v>0.001900931740733802</v>
       </c>
       <c r="L56">
         <v>0.0032319755134045</v>
@@ -5556,13 +5556,13 @@
         <v>-0.06125000000000114</v>
       </c>
       <c r="U56">
-        <v>1.000175448215363</v>
+        <v>0.0001754482153626391</v>
       </c>
       <c r="V56">
-        <v>0.9997590097491511</v>
+        <v>-0.0002409902508488937</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5597,7 +5597,7 @@
         <v>1.091504274138285</v>
       </c>
       <c r="K57">
-        <v>52.1875230012615</v>
+        <v>0.02187523001261493</v>
       </c>
       <c r="L57">
         <v>0.002236366961532747</v>
@@ -5627,13 +5627,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U57">
-        <v>1.000131563079015</v>
+        <v>0.0001315630790146294</v>
       </c>
       <c r="V57">
-        <v>0.9998027786299689</v>
+        <v>-0.0001972213700310865</v>
       </c>
       <c r="W57">
-        <v>1.000657894736842</v>
+        <v>0.0006578947368423016</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5668,7 +5668,7 @@
         <v>1.002957361556554</v>
       </c>
       <c r="K58">
-        <v>50.0738248754895</v>
+        <v>0.0007382487548950323</v>
       </c>
       <c r="L58">
         <v>0.001373138394070263</v>
@@ -5698,13 +5698,13 @@
         <v>-0.02875000000000938</v>
       </c>
       <c r="U58">
-        <v>1.00016443221556</v>
+        <v>0.0001644322155596178</v>
       </c>
       <c r="V58">
-        <v>0.9997589041095891</v>
+        <v>-0.0002410958904108806</v>
       </c>
       <c r="W58">
-        <v>0.9993425378040761</v>
+        <v>-0.0006574621959238858</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5739,7 +5739,7 @@
         <v>1.002957361556554</v>
       </c>
       <c r="K59">
-        <v>50.0738248754895</v>
+        <v>0.0007382487548950323</v>
       </c>
       <c r="L59">
         <v>0.0006401101047360174</v>
@@ -5769,13 +5769,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U59">
-        <v>1.000131524145641</v>
+        <v>0.0001315241456412153</v>
       </c>
       <c r="V59">
-        <v>0.9998903845310649</v>
+        <v>-0.0001096154689350648</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5810,7 +5810,7 @@
         <v>1.092845165803304</v>
       </c>
       <c r="K60">
-        <v>52.21815658703225</v>
+        <v>0.02218156587032249</v>
       </c>
       <c r="L60">
         <v>0.0002698492190271971</v>
@@ -5840,13 +5840,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U60">
-        <v>1.000087671232877</v>
+        <v>8.76712328767848E-05</v>
       </c>
       <c r="V60">
-        <v>0.9999342235085181</v>
+        <v>-6.577649148187259E-05</v>
       </c>
       <c r="W60">
-        <v>1.000657894736842</v>
+        <v>0.0006578947368423016</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5881,7 +5881,7 @@
         <v>1.092845165803304</v>
       </c>
       <c r="K61">
-        <v>52.21815658703226</v>
+        <v>0.02218156587032261</v>
       </c>
       <c r="L61">
         <v>0.0001419499235190445</v>
@@ -5911,13 +5911,13 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>1.000098621490719</v>
+        <v>9.862149071859783E-05</v>
       </c>
       <c r="V61">
-        <v>0.9999561461211244</v>
+        <v>-4.385387887562153E-05</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5952,7 +5952,7 @@
         <v>0.9507978557685992</v>
       </c>
       <c r="K62">
-        <v>48.73892253659425</v>
+        <v>-0.01261077463405746</v>
       </c>
       <c r="L62">
         <v>-0.0001907566323475199</v>
@@ -5982,13 +5982,13 @@
         <v>0.008749999999999147</v>
       </c>
       <c r="U62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>0.9999780720989387</v>
+        <v>-2.19279010612583E-05</v>
       </c>
       <c r="W62">
-        <v>0.9990138067061144</v>
+        <v>-0.0009861932938856066</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -6023,7 +6023,7 @@
         <v>0.9507978557685993</v>
       </c>
       <c r="K63">
-        <v>48.73892253659425</v>
+        <v>-0.01261077463405746</v>
       </c>
       <c r="L63">
         <v>-0.0006256359258574554</v>
@@ -6053,13 +6053,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U63">
-        <v>0.9999780862743382</v>
+        <v>-2.191372566184846E-05</v>
       </c>
       <c r="V63">
-        <v>0.9999780716180953</v>
+        <v>-2.192838190473445E-05</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6094,7 +6094,7 @@
         <v>0.9072436737677633</v>
       </c>
       <c r="K64">
-        <v>47.56831474897498</v>
+        <v>-0.02431685251025018</v>
       </c>
       <c r="L64">
         <v>-0.001212173264870824</v>
@@ -6124,13 +6124,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>0.9999561422744616</v>
+        <v>-4.385772553838763E-05</v>
       </c>
       <c r="W64">
-        <v>0.9996709443896018</v>
+        <v>-0.000329055610398199</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6165,7 +6165,7 @@
         <v>0.7925900159389035</v>
       </c>
       <c r="K65">
-        <v>44.21479584799368</v>
+        <v>-0.05785204152006318</v>
       </c>
       <c r="L65">
         <v>-0.002208054861158894</v>
@@ -6195,13 +6195,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U65">
-        <v>0.999956171588232</v>
+        <v>-4.382841176797658E-05</v>
       </c>
       <c r="V65">
-        <v>0.9999122807017545</v>
+        <v>-8.771929824546998E-05</v>
       </c>
       <c r="W65">
-        <v>0.9990125082290982</v>
+        <v>-0.0009874917709018494</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6236,7 +6236,7 @@
         <v>0.8369324068393382</v>
       </c>
       <c r="K66">
-        <v>45.56141552749785</v>
+        <v>-0.04438584472502149</v>
       </c>
       <c r="L66">
         <v>-0.003260711078318897</v>
@@ -6266,13 +6266,13 @@
         <v>-0.01249999999999574</v>
       </c>
       <c r="U66">
-        <v>0.9999671272504135</v>
+        <v>-3.287274958652109E-05</v>
       </c>
       <c r="V66">
-        <v>0.9998903412580049</v>
+        <v>-0.000109658741995089</v>
       </c>
       <c r="W66">
-        <v>1.000329489291598</v>
+        <v>0.0003294892915979286</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6307,7 +6307,7 @@
         <v>0.7052574525404041</v>
       </c>
       <c r="K67">
-        <v>41.35782849034016</v>
+        <v>-0.08642171509659841</v>
       </c>
       <c r="L67">
         <v>-0.004747879559414176</v>
@@ -6337,13 +6337,13 @@
         <v>-0.02125000000000199</v>
       </c>
       <c r="U67">
-        <v>0.9999232943961077</v>
+        <v>-7.670560389227976E-05</v>
       </c>
       <c r="V67">
-        <v>0.999736790155952</v>
+        <v>-0.0002632098440480402</v>
       </c>
       <c r="W67">
-        <v>0.9986824769433466</v>
+        <v>-0.001317523056653447</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6378,7 +6378,7 @@
         <v>0.651324223672323</v>
       </c>
       <c r="K68">
-        <v>39.44254037670844</v>
+        <v>-0.1055745962329157</v>
       </c>
       <c r="L68">
         <v>-0.006625883071927916</v>
@@ -6408,13 +6408,13 @@
         <v>-0.03374999999999062</v>
       </c>
       <c r="U68">
-        <v>0.9998246594557869</v>
+        <v>-0.0001753405442130873</v>
       </c>
       <c r="V68">
-        <v>0.9998683604291448</v>
+        <v>-0.0001316395708551577</v>
       </c>
       <c r="W68">
-        <v>0.9993403693931399</v>
+        <v>-0.0006596306068601399</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6449,7 +6449,7 @@
         <v>0.6513242236723231</v>
       </c>
       <c r="K69">
-        <v>39.44254037670844</v>
+        <v>-0.1055745962329157</v>
       </c>
       <c r="L69">
         <v>-0.008597096759945898</v>
@@ -6479,13 +6479,13 @@
         <v>-0.05624999999999858</v>
       </c>
       <c r="U69">
-        <v>0.9998136680002192</v>
+        <v>-0.0001863319997807977</v>
       </c>
       <c r="V69">
-        <v>0.9998244574638492</v>
+        <v>-0.0001755425361508189</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6520,7 +6520,7 @@
         <v>0.651324223672323</v>
       </c>
       <c r="K70">
-        <v>39.44254037670844</v>
+        <v>-0.1055745962329157</v>
       </c>
       <c r="L70">
         <v>-0.01046813955356944</v>
@@ -6550,13 +6550,13 @@
         <v>-0.06875000000000142</v>
       </c>
       <c r="U70">
-        <v>0.999802670525554</v>
+        <v>-0.0001973294744459508</v>
       </c>
       <c r="V70">
-        <v>0.9997805333040712</v>
+        <v>-0.0002194666959287606</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6591,7 +6591,7 @@
         <v>0.785115926258635</v>
       </c>
       <c r="K71">
-        <v>43.98122915771265</v>
+        <v>-0.06018770842287352</v>
       </c>
       <c r="L71">
         <v>-0.01176207533231238</v>
@@ -6621,13 +6621,13 @@
         <v>-0.07500000000000284</v>
       </c>
       <c r="U71">
-        <v>0.9998026315789474</v>
+        <v>-0.0001973684210525573</v>
       </c>
       <c r="V71">
-        <v>0.9998463395895071</v>
+        <v>-0.0001536604104929173</v>
       </c>
       <c r="W71">
-        <v>1.000990099009901</v>
+        <v>0.000990099009900991</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6662,7 +6662,7 @@
         <v>0.7851159262586351</v>
       </c>
       <c r="K72">
-        <v>43.98122915771265</v>
+        <v>-0.06018770842287346</v>
       </c>
       <c r="L72">
         <v>-0.01258122161804534</v>
@@ -6692,13 +6692,13 @@
         <v>-0.07875000000000654</v>
       </c>
       <c r="U72">
-        <v>0.9998025926169638</v>
+        <v>-0.0001974073830361966</v>
       </c>
       <c r="V72">
-        <v>0.9998024062527443</v>
+        <v>-0.0001975937472556977</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6733,7 +6733,7 @@
         <v>0.8345311442037298</v>
       </c>
       <c r="K73">
-        <v>45.49015953424734</v>
+        <v>-0.04509840465752663</v>
       </c>
       <c r="L73">
         <v>-0.01289497789991551</v>
@@ -6763,13 +6763,13 @@
         <v>-0.07124999999999915</v>
       </c>
       <c r="U73">
-        <v>0.9998135228818394</v>
+        <v>-0.0001864771181605551</v>
       </c>
       <c r="V73">
-        <v>0.9998682448011594</v>
+        <v>-0.0001317551988405663</v>
       </c>
       <c r="W73">
-        <v>1.000329706561161</v>
+        <v>0.0003297065611607142</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6804,7 +6804,7 @@
         <v>0.8345311442037299</v>
       </c>
       <c r="K74">
-        <v>45.49015953424735</v>
+        <v>-0.04509840465752651</v>
       </c>
       <c r="L74">
         <v>-0.01283559879073502</v>
@@ -6834,13 +6834,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U74">
-        <v>0.9998793158304716</v>
+        <v>-0.0001206841695283734</v>
       </c>
       <c r="V74">
-        <v>0.9998682274394396</v>
+        <v>-0.0001317725605604059</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6875,7 +6875,7 @@
         <v>0.8345311442037298</v>
       </c>
       <c r="K75">
-        <v>45.49015953424734</v>
+        <v>-0.04509840465752663</v>
       </c>
       <c r="L75">
         <v>-0.01250718636520464</v>
@@ -6905,13 +6905,13 @@
         <v>-0.05624999999999858</v>
       </c>
       <c r="U75">
-        <v>0.9998793012640449</v>
+        <v>-0.0001206987359551048</v>
       </c>
       <c r="V75">
-        <v>0.9998242800975246</v>
+        <v>-0.0001757199024754463</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6946,7 +6946,7 @@
         <v>0.7115070051841657</v>
       </c>
       <c r="K76">
-        <v>41.57195985929397</v>
+        <v>-0.08428040140706033</v>
       </c>
       <c r="L76">
         <v>-0.01235072517493879</v>
@@ -6976,13 +6976,13 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="U76">
-        <v>0.9998573388203018</v>
+        <v>-0.0001426611796981891</v>
       </c>
       <c r="V76">
-        <v>0.9997583426700938</v>
+        <v>-0.0002416573299062197</v>
       </c>
       <c r="W76">
-        <v>0.9990112063282794</v>
+        <v>-0.0009887936717205559</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7017,7 +7017,7 @@
         <v>0.7115070051841658</v>
       </c>
       <c r="K77">
-        <v>41.57195985929397</v>
+        <v>-0.08428040140706033</v>
       </c>
       <c r="L77">
         <v>-0.01226355788544025</v>
@@ -7047,13 +7047,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U77">
-        <v>0.9999012204758977</v>
+        <v>-9.877952410231039E-05</v>
       </c>
       <c r="V77">
-        <v>0.9998242067328822</v>
+        <v>-0.0001757932671178075</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7088,7 +7088,7 @@
         <v>0.7115070051841658</v>
       </c>
       <c r="K78">
-        <v>41.57195985929397</v>
+        <v>-0.08428040140706033</v>
       </c>
       <c r="L78">
         <v>-0.01217936957895835</v>
@@ -7118,13 +7118,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U78">
-        <v>0.9999012107175396</v>
+        <v>-9.878928246043195E-05</v>
       </c>
       <c r="V78">
-        <v>0.9998241758241758</v>
+        <v>-0.0001758241758241796</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7159,7 +7159,7 @@
         <v>0.8261336842885872</v>
       </c>
       <c r="K79">
-        <v>45.23949650545035</v>
+        <v>-0.04760503494549645</v>
       </c>
       <c r="L79">
         <v>-0.01181827260523725</v>
@@ -7189,13 +7189,13 @@
         <v>-0.003750000000003695</v>
       </c>
       <c r="U79">
-        <v>0.9999231563000854</v>
+        <v>-7.684369991456386E-05</v>
       </c>
       <c r="V79">
-        <v>0.9998900905653741</v>
+        <v>-0.0001099094346258545</v>
       </c>
       <c r="W79">
-        <v>1.000659848234906</v>
+        <v>0.0006598482349060575</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7230,7 +7230,7 @@
         <v>0.6995267010921729</v>
       </c>
       <c r="K80">
-        <v>41.16008890255349</v>
+        <v>-0.08839911097446512</v>
       </c>
       <c r="L80">
         <v>-0.01162911032162028</v>
@@ -7260,13 +7260,13 @@
         <v>-0.001250000000005969</v>
       </c>
       <c r="U80">
-        <v>0.9999011933645856</v>
+        <v>-9.880663541439461E-05</v>
       </c>
       <c r="V80">
-        <v>0.9998900784839624</v>
+        <v>-0.0001099215160376144</v>
       </c>
       <c r="W80">
-        <v>0.9990108803165184</v>
+        <v>-0.0009891196834815874</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7301,7 +7301,7 @@
         <v>0.6023556860584521</v>
       </c>
       <c r="K81">
-        <v>37.59188370593012</v>
+        <v>-0.1240811629406988</v>
       </c>
       <c r="L81">
         <v>-0.0118737248226115</v>
@@ -7331,13 +7331,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U81">
-        <v>0.9998462856013527</v>
+        <v>-0.0001537143986473088</v>
       </c>
       <c r="V81">
-        <v>0.9998021195198101</v>
+        <v>-0.0001978804801898715</v>
       </c>
       <c r="W81">
-        <v>0.999009900990099</v>
+        <v>-0.000990099009900991</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7372,7 +7372,7 @@
         <v>0.7485763790258053</v>
       </c>
       <c r="K82">
-        <v>42.81061942760911</v>
+        <v>-0.07189380572390891</v>
       </c>
       <c r="L82">
         <v>-0.0119627058934973</v>
@@ -7402,13 +7402,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U82">
-        <v>0.9998462619696038</v>
+        <v>-0.0001537380303961999</v>
       </c>
       <c r="V82">
-        <v>0.9999560178567501</v>
+        <v>-4.398214324985439E-05</v>
       </c>
       <c r="W82">
-        <v>1.000991080277503</v>
+        <v>0.0009910802775026095</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7443,7 +7443,7 @@
         <v>0.7998818853301278</v>
       </c>
       <c r="K83">
-        <v>44.44079869071055</v>
+        <v>-0.05559201309289447</v>
       </c>
       <c r="L83">
         <v>-0.01178826124380342</v>
@@ -7473,13 +7473,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U83">
-        <v>0.999945085118067</v>
+        <v>-5.49148819329881E-05</v>
       </c>
       <c r="V83">
-        <v>1.000021992038882</v>
+        <v>2.199203888197943E-05</v>
       </c>
       <c r="W83">
-        <v>1.0003300330033</v>
+        <v>0.0003300330033002563</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7514,7 +7514,7 @@
         <v>0.6883562099531537</v>
       </c>
       <c r="K84">
-        <v>40.77079267367716</v>
+        <v>-0.09229207326322841</v>
       </c>
       <c r="L84">
         <v>-0.01178232923669789</v>
@@ -7544,13 +7544,13 @@
         <v>-0.02250000000000796</v>
       </c>
       <c r="U84">
-        <v>0.9998901642045143</v>
+        <v>-0.0001098357954857354</v>
       </c>
       <c r="V84">
-        <v>0.9999560168895144</v>
+        <v>-4.398311048559034E-05</v>
       </c>
       <c r="W84">
-        <v>0.9990102276476411</v>
+        <v>-0.0009897723523588642</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7585,7 +7585,7 @@
         <v>0.7372782028616318</v>
       </c>
       <c r="K85">
-        <v>42.43869529055235</v>
+        <v>-0.07561304709447653</v>
       </c>
       <c r="L85">
         <v>-0.01171610315695836</v>
@@ -7615,13 +7615,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U85">
-        <v>0.9998791673532157</v>
+        <v>-0.0001208326467843079</v>
       </c>
       <c r="V85">
-        <v>0.9999780074774577</v>
+        <v>-2.199252254231343E-05</v>
       </c>
       <c r="W85">
-        <v>1.000330250990753</v>
+        <v>0.0003302509907530116</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7656,7 +7656,7 @@
         <v>0.7011701591224478</v>
       </c>
       <c r="K86">
-        <v>41.21693267204663</v>
+        <v>-0.0878306732795337</v>
       </c>
       <c r="L86">
         <v>-0.01169496764061754</v>
@@ -7686,13 +7686,13 @@
         <v>-0.03124999999999289</v>
       </c>
       <c r="U86">
-        <v>0.9998681666373704</v>
+        <v>-0.0001318333626295631</v>
       </c>
       <c r="V86">
-        <v>0.9998900349688798</v>
+        <v>-0.0001099650311201517</v>
       </c>
       <c r="W86">
-        <v>0.9996698580389568</v>
+        <v>-0.0003301419610431955</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7727,7 +7727,7 @@
         <v>0.7011701591224477</v>
       </c>
       <c r="K87">
-        <v>41.21693267204662</v>
+        <v>-0.08783067327953376</v>
       </c>
       <c r="L87">
         <v>-0.0116600031454892</v>
@@ -7757,13 +7757,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U87">
-        <v>0.9998461741308838</v>
+        <v>-0.0001538258691161642</v>
       </c>
       <c r="V87">
-        <v>0.999890022875242</v>
+        <v>-0.0001099771247580206</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7798,7 +7798,7 @@
         <v>0.6650791765977577</v>
       </c>
       <c r="K88">
-        <v>39.9427958709272</v>
+        <v>-0.100572041290728</v>
       </c>
       <c r="L88">
         <v>-0.01169653523421595</v>
@@ -7828,13 +7828,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U88">
-        <v>0.9998571397173563</v>
+        <v>-0.0001428602826436531</v>
       </c>
       <c r="V88">
-        <v>0.9998460150905212</v>
+        <v>-0.0001539849094788215</v>
       </c>
       <c r="W88">
-        <v>0.999669749009247</v>
+        <v>-0.0003302509907530116</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7869,7 +7869,7 @@
         <v>0.5233102834780733</v>
       </c>
       <c r="K89">
-        <v>34.35349246663219</v>
+        <v>-0.1564650753336781</v>
       </c>
       <c r="L89">
         <v>-0.01233179340558653</v>
@@ -7899,13 +7899,13 @@
         <v>-0.03500000000000369</v>
       </c>
       <c r="U89">
-        <v>0.9998021651920648</v>
+        <v>-0.0001978348079352266</v>
       </c>
       <c r="V89">
-        <v>0.9997359852151722</v>
+        <v>-0.0002640147848278485</v>
       </c>
       <c r="W89">
-        <v>0.9983481995374959</v>
+        <v>-0.001651800462504127</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7940,7 +7940,7 @@
         <v>0.4802104501287395</v>
       </c>
       <c r="K90">
-        <v>32.44203890649291</v>
+        <v>-0.1755796109350709</v>
       </c>
       <c r="L90">
         <v>-0.01348485400182236</v>
@@ -7970,13 +7970,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U90">
-        <v>0.9997581540558662</v>
+        <v>-0.0002418459441337895</v>
       </c>
       <c r="V90">
-        <v>0.9996919014084505</v>
+        <v>-0.000308098591549455</v>
       </c>
       <c r="W90">
-        <v>0.99933818663137</v>
+        <v>-0.0006618133686300265</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -8011,7 +8011,7 @@
         <v>0.4802104501287395</v>
       </c>
       <c r="K91">
-        <v>32.44203890649291</v>
+        <v>-0.1755796109350709</v>
       </c>
       <c r="L91">
         <v>-0.01482946881386464</v>
@@ -8041,13 +8041,13 @@
         <v>-0.05250000000000199</v>
       </c>
       <c r="U91">
-        <v>0.9997580955522569</v>
+        <v>-0.0002419044477430798</v>
       </c>
       <c r="V91">
-        <v>0.9997578479284991</v>
+        <v>-0.0002421520715009118</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -8082,7 +8082,7 @@
         <v>0.525839257301332</v>
       </c>
       <c r="K92">
-        <v>34.46229704637138</v>
+        <v>-0.1553770295362862</v>
       </c>
       <c r="L92">
         <v>-0.01603077408293003</v>
@@ -8112,13 +8112,13 @@
         <v>-0.05749999999999034</v>
       </c>
       <c r="U92">
-        <v>0.9998020302893659</v>
+        <v>-0.0001979697106341272</v>
       </c>
       <c r="V92">
-        <v>0.9997798084333369</v>
+        <v>-0.000220191566663086</v>
       </c>
       <c r="W92">
-        <v>1.000331125827815</v>
+        <v>0.0003311258278146934</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8153,7 +8153,7 @@
         <v>0.525839257301332</v>
       </c>
       <c r="K93">
-        <v>34.46229704637138</v>
+        <v>-0.1553770295362862</v>
       </c>
       <c r="L93">
         <v>-0.01701065048346232</v>
@@ -8183,13 +8183,13 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="U93">
-        <v>0.9998019910895989</v>
+        <v>-0.0001980089104011151</v>
       </c>
       <c r="V93">
-        <v>0.9997797599383329</v>
+        <v>-0.0002202400616670985</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8224,7 +8224,7 @@
         <v>0.5763974923955992</v>
       </c>
       <c r="K94">
-        <v>36.56422286739793</v>
+        <v>-0.1343577713260207</v>
       </c>
       <c r="L94">
         <v>-0.01761213272294586</v>
@@ -8254,13 +8254,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U94">
-        <v>0.9998239572216048</v>
+        <v>-0.0001760427783952245</v>
       </c>
       <c r="V94">
-        <v>0.999757682564159</v>
+        <v>-0.0002423174358410218</v>
       </c>
       <c r="W94">
-        <v>1.000331016219795</v>
+        <v>0.0003310162197946998</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8295,7 +8295,7 @@
         <v>0.49704110945821</v>
       </c>
       <c r="K95">
-        <v>33.20156716592057</v>
+        <v>-0.1679843283407944</v>
       </c>
       <c r="L95">
         <v>-0.01824251977279789</v>
@@ -8325,13 +8325,13 @@
         <v>-0.07374999999999687</v>
       </c>
       <c r="U95">
-        <v>0.9998239262250885</v>
+        <v>-0.0001760737749114671</v>
       </c>
       <c r="V95">
-        <v>0.9997576238321876</v>
+        <v>-0.0002423761678124192</v>
       </c>
       <c r="W95">
-        <v>0.999007279947055</v>
+        <v>-0.0009927200529450397</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8366,7 +8366,7 @@
         <v>0.4341263774881409</v>
       </c>
       <c r="K96">
-        <v>30.27113818577895</v>
+        <v>-0.1972886181422105</v>
       </c>
       <c r="L96">
         <v>-0.01914468142621772</v>
@@ -8396,13 +8396,13 @@
         <v>-0.08374999999999488</v>
       </c>
       <c r="U96">
-        <v>0.9997798690220679</v>
+        <v>-0.0002201309779320537</v>
       </c>
       <c r="V96">
-        <v>0.9997575650717387</v>
+        <v>-0.0002424349282612592</v>
       </c>
       <c r="W96">
-        <v>0.9990062934746604</v>
+        <v>-0.0009937065253395883</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8437,7 +8437,7 @@
         <v>0.3987101373042197</v>
       </c>
       <c r="K97">
-        <v>28.50555856216693</v>
+        <v>-0.2149444143783307</v>
       </c>
       <c r="L97">
         <v>-0.02032521139132145</v>
@@ -8467,13 +8467,13 @@
         <v>-0.08749999999999858</v>
       </c>
       <c r="U97">
-        <v>0.9998018384983761</v>
+        <v>-0.0001981615016238836</v>
       </c>
       <c r="V97">
-        <v>0.9996472818658788</v>
+        <v>-0.0003527181341211882</v>
       </c>
       <c r="W97">
-        <v>0.9993368700265252</v>
+        <v>-0.0006631299734748408</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8508,7 +8508,7 @@
         <v>0.3532123928992565</v>
       </c>
       <c r="K98">
-        <v>26.10177047983571</v>
+        <v>-0.2389822952016429</v>
       </c>
       <c r="L98">
         <v>-0.02188645137914183</v>
@@ -8538,13 +8538,13 @@
         <v>-0.08624999999999972</v>
       </c>
       <c r="U98">
-        <v>0.9997907880683133</v>
+        <v>-0.0002092119316866592</v>
       </c>
       <c r="V98">
-        <v>0.9995589467648746</v>
+        <v>-0.0004410532351254437</v>
       </c>
       <c r="W98">
-        <v>0.9990046449900464</v>
+        <v>-0.0009953550099536246</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8579,7 +8579,7 @@
         <v>0.3396144296474037</v>
       </c>
       <c r="K99">
-        <v>25.35165508308184</v>
+        <v>-0.2464834491691816</v>
       </c>
       <c r="L99">
         <v>-0.02362024962175267</v>
@@ -8609,13 +8609,13 @@
         <v>-0.08500000000000085</v>
       </c>
       <c r="U99">
-        <v>0.9997797308310755</v>
+        <v>-0.0002202691689244807</v>
       </c>
       <c r="V99">
-        <v>0.999602876935975</v>
+        <v>-0.0003971230640249512</v>
       </c>
       <c r="W99">
-        <v>0.9996678844237795</v>
+        <v>-0.0003321155762204819</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8650,7 +8650,7 @@
         <v>0.3396144296474037</v>
       </c>
       <c r="K100">
-        <v>25.35165508308184</v>
+        <v>-0.2464834491691816</v>
       </c>
       <c r="L100">
         <v>-0.02526297110541886</v>
@@ -8680,13 +8680,13 @@
         <v>-0.09000000000000341</v>
       </c>
       <c r="U100">
-        <v>0.9997796823018793</v>
+        <v>-0.0002203176981206978</v>
       </c>
       <c r="V100">
-        <v>0.9995806480091814</v>
+        <v>-0.0004193519908185506</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8721,7 +8721,7 @@
         <v>0.3129181088610455</v>
       </c>
       <c r="K101">
-        <v>23.83378725216164</v>
+        <v>-0.2616621274783836</v>
       </c>
       <c r="L101">
         <v>-0.0268952463823865</v>
@@ -8751,13 +8751,13 @@
         <v>-0.09624999999999773</v>
       </c>
       <c r="U101">
-        <v>0.9997245421891182</v>
+        <v>-0.0002754578108817851</v>
       </c>
       <c r="V101">
-        <v>0.9995583916624347</v>
+        <v>-0.0004416083375653468</v>
       </c>
       <c r="W101">
-        <v>0.9993355481727574</v>
+        <v>-0.0006644518272426181</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8792,7 +8792,7 @@
         <v>0.3956630921369482</v>
       </c>
       <c r="K102">
-        <v>28.3494701813125</v>
+        <v>-0.216505298186875</v>
       </c>
       <c r="L102">
         <v>-0.02807946483118754</v>
@@ -8822,13 +8822,13 @@
         <v>-0.1037500000000051</v>
       </c>
       <c r="U102">
-        <v>0.9997465089879097</v>
+        <v>-0.0002534910120902678</v>
       </c>
       <c r="V102">
-        <v>0.9996023769025161</v>
+        <v>-0.0003976230974839234</v>
       </c>
       <c r="W102">
-        <v>1.000664893617021</v>
+        <v>0.0006648936170214892</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8863,7 +8863,7 @@
         <v>0.3499430428317463</v>
       </c>
       <c r="K103">
-        <v>25.92280057221365</v>
+        <v>-0.2407719942778636</v>
       </c>
       <c r="L103">
         <v>-0.02917619055082497</v>
@@ -8893,13 +8893,13 @@
         <v>-0.1075000000000017</v>
       </c>
       <c r="U103">
-        <v>0.9997023481424319</v>
+        <v>-0.0002976518575681375</v>
       </c>
       <c r="V103">
-        <v>0.9995580208172196</v>
+        <v>-0.0004419791827804387</v>
       </c>
       <c r="W103">
-        <v>0.9990033222591361</v>
+        <v>-0.0009966777408638716</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8934,7 +8934,7 @@
         <v>0.4310328532388047</v>
       </c>
       <c r="K104">
-        <v>30.12040235577147</v>
+        <v>-0.1987959764422852</v>
       </c>
       <c r="L104">
         <v>-0.02980375042809194</v>
@@ -8964,13 +8964,13 @@
         <v>-0.1025000000000063</v>
       </c>
       <c r="U104">
-        <v>0.9997243143698377</v>
+        <v>-0.0002756856301623367</v>
       </c>
       <c r="V104">
-        <v>0.9997125865004091</v>
+        <v>-0.0002874134995909383</v>
       </c>
       <c r="W104">
-        <v>1.000665114732291</v>
+        <v>0.0006651147322913609</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -9005,7 +9005,7 @@
         <v>0.4310328532388047</v>
       </c>
       <c r="K105">
-        <v>30.12040235577147</v>
+        <v>-0.1987959764422852</v>
       </c>
       <c r="L105">
         <v>-0.02999895728671285</v>
@@ -9035,13 +9035,13 @@
         <v>-0.09874999999999545</v>
       </c>
       <c r="U105">
-        <v>0.9997242383463126</v>
+        <v>-0.0002757616536873675</v>
       </c>
       <c r="V105">
-        <v>0.9997567340439647</v>
+        <v>-0.000243265956035299</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -9076,7 +9076,7 @@
         <v>0.3954973363205448</v>
       </c>
       <c r="K106">
-        <v>28.34095960106508</v>
+        <v>-0.2165904039893492</v>
       </c>
       <c r="L106">
         <v>-0.03005181009084142</v>
@@ -9106,13 +9106,13 @@
         <v>-0.09250000000000114</v>
       </c>
       <c r="U106">
-        <v>0.999735195789613</v>
+        <v>-0.000264804210386993</v>
       </c>
       <c r="V106">
-        <v>0.9997124339151017</v>
+        <v>-0.0002875660848983275</v>
       </c>
       <c r="W106">
-        <v>0.9993353273512795</v>
+        <v>-0.000664672648720499</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9147,7 +9147,7 @@
         <v>0.4822791372930452</v>
       </c>
       <c r="K107">
-        <v>32.536323635627</v>
+        <v>-0.17463676364373</v>
       </c>
       <c r="L107">
         <v>-0.0296650421465055</v>
@@ -9177,13 +9177,13 @@
         <v>-0.08125000000000426</v>
       </c>
       <c r="U107">
-        <v>0.9997571985122892</v>
+        <v>-0.0002428014877108309</v>
       </c>
       <c r="V107">
-        <v>0.9997344780280569</v>
+        <v>-0.0002655219719430724</v>
       </c>
       <c r="W107">
-        <v>1.000665114732291</v>
+        <v>0.0006651147322913609</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9218,7 +9218,7 @@
         <v>0.5279537693838429</v>
       </c>
       <c r="K108">
-        <v>34.55299368100277</v>
+        <v>-0.1544700631899723</v>
       </c>
       <c r="L108">
         <v>-0.02880810860096578</v>
@@ -9248,13 +9248,13 @@
         <v>-0.06750000000000256</v>
       </c>
       <c r="U108">
-        <v>0.9997681786569816</v>
+        <v>-0.0002318213430183569</v>
       </c>
       <c r="V108">
-        <v>0.9997565402151297</v>
+        <v>-0.0002434597848702813</v>
       </c>
       <c r="W108">
-        <v>1.00033233632436</v>
+        <v>0.0003323363243603605</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9289,7 +9289,7 @@
         <v>0.5279537693838429</v>
       </c>
       <c r="K109">
-        <v>34.55299368100277</v>
+        <v>-0.1544700631899723</v>
       </c>
       <c r="L109">
         <v>-0.02761596821170632</v>
@@ -9319,13 +9319,13 @@
         <v>-0.04874999999999829</v>
       </c>
       <c r="U109">
-        <v>0.9997460415608507</v>
+        <v>-0.0002539584391493266</v>
       </c>
       <c r="V109">
-        <v>0.9997343428305773</v>
+        <v>-0.0002656571694227283</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9360,7 +9360,7 @@
         <v>0.5025216460582236</v>
       </c>
       <c r="K110">
-        <v>33.44521840178206</v>
+        <v>-0.1655478159821794</v>
       </c>
       <c r="L110">
         <v>-0.02631669783945784</v>
@@ -9390,13 +9390,13 @@
         <v>-0.03499999999999659</v>
       </c>
       <c r="U110">
-        <v>0.9997680660017891</v>
+        <v>-0.0002319339982108648</v>
       </c>
       <c r="V110">
-        <v>0.99977856019841</v>
+        <v>-0.000221439801589951</v>
       </c>
       <c r="W110">
-        <v>0.9996677740863786</v>
+        <v>-0.0003322259136213646</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9431,7 +9431,7 @@
         <v>0.4562518336034327</v>
       </c>
       <c r="K111">
-        <v>31.33055856653976</v>
+        <v>-0.1866944143346024</v>
       </c>
       <c r="L111">
         <v>-0.02518082857182779</v>
@@ -9461,13 +9461,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U111">
-        <v>0.9997790592342193</v>
+        <v>-0.0002209407657807194</v>
       </c>
       <c r="V111">
-        <v>0.999800660036767</v>
+        <v>-0.0001993399632329584</v>
       </c>
       <c r="W111">
-        <v>0.9993353273512795</v>
+        <v>-0.000664672648720499</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9502,7 +9502,7 @@
         <v>0.415938519544427</v>
       </c>
       <c r="K112">
-        <v>29.37546466906301</v>
+        <v>-0.2062453533093699</v>
       </c>
       <c r="L112">
         <v>-0.02436623206498575</v>
@@ -9532,13 +9532,13 @@
         <v>-0.01624999999999233</v>
       </c>
       <c r="U112">
-        <v>0.9997237630107624</v>
+        <v>-0.0002762369892376215</v>
       </c>
       <c r="V112">
-        <v>0.9998006202924237</v>
+        <v>-0.0001993797075763304</v>
       </c>
       <c r="W112">
-        <v>0.9993348852677086</v>
+        <v>-0.0006651147322913609</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9573,7 +9573,7 @@
         <v>0.415938519544427</v>
       </c>
       <c r="K113">
-        <v>29.37546466906301</v>
+        <v>-0.2062453533093699</v>
       </c>
       <c r="L113">
         <v>-0.02370982215880133</v>
@@ -9603,13 +9603,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U113">
-        <v>0.9997126341501154</v>
+        <v>-0.0002873658498846465</v>
       </c>
       <c r="V113">
-        <v>0.9998670536881522</v>
+        <v>-0.0001329463118477925</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9644,7 +9644,7 @@
         <v>0.3788480971852296</v>
       </c>
       <c r="K114">
-        <v>27.47569496296273</v>
+        <v>-0.2252430503703727</v>
       </c>
       <c r="L114">
         <v>-0.02334650765798895</v>
@@ -9674,13 +9674,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U114">
-        <v>0.9997236072569678</v>
+        <v>-0.00027639274303215</v>
       </c>
       <c r="V114">
-        <v>0.9998448753462604</v>
+        <v>-0.000155124653739569</v>
       </c>
       <c r="W114">
-        <v>0.9993344425956739</v>
+        <v>-0.0006655574043260559</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9715,7 +9715,7 @@
         <v>0.4727142529203358</v>
       </c>
       <c r="K115">
-        <v>32.09816513848234</v>
+        <v>-0.1790183486151766</v>
       </c>
       <c r="L115">
         <v>-0.02285777090983747</v>
@@ -9745,13 +9745,13 @@
         <v>-0.01874999999999005</v>
       </c>
       <c r="U115">
-        <v>0.9997345896091834</v>
+        <v>-0.0002654103908166228</v>
       </c>
       <c r="V115">
-        <v>0.9998891794849062</v>
+        <v>-0.0001108205150938124</v>
       </c>
       <c r="W115">
-        <v>1.000666000666001</v>
+        <v>0.0006660006660006434</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9786,7 +9786,7 @@
         <v>0.4504600662211926</v>
       </c>
       <c r="K116">
-        <v>31.0563576834454</v>
+        <v>-0.189436423165546</v>
       </c>
       <c r="L116">
         <v>-0.02236189463898809</v>
@@ -9816,13 +9816,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U116">
-        <v>0.9997345191478063</v>
+        <v>-0.0002654808521936891</v>
       </c>
       <c r="V116">
-        <v>0.9999113337618869</v>
+        <v>-8.866623811309982E-05</v>
       </c>
       <c r="W116">
-        <v>0.9996672212978369</v>
+        <v>-0.0003327787021630835</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9857,7 +9857,7 @@
         <v>0.4504600662211926</v>
       </c>
       <c r="K117">
-        <v>31.0563576834454</v>
+        <v>-0.189436423165546</v>
       </c>
       <c r="L117">
         <v>-0.02181205482938346</v>
@@ -9887,13 +9887,13 @@
         <v>-0.03625000000000966</v>
       </c>
       <c r="U117">
-        <v>0.9997344486490075</v>
+        <v>-0.0002655513509924878</v>
       </c>
       <c r="V117">
-        <v>0.9998669888492319</v>
+        <v>-0.0001330111507681364</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9928,7 +9928,7 @@
         <v>0.4281274846533162</v>
       </c>
       <c r="K118">
-        <v>29.97823998585433</v>
+        <v>-0.2002176001414567</v>
       </c>
       <c r="L118">
         <v>-0.02130612854256799</v>
@@ -9958,13 +9958,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U118">
-        <v>0.9997343781127567</v>
+        <v>-0.000265621887243328</v>
       </c>
       <c r="V118">
-        <v>0.9999113141032746</v>
+        <v>-8.86858967253934E-05</v>
       </c>
       <c r="W118">
-        <v>0.9996671105193077</v>
+        <v>-0.0003328894806923222</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9999,7 +9999,7 @@
         <v>0.5325006904514322</v>
       </c>
       <c r="K119">
-        <v>34.74717458656232</v>
+        <v>-0.1525282541343768</v>
       </c>
       <c r="L119">
         <v>-0.02053990113086104</v>
@@ -10029,13 +10029,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U119">
-        <v>0.9998118011734749</v>
+        <v>-0.0001881988265250989</v>
       </c>
       <c r="V119">
-        <v>0.9999113062373889</v>
+        <v>-8.869376261111395E-05</v>
       </c>
       <c r="W119">
-        <v>1.000666000666001</v>
+        <v>0.0006660006660006434</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -10070,7 +10070,7 @@
         <v>0.4571606992707039</v>
       </c>
       <c r="K120">
-        <v>31.37338932483623</v>
+        <v>-0.1862661067516377</v>
       </c>
       <c r="L120">
         <v>-0.01995268757235563</v>
@@ -10100,13 +10100,13 @@
         <v>-0.04374999999999574</v>
       </c>
       <c r="U120">
-        <v>0.9998006931449516</v>
+        <v>-0.0001993068550484312</v>
       </c>
       <c r="V120">
-        <v>0.9998447721476883</v>
+        <v>-0.0001552278523117012</v>
       </c>
       <c r="W120">
-        <v>0.9990016638935107</v>
+        <v>-0.0009983361064892504</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10141,7 +10141,7 @@
         <v>0.4158703563297094</v>
       </c>
       <c r="K121">
-        <v>29.37206464352778</v>
+        <v>-0.2062793535647222</v>
       </c>
       <c r="L121">
         <v>-0.01968076061438373</v>
@@ -10171,13 +10171,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U121">
-        <v>0.9997785037931224</v>
+        <v>-0.0002214962068776138</v>
       </c>
       <c r="V121">
-        <v>0.9998447480482611</v>
+        <v>-0.0001552519517389328</v>
       </c>
       <c r="W121">
-        <v>0.9993337774816788</v>
+        <v>-0.0006662225183211579</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10212,7 +10212,7 @@
         <v>0.3797650533287187</v>
       </c>
       <c r="K122">
-        <v>27.5238927390229</v>
+        <v>-0.224761072609771</v>
       </c>
       <c r="L122">
         <v>-0.01978774078010809</v>
@@ -10242,13 +10242,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U122">
-        <v>0.9997452229299364</v>
+        <v>-0.0002547770700636054</v>
       </c>
       <c r="V122">
-        <v>0.9997559947649787</v>
+        <v>-0.0002440052350213273</v>
       </c>
       <c r="W122">
-        <v>0.9993333333333333</v>
+        <v>-0.0006666666666667043</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10283,7 +10283,7 @@
         <v>0.6539292119025111</v>
       </c>
       <c r="K123">
-        <v>39.53792019613087</v>
+        <v>-0.1046207980386913</v>
       </c>
       <c r="L123">
         <v>-0.01931999566965202</v>
@@ -10313,13 +10313,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U123">
-        <v>0.9998116385232461</v>
+        <v>-0.0001883614767539399</v>
       </c>
       <c r="V123">
-        <v>0.9998668737519415</v>
+        <v>-0.0001331262480585016</v>
       </c>
       <c r="W123">
-        <v>1.002001334222815</v>
+        <v>0.002001334222815121</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10354,7 +10354,7 @@
         <v>0.6539292119025111</v>
       </c>
       <c r="K124">
-        <v>39.53792019613087</v>
+        <v>-0.1046207980386913</v>
       </c>
       <c r="L124">
         <v>-0.01846338516645221</v>
@@ -10384,13 +10384,13 @@
         <v>-0.03500000000000369</v>
       </c>
       <c r="U124">
-        <v>0.9998005208621933</v>
+        <v>-0.0001994791378067129</v>
       </c>
       <c r="V124">
-        <v>0.9998668560269837</v>
+        <v>-0.0001331439730163364</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10425,7 +10425,7 @@
         <v>0.5677003533447307</v>
       </c>
       <c r="K125">
-        <v>36.21229989095345</v>
+        <v>-0.1378770010904655</v>
       </c>
       <c r="L125">
         <v>-0.01772147930522227</v>
@@ -10455,13 +10455,13 @@
         <v>-0.03124999999999289</v>
       </c>
       <c r="U125">
-        <v>0.9998004810623273</v>
+        <v>-0.0001995189376726714</v>
       </c>
       <c r="V125">
-        <v>0.9998224510630744</v>
+        <v>-0.0001775489369255645</v>
       </c>
       <c r="W125">
-        <v>0.9990013315579228</v>
+        <v>-0.0009986684420771885</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10496,7 +10496,7 @@
         <v>0.7065031746324227</v>
       </c>
       <c r="K126">
-        <v>41.40063640869594</v>
+        <v>-0.0859936359130406</v>
       </c>
       <c r="L126">
         <v>-0.01666880632988625</v>
@@ -10526,13 +10526,13 @@
         <v>-0.02250000000000085</v>
       </c>
       <c r="U126">
-        <v>0.9998669608310514</v>
+        <v>-0.0001330391689485788</v>
       </c>
       <c r="V126">
-        <v>0.9999334073251943</v>
+        <v>-6.659267480568776E-05</v>
       </c>
       <c r="W126">
-        <v>1.000999666777741</v>
+        <v>0.0009996667777407708</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10567,7 +10567,7 @@
         <v>0.6164366979753239</v>
       </c>
       <c r="K127">
-        <v>38.13552975798216</v>
+        <v>-0.1186447024201784</v>
       </c>
       <c r="L127">
         <v>-0.01579730416878759</v>
@@ -10597,13 +10597,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U127">
-        <v>0.9998558550567155</v>
+        <v>-0.0001441449432845188</v>
       </c>
       <c r="V127">
-        <v>0.9999112038537527</v>
+        <v>-8.879614624734966E-05</v>
       </c>
       <c r="W127">
-        <v>0.9990013315579228</v>
+        <v>-0.0009986684420771885</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10638,7 +10638,7 @@
         <v>0.5900437203990843</v>
       </c>
       <c r="K128">
-        <v>37.10864756919951</v>
+        <v>-0.1289135243080049</v>
       </c>
       <c r="L128">
         <v>-0.0151547513192994</v>
@@ -10668,13 +10668,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U128">
-        <v>0.999878013618116</v>
+        <v>-0.0001219863818839872</v>
       </c>
       <c r="V128">
-        <v>0.9998889949603712</v>
+        <v>-0.0001110050396287976</v>
       </c>
       <c r="W128">
-        <v>0.9996667777407531</v>
+        <v>-0.0003332222592469236</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10709,7 +10709,7 @@
         <v>0.5412561554811948</v>
       </c>
       <c r="K129">
-        <v>35.11785847902807</v>
+        <v>-0.1488214152097193</v>
       </c>
       <c r="L129">
         <v>-0.01487899812433815</v>
@@ -10739,13 +10739,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U129">
-        <v>0.999866907711589</v>
+        <v>-0.0001330922884109631</v>
       </c>
       <c r="V129">
-        <v>0.9998889826368844</v>
+        <v>-0.0001110173631155842</v>
       </c>
       <c r="W129">
-        <v>0.9993333333333333</v>
+        <v>-0.0006666666666667043</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10780,7 +10780,7 @@
         <v>0.4445302740260585</v>
       </c>
       <c r="K130">
-        <v>30.77334425031506</v>
+        <v>-0.1922665574968494</v>
       </c>
       <c r="L130">
         <v>-0.01539466807720406</v>
@@ -10810,13 +10810,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U130">
-        <v>0.9998114274938713</v>
+        <v>-0.0001885725061286925</v>
       </c>
       <c r="V130">
-        <v>0.9997335287455867</v>
+        <v>-0.0002664712544132586</v>
       </c>
       <c r="W130">
-        <v>0.9983322214809873</v>
+        <v>-0.001667778519012675</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10851,7 +10851,7 @@
         <v>0.4284123816322928</v>
       </c>
       <c r="K131">
-        <v>29.99220583223538</v>
+        <v>-0.2000779416776461</v>
       </c>
       <c r="L131">
         <v>-0.0164225328321343</v>
@@ -10881,13 +10881,13 @@
         <v>-0.03374999999999773</v>
       </c>
       <c r="U131">
-        <v>0.9998224865200702</v>
+        <v>-0.0001775134799297806</v>
       </c>
       <c r="V131">
-        <v>0.9997334577197308</v>
+        <v>-0.000266542280269233</v>
       </c>
       <c r="W131">
-        <v>0.9996658870698296</v>
+        <v>-0.0003341129301703827</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10922,7 +10922,7 @@
         <v>0.3980295260961362</v>
       </c>
       <c r="K132">
-        <v>28.47075248886878</v>
+        <v>-0.2152924751113122</v>
       </c>
       <c r="L132">
         <v>-0.01787824510501645</v>
@@ -10952,13 +10952,13 @@
         <v>-0.05124999999999602</v>
       </c>
       <c r="U132">
-        <v>0.9997780687542999</v>
+        <v>-0.0002219312457001354</v>
       </c>
       <c r="V132">
-        <v>0.9996889510986691</v>
+        <v>-0.0003110489013309348</v>
       </c>
       <c r="W132">
-        <v>0.999331550802139</v>
+        <v>-0.0006684491978610207</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10993,7 +10993,7 @@
         <v>0.3837072202016631</v>
       </c>
       <c r="K133">
-        <v>27.73037638307193</v>
+        <v>-0.2226962361692807</v>
       </c>
       <c r="L133">
         <v>-0.01955712136233783</v>
@@ -11023,13 +11023,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U133">
-        <v>0.9998002175408998</v>
+        <v>-0.0001997824591002395</v>
       </c>
       <c r="V133">
-        <v>0.9996888543171463</v>
+        <v>-0.0003111456828537307</v>
       </c>
       <c r="W133">
-        <v>0.9996655518394649</v>
+        <v>-0.0003344481605350724</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -11064,7 +11064,7 @@
         <v>0.3445552050545556</v>
       </c>
       <c r="K134">
-        <v>25.62596193590839</v>
+        <v>-0.2437403806409161</v>
       </c>
       <c r="L134">
         <v>-0.02155729278411</v>
@@ -11094,13 +11094,13 @@
         <v>-0.08624999999999972</v>
       </c>
       <c r="U134">
-        <v>0.9997446714031973</v>
+        <v>-0.000255328596802662</v>
       </c>
       <c r="V134">
-        <v>0.9995775994308709</v>
+        <v>-0.0004224005691291222</v>
       </c>
       <c r="W134">
-        <v>0.9989963198394112</v>
+        <v>-0.001003680160588827</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11135,7 +11135,7 @@
         <v>0.3111370636665093</v>
       </c>
       <c r="K135">
-        <v>23.73032326585559</v>
+        <v>-0.2626967673414441</v>
       </c>
       <c r="L135">
         <v>-0.02391075411534137</v>
@@ -11165,13 +11165,13 @@
         <v>-0.103749999999998</v>
       </c>
       <c r="U135">
-        <v>0.9997112939582709</v>
+        <v>-0.0002887060417291476</v>
       </c>
       <c r="V135">
-        <v>0.9995774209332324</v>
+        <v>-0.00042257906676757</v>
       </c>
       <c r="W135">
-        <v>0.9989953114534494</v>
+        <v>-0.001004688546550558</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11206,7 +11206,7 @@
         <v>0.3008971409635571</v>
       </c>
       <c r="K136">
-        <v>23.12997173171483</v>
+        <v>-0.2687002826828517</v>
       </c>
       <c r="L136">
         <v>-0.02636363006827613</v>
@@ -11236,13 +11236,13 @@
         <v>-0.1237500000000011</v>
       </c>
       <c r="U136">
-        <v>0.9997223178682897</v>
+        <v>-0.0002776821317103106</v>
       </c>
       <c r="V136">
-        <v>0.9995994926907416</v>
+        <v>-0.0004005073092584466</v>
       </c>
       <c r="W136">
-        <v>0.9996647670130742</v>
+        <v>-0.0003352329869258375</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11277,7 +11277,7 @@
         <v>0.3355406060528234</v>
       </c>
       <c r="K137">
-        <v>25.12395389044069</v>
+        <v>-0.2487604610955931</v>
       </c>
       <c r="L137">
         <v>-0.02850434597111555</v>
@@ -11307,13 +11307,13 @@
         <v>-0.1400000000000077</v>
       </c>
       <c r="U137">
-        <v>0.9997111303690867</v>
+        <v>-0.0002888696309133465</v>
       </c>
       <c r="V137">
-        <v>0.9996661101836395</v>
+        <v>-0.0003338898163605108</v>
       </c>
       <c r="W137">
-        <v>1.000335345405768</v>
+        <v>0.0003353454057679617</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11348,7 +11348,7 @@
         <v>0.3237350239472555</v>
       </c>
       <c r="K138">
-        <v>24.4561802846243</v>
+        <v>-0.255438197153757</v>
       </c>
       <c r="L138">
         <v>-0.03033802802398316</v>
@@ -11378,13 +11378,13 @@
         <v>-0.1475000000000009</v>
       </c>
       <c r="U138">
-        <v>0.9996888197377194</v>
+        <v>-0.0003111802622806081</v>
       </c>
       <c r="V138">
-        <v>0.9995101313738588</v>
+        <v>-0.0004898686261411989</v>
       </c>
       <c r="W138">
-        <v>0.9996647670130742</v>
+        <v>-0.0003352329869258375</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11419,7 +11419,7 @@
         <v>0.3014093091115772</v>
       </c>
       <c r="K139">
-        <v>23.16022384359137</v>
+        <v>-0.2683977615640863</v>
       </c>
       <c r="L139">
         <v>-0.03200204581951376</v>
@@ -11449,13 +11449,13 @@
         <v>-0.1474999999999937</v>
       </c>
       <c r="U139">
-        <v>0.9996664887940235</v>
+        <v>-0.0003335112059764667</v>
       </c>
       <c r="V139">
-        <v>0.9994653359472464</v>
+        <v>-0.0005346640527535973</v>
       </c>
       <c r="W139">
-        <v>0.9993293091884642</v>
+        <v>-0.0006706908115358123</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11490,7 +11490,7 @@
         <v>0.5191869734377974</v>
       </c>
       <c r="K140">
-        <v>34.17531762156433</v>
+        <v>-0.1582468237843567</v>
       </c>
       <c r="L140">
         <v>-0.03261338171922179</v>
@@ -11520,13 +11520,13 @@
         <v>-0.1350000000000051</v>
       </c>
       <c r="U140">
-        <v>0.9997442227708458</v>
+        <v>-0.0002557772291541527</v>
       </c>
       <c r="V140">
-        <v>0.9996656562054209</v>
+        <v>-0.0003343437945790839</v>
       </c>
       <c r="W140">
-        <v>1.002013422818792</v>
+        <v>0.002013422818791799</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11561,7 +11561,7 @@
         <v>0.5956001889908572</v>
       </c>
       <c r="K141">
-        <v>37.32765846358708</v>
+        <v>-0.1267234153641292</v>
       </c>
       <c r="L141">
         <v>-0.03218642247596794</v>
@@ -11591,13 +11591,13 @@
         <v>-0.1212500000000034</v>
       </c>
       <c r="U141">
-        <v>0.9997886517091402</v>
+        <v>-0.0002113482908597808</v>
       </c>
       <c r="V141">
-        <v>0.9996432473410778</v>
+        <v>-0.0003567526589222103</v>
       </c>
       <c r="W141">
-        <v>1.000669792364367</v>
+        <v>0.0006697923643670389</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11632,7 +11632,7 @@
         <v>0.4958841332897665</v>
       </c>
       <c r="K142">
-        <v>33.14990260637448</v>
+        <v>-0.1685009739362552</v>
       </c>
       <c r="L142">
         <v>-0.03164749750353151</v>
@@ -11662,13 +11662,13 @@
         <v>-0.1024999999999991</v>
       </c>
       <c r="U142">
-        <v>0.9997552291944815</v>
+        <v>-0.000244770805518546</v>
       </c>
       <c r="V142">
-        <v>0.9995985100260968</v>
+        <v>-0.0004014899739032129</v>
       </c>
       <c r="W142">
-        <v>0.9983266398929049</v>
+        <v>-0.001673360107095068</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11703,7 +11703,7 @@
         <v>0.4958841332897665</v>
       </c>
       <c r="K143">
-        <v>33.14990260637448</v>
+        <v>-0.1685009739362552</v>
       </c>
       <c r="L143">
         <v>-0.03096019241717091</v>
@@ -11733,13 +11733,13 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="U143">
-        <v>0.9997551692670659</v>
+        <v>-0.0002448307329341315</v>
       </c>
       <c r="V143">
-        <v>0.9996206627245343</v>
+        <v>-0.0003793372754656854</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11774,7 +11774,7 @@
         <v>0.6813923087743045</v>
       </c>
       <c r="K144">
-        <v>40.52548029501952</v>
+        <v>-0.09474519704980477</v>
       </c>
       <c r="L144">
         <v>-0.02950654829528783</v>
@@ -11804,13 +11804,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U144">
-        <v>0.9998330290752038</v>
+        <v>-0.0001669709247962281</v>
       </c>
       <c r="V144">
-        <v>0.9997767757489173</v>
+        <v>-0.0002232242510826765</v>
       </c>
       <c r="W144">
-        <v>1.00167616493463</v>
+        <v>0.00167616493462952</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11845,7 +11845,7 @@
         <v>0.8376097197086606</v>
       </c>
       <c r="K145">
-        <v>45.58148069882094</v>
+        <v>-0.04418519301179058</v>
       </c>
       <c r="L145">
         <v>-0.02708701904782455</v>
@@ -11875,13 +11875,13 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="U145">
-        <v>0.9998552676990903</v>
+        <v>-0.0001447323009097223</v>
       </c>
       <c r="V145">
-        <v>0.9999776725908726</v>
+        <v>-2.23274091274428E-05</v>
       </c>
       <c r="W145">
-        <v>1.001338688085676</v>
+        <v>0.001338688085676054</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11916,7 +11916,7 @@
         <v>0.8045353943632679</v>
       </c>
       <c r="K146">
-        <v>44.58407393262291</v>
+        <v>-0.05415926067377086</v>
       </c>
       <c r="L146">
         <v>-0.02425867903748739</v>
@@ -11946,13 +11946,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U146">
-        <v>0.9998552467486195</v>
+        <v>-0.000144753251380525</v>
       </c>
       <c r="V146">
-        <v>0.9999776720923482</v>
+        <v>-2.232790765177572E-05</v>
       </c>
       <c r="W146">
-        <v>0.9996657754010695</v>
+        <v>-0.0003342245989305104</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11987,7 +11987,7 @@
         <v>0.8461001929702481</v>
       </c>
       <c r="K147">
-        <v>45.83175908827197</v>
+        <v>-0.04168240911728027</v>
       </c>
       <c r="L147">
         <v>-0.0211524346848804</v>
@@ -12017,13 +12017,13 @@
         <v>0.03499999999999659</v>
       </c>
       <c r="U147">
-        <v>0.9998663622696141</v>
+        <v>-0.0001336377303858827</v>
       </c>
       <c r="V147">
-        <v>1.000044656812397</v>
+        <v>4.465681239684827E-05</v>
       </c>
       <c r="W147">
-        <v>1.00033433634236</v>
+        <v>0.0003343363423604639</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -12058,7 +12058,7 @@
         <v>0.846100192970248</v>
       </c>
       <c r="K148">
-        <v>45.83175908827197</v>
+        <v>-0.04168240911728027</v>
       </c>
       <c r="L148">
         <v>-0.01799833856100782</v>
@@ -12088,13 +12088,13 @@
         <v>0.04749999999999943</v>
       </c>
       <c r="U148">
-        <v>0.9998774823741686</v>
+        <v>-0.0001225176258313754</v>
       </c>
       <c r="V148">
-        <v>1.000066982227382</v>
+        <v>6.698222738221737E-05</v>
       </c>
       <c r="W148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12129,7 +12129,7 @@
         <v>0.8088485295526227</v>
       </c>
       <c r="K149">
-        <v>44.7162112436619</v>
+        <v>-0.05283788756338104</v>
       </c>
       <c r="L149">
         <v>-0.01507215742408919</v>
@@ -12159,13 +12159,13 @@
         <v>0.05249999999999488</v>
       </c>
       <c r="U149">
-        <v>0.9998440493695141</v>
+        <v>-0.0001559506304859015</v>
       </c>
       <c r="V149">
-        <v>1.00011162956844</v>
+        <v>0.0001116295684400193</v>
       </c>
       <c r="W149">
-        <v>0.9996657754010695</v>
+        <v>-0.0003342245989305104</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12200,7 +12200,7 @@
         <v>0.773022994630817</v>
       </c>
       <c r="K150">
-        <v>43.59915223726569</v>
+        <v>-0.06400847762734307</v>
       </c>
       <c r="L150">
         <v>-0.01253728403564023</v>
@@ -12230,13 +12230,13 @@
         <v>0.06499999999999773</v>
       </c>
       <c r="U150">
-        <v>0.9998663071815325</v>
+        <v>-0.0001336928184675346</v>
       </c>
       <c r="V150">
-        <v>1.000156263952139</v>
+        <v>0.0001562639521388576</v>
       </c>
       <c r="W150">
-        <v>0.9996656636576395</v>
+        <v>-0.0003343363423604639</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12271,7 +12271,7 @@
         <v>0.7385876889538647</v>
       </c>
       <c r="K151">
-        <v>42.48204986417938</v>
+        <v>-0.07517950135820617</v>
       </c>
       <c r="L151">
         <v>-0.01047711055634363</v>
@@ -12301,13 +12301,13 @@
         <v>0.07250000000000512</v>
       </c>
       <c r="U151">
-        <v>0.9998774318632586</v>
+        <v>-0.0001225681367413856</v>
       </c>
       <c r="V151">
-        <v>1.000156239537531</v>
+        <v>0.0001562395375309666</v>
       </c>
       <c r="W151">
-        <v>0.9996655518394649</v>
+        <v>-0.0003344481605350724</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12342,7 +12342,7 @@
         <v>0.6219354162931714</v>
       </c>
       <c r="K152">
-        <v>38.34526393871863</v>
+        <v>-0.1165473606128137</v>
       </c>
       <c r="L152">
         <v>-0.009284700681879766</v>
@@ -12372,13 +12372,13 @@
         <v>0.06125000000000114</v>
       </c>
       <c r="U152">
-        <v>0.9998551289909177</v>
+        <v>-0.0001448710090823369</v>
       </c>
       <c r="V152">
-        <v>1.000044632894443</v>
+        <v>4.463289444300855E-05</v>
       </c>
       <c r="W152">
-        <v>0.9986617597858816</v>
+        <v>-0.001338240214118436</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12413,7 +12413,7 @@
         <v>0.6634984790801117</v>
       </c>
       <c r="K153">
-        <v>39.88572802585404</v>
+        <v>-0.1011427197414597</v>
       </c>
       <c r="L153">
         <v>-0.008538618131415284</v>
@@ -12443,13 +12443,13 @@
         <v>0.04249999999999687</v>
       </c>
       <c r="U153">
-        <v>0.9997993803080628</v>
+        <v>-0.0002006196919371872</v>
       </c>
       <c r="V153">
-        <v>1.000089261804874</v>
+        <v>8.926180487378588E-05</v>
       </c>
       <c r="W153">
-        <v>1.000335008375209</v>
+        <v>0.0003350083752093891</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12484,7 +12484,7 @@
         <v>0.6356868047852497</v>
       </c>
       <c r="K154">
-        <v>38.86360169474555</v>
+        <v>-0.1113639830525445</v>
       </c>
       <c r="L154">
         <v>-0.008201242758966186</v>
@@ -12514,13 +12514,13 @@
         <v>0.02375000000000682</v>
       </c>
       <c r="U154">
-        <v>0.9997881922768213</v>
+        <v>-0.0002118077231787474</v>
       </c>
       <c r="V154">
-        <v>1.000111567297394</v>
+        <v>0.0001115672973939219</v>
       </c>
       <c r="W154">
-        <v>0.9996651038178166</v>
+        <v>-0.0003348961821834084</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12555,7 +12555,7 @@
         <v>0.6088237626961803</v>
       </c>
       <c r="K155">
-        <v>37.84278780640774</v>
+        <v>-0.1215721219359226</v>
       </c>
       <c r="L155">
         <v>-0.008224986128214009</v>
@@ -12585,13 +12585,13 @@
         <v>-0.001250000000005969</v>
       </c>
       <c r="U155">
-        <v>0.9998104476779842</v>
+        <v>-0.0001895523220157846</v>
       </c>
       <c r="V155">
-        <v>0.9999553780593916</v>
+        <v>-4.462194060839142E-05</v>
       </c>
       <c r="W155">
-        <v>0.9996649916247906</v>
+        <v>-0.0003350083752093891</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12626,7 +12626,7 @@
         <v>0.6533061810768787</v>
       </c>
       <c r="K156">
-        <v>39.51513570531434</v>
+        <v>-0.1048486429468566</v>
       </c>
       <c r="L156">
         <v>-0.008314369937787468</v>
@@ -12656,13 +12656,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U156">
-        <v>0.999788107240041</v>
+        <v>-0.0002118927599590315</v>
       </c>
       <c r="V156">
-        <v>0.9999330641022782</v>
+        <v>-6.693589772177599E-05</v>
       </c>
       <c r="W156">
-        <v>1.000335120643432</v>
+        <v>0.0003351206434316634</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12697,7 +12697,7 @@
         <v>0.5728390275368284</v>
       </c>
       <c r="K157">
-        <v>36.42070278698087</v>
+        <v>-0.1357929721301913</v>
       </c>
       <c r="L157">
         <v>-0.008773002533697486</v>
@@ -12727,13 +12727,13 @@
         <v>-0.03249999999999886</v>
       </c>
       <c r="U157">
-        <v>0.9997880623319836</v>
+        <v>-0.0002119376680164153</v>
       </c>
       <c r="V157">
-        <v>0.9999776865405212</v>
+        <v>-2.231345947878438E-05</v>
       </c>
       <c r="W157">
-        <v>0.9989949748743718</v>
+        <v>-0.001005025125628167</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12768,7 +12768,7 @@
         <v>0.507093487189435</v>
       </c>
       <c r="K158">
-        <v>33.64711555718478</v>
+        <v>-0.1635288444281522</v>
       </c>
       <c r="L158">
         <v>-0.009759751442968024</v>
@@ -12798,13 +12798,13 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="U158">
-        <v>0.9997657034475065</v>
+        <v>-0.0002342965524935181</v>
       </c>
       <c r="V158">
-        <v>0.9999107441704786</v>
+        <v>-8.92558295213508E-05</v>
       </c>
       <c r="W158">
-        <v>0.9989939637826961</v>
+        <v>-0.001006036217303885</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12839,7 +12839,7 @@
         <v>0.5473641558053715</v>
       </c>
       <c r="K159">
-        <v>35.3739715212984</v>
+        <v>-0.146260284787016</v>
       </c>
       <c r="L159">
         <v>-0.01084648802898086</v>
@@ -12869,13 +12869,13 @@
         <v>-0.07374999999999687</v>
       </c>
       <c r="U159">
-        <v>0.9997991273198005</v>
+        <v>-0.0002008726801995264</v>
       </c>
       <c r="V159">
-        <v>0.9998214724063287</v>
+        <v>-0.0001785275936713182</v>
       </c>
       <c r="W159">
-        <v>1.000335683115139</v>
+        <v>0.000335683115139318</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12910,7 +12910,7 @@
         <v>0.6321445107862752</v>
       </c>
       <c r="K160">
-        <v>38.73091546787997</v>
+        <v>-0.1126908453212003</v>
       </c>
       <c r="L160">
         <v>-0.01164161613256384</v>
@@ -12940,13 +12940,13 @@
         <v>-0.07375000000000398</v>
       </c>
       <c r="U160">
-        <v>0.9998772198100256</v>
+        <v>-0.0001227801899743586</v>
       </c>
       <c r="V160">
-        <v>0.9997768006606701</v>
+        <v>-0.0002231993393299048</v>
       </c>
       <c r="W160">
-        <v>1.000671140939597</v>
+        <v>0.0006711409395971923</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12981,7 +12981,7 @@
         <v>0.8552507081044511</v>
       </c>
       <c r="K161">
-        <v>46.09892907564385</v>
+        <v>-0.03901070924356154</v>
       </c>
       <c r="L161">
         <v>-0.0115578936787223</v>
@@ -13011,13 +13011,13 @@
         <v>-0.06499999999999062</v>
       </c>
       <c r="U161">
-        <v>0.999944183969636</v>
+        <v>-5.581603036397542E-05</v>
       </c>
       <c r="V161">
-        <v>0.9999107003326412</v>
+        <v>-8.9299667358822E-05</v>
       </c>
       <c r="W161">
-        <v>1.00167672702884</v>
+        <v>0.001676727028839808</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -13052,7 +13052,7 @@
         <v>0.8552507081044511</v>
       </c>
       <c r="K162">
-        <v>46.09892907564385</v>
+        <v>-0.03901070924356154</v>
       </c>
       <c r="L162">
         <v>-0.0109048165306554</v>
@@ -13082,13 +13082,13 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="U162">
-        <v>0.9999665085124197</v>
+        <v>-3.349148758025056E-05</v>
       </c>
       <c r="V162">
-        <v>0.9998883654468731</v>
+        <v>-0.0001116345531269047</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13123,7 +13123,7 @@
         <v>0.9541343412648581</v>
       </c>
       <c r="K163">
-        <v>48.82644560901953</v>
+        <v>-0.01173554390980469</v>
       </c>
       <c r="L163">
         <v>-0.009664816149938884</v>
@@ -13153,13 +13153,13 @@
         <v>-0.03875000000000739</v>
       </c>
       <c r="U163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V163">
-        <v>0.999933011789925</v>
+        <v>-6.6988210075003E-05</v>
       </c>
       <c r="W163">
-        <v>1.000669568128557</v>
+        <v>0.0006695681285571187</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13194,7 +13194,7 @@
         <v>0.9541343412648581</v>
       </c>
       <c r="K164">
-        <v>48.82644560901953</v>
+        <v>-0.01173554390980469</v>
       </c>
       <c r="L164">
         <v>-0.008112869155648489</v>
@@ -13224,13 +13224,13 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="U164">
-        <v>1.000033492609298</v>
+        <v>3.349260929752518E-05</v>
       </c>
       <c r="V164">
-        <v>0.9999553382014694</v>
+        <v>-4.466179853057639E-05</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13265,7 +13265,7 @@
         <v>0.9541343412648581</v>
       </c>
       <c r="K165">
-        <v>48.82644560901953</v>
+        <v>-0.01173554390980469</v>
       </c>
       <c r="L165">
         <v>-0.006441165390859226</v>
@@ -13295,13 +13295,13 @@
         <v>-0.005000000000002558</v>
       </c>
       <c r="U165">
-        <v>1.000066982975161</v>
+        <v>6.698297516050111E-05</v>
       </c>
       <c r="V165">
-        <v>0.9999776681033519</v>
+        <v>-2.233189664813118E-05</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13336,7 +13336,7 @@
         <v>1.127133845263248</v>
       </c>
       <c r="K166">
-        <v>52.98838377157959</v>
+        <v>0.02988383771579595</v>
       </c>
       <c r="L166">
         <v>-0.004414205131645159</v>
@@ -13366,13 +13366,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U166">
-        <v>1.00011163081457</v>
+        <v>0.0001116308145701073</v>
       </c>
       <c r="V166">
-        <v>1.000066997186118</v>
+        <v>6.699718611824501E-05</v>
       </c>
       <c r="W166">
-        <v>1.001003680160589</v>
+        <v>0.001003680160588827</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13407,7 +13407,7 @@
         <v>1.127133845263248</v>
       </c>
       <c r="K167">
-        <v>52.98838377157959</v>
+        <v>0.02988383771579595</v>
       </c>
       <c r="L167">
         <v>-0.002285037216932207</v>
@@ -13437,13 +13437,13 @@
         <v>0.05124999999999602</v>
       </c>
       <c r="U167">
-        <v>1.00010045651907</v>
+        <v>0.0001004565190700912</v>
       </c>
       <c r="V167">
-        <v>1.000156316294857</v>
+        <v>0.0001563162948574615</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13478,7 +13478,7 @@
         <v>1.059439476317968</v>
       </c>
       <c r="K168">
-        <v>51.44309840132421</v>
+        <v>0.01443098401324205</v>
       </c>
       <c r="L168">
         <v>-0.0003432284304706108</v>
@@ -13508,13 +13508,13 @@
         <v>0.06625000000000369</v>
       </c>
       <c r="U168">
-        <v>1.000100446428571</v>
+        <v>0.0001004464285714324</v>
       </c>
       <c r="V168">
-        <v>1.000111637045637</v>
+        <v>0.000111637045637103</v>
       </c>
       <c r="W168">
-        <v>0.9996657754010695</v>
+        <v>-0.0003342245989305104</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13549,7 +13549,7 @@
         <v>1.122659324402712</v>
       </c>
       <c r="K169">
-        <v>52.88928428110399</v>
+        <v>0.02889284281103988</v>
       </c>
       <c r="L169">
         <v>0.001484434914783323</v>
@@ -13579,13 +13579,13 @@
         <v>0.07124999999999915</v>
       </c>
       <c r="U169">
-        <v>1.000133915120133</v>
+        <v>0.0001339151201331656</v>
       </c>
       <c r="V169">
-        <v>1.000156274417878</v>
+        <v>0.0001562744178777997</v>
       </c>
       <c r="W169">
-        <v>1.00033433634236</v>
+        <v>0.0003343363423604639</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13620,7 +13620,7 @@
         <v>1.388848158443689</v>
       </c>
       <c r="K170">
-        <v>58.13882115255537</v>
+        <v>0.08138821152555376</v>
       </c>
       <c r="L170">
         <v>0.003608638656232933</v>
@@ -13650,13 +13650,13 @@
         <v>0.0800000000000054</v>
       </c>
       <c r="U170">
-        <v>1.000111580991062</v>
+        <v>0.0001115809910623433</v>
       </c>
       <c r="V170">
-        <v>1.000267857142857</v>
+        <v>0.000267857142857153</v>
       </c>
       <c r="W170">
-        <v>1.001336898395722</v>
+        <v>0.001336898395721819</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13691,7 +13691,7 @@
         <v>1.084869153203432</v>
       </c>
       <c r="K171">
-        <v>52.03535922321623</v>
+        <v>0.02035359223216238</v>
       </c>
       <c r="L171">
         <v>0.005276209343702839</v>
@@ -13721,13 +13721,13 @@
         <v>0.07750000000000057</v>
       </c>
       <c r="U171">
-        <v>1.000044627416854</v>
+        <v>4.462741685351546E-05</v>
       </c>
       <c r="V171">
-        <v>1.000156208158529</v>
+        <v>0.0001562081585289032</v>
       </c>
       <c r="W171">
-        <v>0.9986648865153538</v>
+        <v>-0.001335113484646211</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13762,7 +13762,7 @@
         <v>1.257662286657691</v>
       </c>
       <c r="K172">
-        <v>55.70639568593631</v>
+        <v>0.05706395685936305</v>
       </c>
       <c r="L172">
         <v>0.006907252741619724</v>
@@ -13792,13 +13792,13 @@
         <v>0.0800000000000054</v>
       </c>
       <c r="U172">
-        <v>1.000133876276008</v>
+        <v>0.0001338762760083601</v>
       </c>
       <c r="V172">
-        <v>1.000290055556795</v>
+        <v>0.0002900555567950658</v>
       </c>
       <c r="W172">
-        <v>1.001002673796791</v>
+        <v>0.00100267379679142</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13833,7 +13833,7 @@
         <v>1.621437304456173</v>
       </c>
       <c r="K173">
-        <v>61.85298811838441</v>
+        <v>0.1185298811838441</v>
       </c>
       <c r="L173">
         <v>0.009118253131773037</v>
@@ -13863,13 +13863,13 @@
         <v>0.08624999999999972</v>
       </c>
       <c r="U173">
-        <v>1.000200787533325</v>
+        <v>0.0002007875333249753</v>
       </c>
       <c r="V173">
-        <v>1.000490720913633</v>
+        <v>0.0004907209136331137</v>
       </c>
       <c r="W173">
-        <v>1.002003338898164</v>
+        <v>0.002003338898163731</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13904,7 +13904,7 @@
         <v>1.621437304456173</v>
       </c>
       <c r="K174">
-        <v>61.8529881183844</v>
+        <v>0.118529881183844</v>
       </c>
       <c r="L174">
         <v>0.01150609805889858</v>
@@ -13934,13 +13934,13 @@
         <v>0.08124999999999716</v>
       </c>
       <c r="U174">
-        <v>1.000144984107511</v>
+        <v>0.0001449841075114033</v>
       </c>
       <c r="V174">
-        <v>1.00046818566906</v>
+        <v>0.0004681856690598174</v>
       </c>
       <c r="W174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13975,7 +13975,7 @@
         <v>1.429387298882093</v>
       </c>
       <c r="K175">
-        <v>58.83735786137682</v>
+        <v>0.08837357861376827</v>
       </c>
       <c r="L175">
         <v>0.01356281518604714</v>
@@ -14005,13 +14005,13 @@
         <v>0.07500000000000284</v>
       </c>
       <c r="U175">
-        <v>1.000078057048551</v>
+        <v>7.805704855146089E-05</v>
       </c>
       <c r="V175">
-        <v>1.000378830083565</v>
+        <v>0.000378830083565207</v>
       </c>
       <c r="W175">
-        <v>0.999333555481506</v>
+        <v>-0.0006664445184939582</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -14046,7 +14046,7 @@
         <v>1.554065508794192</v>
       </c>
       <c r="K176">
-        <v>60.84673644600004</v>
+        <v>0.1084673644600005</v>
       </c>
       <c r="L176">
         <v>0.01548181612781817</v>
@@ -14076,13 +14076,13 @@
         <v>0.0762499999999946</v>
       </c>
       <c r="U176">
-        <v>1.000111501365892</v>
+        <v>0.0001115013658916642</v>
       </c>
       <c r="V176">
-        <v>1.000311859574089</v>
+        <v>0.0003118595740889685</v>
       </c>
       <c r="W176">
-        <v>1.000666888962988</v>
+        <v>0.0006668889629877217</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14117,7 +14117,7 @@
         <v>1.816545950714354</v>
       </c>
       <c r="K177">
-        <v>64.49551977852971</v>
+        <v>0.1449551977852971</v>
       </c>
       <c r="L177">
         <v>0.01762559949611934</v>
@@ -14147,13 +14147,13 @@
         <v>0.08624999999999972</v>
       </c>
       <c r="U177">
-        <v>1.00014493561514</v>
+        <v>0.0001449356151403958</v>
       </c>
       <c r="V177">
-        <v>1.000400837304592</v>
+        <v>0.000400837304591839</v>
       </c>
       <c r="W177">
-        <v>1.001332889036988</v>
+        <v>0.001332889036987694</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14188,7 +14188,7 @@
         <v>2.300062554251505</v>
       </c>
       <c r="K178">
-        <v>69.69754410528705</v>
+        <v>0.1969754410528705</v>
       </c>
       <c r="L178">
         <v>0.02055672729826919</v>
@@ -14218,13 +14218,13 @@
         <v>0.09499999999999886</v>
       </c>
       <c r="U178">
-        <v>1.000222945556695</v>
+        <v>0.0002229455566951088</v>
       </c>
       <c r="V178">
-        <v>1.000511975781319</v>
+        <v>0.0005119757813194514</v>
       </c>
       <c r="W178">
-        <v>1.002329450915141</v>
+        <v>0.002329450915141473</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14259,7 +14259,7 @@
         <v>2.008054260754302</v>
       </c>
       <c r="K179">
-        <v>66.75591883275273</v>
+        <v>0.1675591883275273</v>
       </c>
       <c r="L179">
         <v>0.02345834004767833</v>
@@ -14289,13 +14289,13 @@
         <v>0.1137500000000031</v>
       </c>
       <c r="U179">
-        <v>1.0002117510699</v>
+        <v>0.0002117510699000125</v>
       </c>
       <c r="V179">
-        <v>1.000467216944401</v>
+        <v>0.0004672169444011054</v>
       </c>
       <c r="W179">
-        <v>0.99933598937583</v>
+        <v>-0.0006640106241699861</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14330,7 +14330,7 @@
         <v>1.88228152236738</v>
       </c>
       <c r="K180">
-        <v>65.30526278437077</v>
+        <v>0.1530526278437077</v>
       </c>
       <c r="L180">
         <v>0.02594887931367274</v>
@@ -14360,13 +14360,13 @@
         <v>0.1237500000000011</v>
       </c>
       <c r="U180">
-        <v>1.000211706240877</v>
+        <v>0.0002117062408770742</v>
       </c>
       <c r="V180">
-        <v>1.000444760718733</v>
+        <v>0.0004447607187334501</v>
       </c>
       <c r="W180">
-        <v>0.9996677740863786</v>
+        <v>-0.0003322259136213646</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14401,7 +14401,7 @@
         <v>1.765857368735924</v>
       </c>
       <c r="K181">
-        <v>63.84484567774265</v>
+        <v>0.1384484567774265</v>
       </c>
       <c r="L181">
         <v>0.02781454980738787</v>
@@ -14431,13 +14431,13 @@
         <v>0.1174999999999926</v>
       </c>
       <c r="U181">
-        <v>1.000211661430831</v>
+        <v>0.0002116614308314002</v>
       </c>
       <c r="V181">
-        <v>1.000355650395661</v>
+        <v>0.0003556503956609891</v>
       </c>
       <c r="W181">
-        <v>0.9996676636756398</v>
+        <v>-0.0003323363243602495</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14472,7 +14472,7 @@
         <v>1.89607353375523</v>
       </c>
       <c r="K182">
-        <v>65.47049001537825</v>
+        <v>0.1547049001537825</v>
       </c>
       <c r="L182">
         <v>0.02932422232877227</v>
@@ -14502,13 +14502,13 @@
         <v>0.1175000000000068</v>
       </c>
       <c r="U182">
-        <v>1.00027844294704</v>
+        <v>0.0002784429470401584</v>
       </c>
       <c r="V182">
-        <v>1.000399964447604</v>
+        <v>0.0003999644476044839</v>
       </c>
       <c r="W182">
-        <v>1.000664893617021</v>
+        <v>0.0006648936170214892</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14543,7 +14543,7 @@
         <v>1.488121072418847</v>
       </c>
       <c r="K183">
-        <v>59.80902974999356</v>
+        <v>0.09809029749993559</v>
       </c>
       <c r="L183">
         <v>0.02992786804777622</v>
@@ -14573,13 +14573,13 @@
         <v>0.1175000000000068</v>
       </c>
       <c r="U183">
-        <v>1.000222692350518</v>
+        <v>0.0002226923505177503</v>
       </c>
       <c r="V183">
-        <v>1.000333170450002</v>
+        <v>0.0003331704500024735</v>
       </c>
       <c r="W183">
-        <v>0.9986710963455149</v>
+        <v>-0.001328903654485125</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14614,7 +14614,7 @@
         <v>1.997702151792018</v>
       </c>
       <c r="K184">
-        <v>66.64111544897138</v>
+        <v>0.1664111544897138</v>
       </c>
       <c r="L184">
         <v>0.03092965250476309</v>
@@ -14644,13 +14644,13 @@
         <v>0.1224999999999952</v>
       </c>
       <c r="U184">
-        <v>1.000333964154514</v>
+        <v>0.0003339641545141436</v>
       </c>
       <c r="V184">
-        <v>1.00051069120945</v>
+        <v>0.0005106912094501315</v>
       </c>
       <c r="W184">
-        <v>1.002994011976048</v>
+        <v>0.002994011976047872</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14685,7 +14685,7 @@
         <v>2.116902404276989</v>
       </c>
       <c r="K185">
-        <v>67.9168651983518</v>
+        <v>0.1791686519835181</v>
       </c>
       <c r="L185">
         <v>0.03223815445554402</v>
@@ -14715,13 +14715,13 @@
         <v>0.1212500000000034</v>
       </c>
       <c r="U185">
-        <v>1.000367237925662</v>
+        <v>0.0003672379256622893</v>
       </c>
       <c r="V185">
-        <v>1.000466045272969</v>
+        <v>0.0004660452729692288</v>
       </c>
       <c r="W185">
-        <v>1.000663349917081</v>
+        <v>0.0006633499170813906</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14756,7 +14756,7 @@
         <v>2.55606122922153</v>
       </c>
       <c r="K186">
-        <v>71.8789993889134</v>
+        <v>0.218789993889134</v>
       </c>
       <c r="L186">
         <v>0.0343811961872556</v>
@@ -14786,13 +14786,13 @@
         <v>0.1162500000000009</v>
       </c>
       <c r="U186">
-        <v>1.000433849131745</v>
+        <v>0.0004338491317454896</v>
       </c>
       <c r="V186">
-        <v>1.000709833410971</v>
+        <v>0.0007098334109714166</v>
       </c>
       <c r="W186">
-        <v>1.002320185614849</v>
+        <v>0.002320185614849146</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14827,7 +14827,7 @@
         <v>2.257849358225946</v>
       </c>
       <c r="K187">
-        <v>69.30490363297376</v>
+        <v>0.1930490363297376</v>
       </c>
       <c r="L187">
         <v>0.03652291432412276</v>
@@ -14857,13 +14857,13 @@
         <v>0.1087500000000006</v>
       </c>
       <c r="U187">
-        <v>1.000444780500823</v>
+        <v>0.0004447805008227501</v>
       </c>
       <c r="V187">
-        <v>1.000598497107264</v>
+        <v>0.0005984971072641176</v>
       </c>
       <c r="W187">
-        <v>0.9993386243386243</v>
+        <v>-0.000661375661375696</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14898,7 +14898,7 @@
         <v>2.257849358225946</v>
       </c>
       <c r="K188">
-        <v>69.30490363297376</v>
+        <v>0.1930490363297376</v>
       </c>
       <c r="L188">
         <v>0.03839271573424105</v>
@@ -14928,13 +14928,13 @@
         <v>0.1075000000000017</v>
       </c>
       <c r="U188">
-        <v>1.000477926466012</v>
+        <v>0.0004779264660117466</v>
       </c>
       <c r="V188">
-        <v>1.000465219317678</v>
+        <v>0.0004652193176781783</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14969,7 +14969,7 @@
         <v>2.322485655303966</v>
       </c>
       <c r="K189">
-        <v>69.90205214569956</v>
+        <v>0.1990205214569956</v>
       </c>
       <c r="L189">
         <v>0.03995882718382727</v>
@@ -14999,13 +14999,13 @@
         <v>0.1174999999999997</v>
       </c>
       <c r="U189">
-        <v>1.000477698161418</v>
+        <v>0.0004776981614176279</v>
       </c>
       <c r="V189">
-        <v>1.000487145988796</v>
+        <v>0.0004871459887958451</v>
       </c>
       <c r="W189">
-        <v>1.000330906684315</v>
+        <v>0.0003309066843151243</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -15040,7 +15040,7 @@
         <v>2.322485655303966</v>
       </c>
       <c r="K190">
-        <v>69.90205214569956</v>
+        <v>0.1990205214569956</v>
       </c>
       <c r="L190">
         <v>0.04109431496286677</v>
@@ -15070,13 +15070,13 @@
         <v>0.1224999999999952</v>
       </c>
       <c r="U190">
-        <v>1.000455262164383</v>
+        <v>0.0004552621643829635</v>
       </c>
       <c r="V190">
-        <v>1.000531173228869</v>
+        <v>0.0005311732288693083</v>
       </c>
       <c r="W190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15111,7 +15111,7 @@
         <v>2.895438981203211</v>
       </c>
       <c r="K191">
-        <v>74.32895227404838</v>
+        <v>0.2432895227404838</v>
       </c>
       <c r="L191">
         <v>0.04271632264383974</v>
@@ -15141,13 +15141,13 @@
         <v>0.1449999999999889</v>
       </c>
       <c r="U191">
-        <v>1.000488351702017</v>
+        <v>0.000488351702016665</v>
       </c>
       <c r="V191">
-        <v>1.000663614042073</v>
+        <v>0.0006636140420730463</v>
       </c>
       <c r="W191">
-        <v>1.002646377770427</v>
+        <v>0.002646377770426644</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15182,7 +15182,7 @@
         <v>2.361376424778212</v>
       </c>
       <c r="K192">
-        <v>70.25028221687545</v>
+        <v>0.2025028221687545</v>
       </c>
       <c r="L192">
         <v>0.04400809147190416</v>
@@ -15212,13 +15212,13 @@
         <v>0.1437500000000043</v>
       </c>
       <c r="U192">
-        <v>1.000454832876652</v>
+        <v>0.0004548328766516008</v>
       </c>
       <c r="V192">
-        <v>1.000508433362071</v>
+        <v>0.0005084333620708481</v>
       </c>
       <c r="W192">
-        <v>0.9990102276476411</v>
+        <v>-0.0009897723523588642</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15253,7 +15253,7 @@
         <v>2.217839708004098</v>
       </c>
       <c r="K193">
-        <v>68.92325004528391</v>
+        <v>0.1892325004528391</v>
       </c>
       <c r="L193">
         <v>0.04473460756486607</v>
@@ -15283,13 +15283,13 @@
         <v>0.1412499999999994</v>
       </c>
       <c r="U193">
-        <v>1.00042136077353</v>
+        <v>0.000421360773529722</v>
       </c>
       <c r="V193">
-        <v>1.000331418471056</v>
+        <v>0.0003314184710561108</v>
       </c>
       <c r="W193">
-        <v>0.999669749009247</v>
+        <v>-0.0003302509907530116</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15324,7 +15324,7 @@
         <v>2.40979294243477</v>
       </c>
       <c r="K194">
-        <v>70.67270602988732</v>
+        <v>0.2067270602988732</v>
       </c>
       <c r="L194">
         <v>0.04527200555671879</v>
@@ -15354,13 +15354,13 @@
         <v>0.133749999999992</v>
       </c>
       <c r="U194">
-        <v>1.000454434616834</v>
+        <v>0.0004544346168340319</v>
       </c>
       <c r="V194">
-        <v>1.000441744892325</v>
+        <v>0.0004417448923246248</v>
       </c>
       <c r="W194">
-        <v>1.000991080277503</v>
+        <v>0.0009910802775026095</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15395,7 +15395,7 @@
         <v>2.12371939388752</v>
       </c>
       <c r="K195">
-        <v>67.9868812174104</v>
+        <v>0.179868812174104</v>
       </c>
       <c r="L195">
         <v>0.04525226755895654</v>
@@ -15425,13 +15425,13 @@
         <v>0.1262499999999918</v>
       </c>
       <c r="U195">
-        <v>1.000432070726654</v>
+        <v>0.0004320707266542989</v>
       </c>
       <c r="V195">
-        <v>1.000419472347941</v>
+        <v>0.0004194723479413742</v>
       </c>
       <c r="W195">
-        <v>0.9993399339933994</v>
+        <v>-0.0006600660066006236</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15466,7 +15466,7 @@
         <v>1.998831441186202</v>
       </c>
       <c r="K196">
-        <v>66.65367762035851</v>
+        <v>0.1665367762035851</v>
       </c>
       <c r="L196">
         <v>0.0446098245681153</v>
@@ -15496,13 +15496,13 @@
         <v>0.1162500000000009</v>
       </c>
       <c r="U196">
-        <v>1.000387588314766</v>
+        <v>0.0003875883147661519</v>
       </c>
       <c r="V196">
-        <v>1.000419296464669</v>
+        <v>0.0004192964646685393</v>
       </c>
       <c r="W196">
-        <v>0.999669749009247</v>
+        <v>-0.0003302509907530116</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15537,7 +15537,7 @@
         <v>1.998831441186202</v>
       </c>
       <c r="K197">
-        <v>66.65367762035851</v>
+        <v>0.1665367762035851</v>
       </c>
       <c r="L197">
         <v>0.04346839244750215</v>
@@ -15567,13 +15567,13 @@
         <v>0.1025000000000063</v>
       </c>
       <c r="U197">
-        <v>1.000387438148267</v>
+        <v>0.0003874381482671385</v>
       </c>
       <c r="V197">
-        <v>1.000375002757373</v>
+        <v>0.0003750027573732329</v>
       </c>
       <c r="W197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15608,7 +15608,7 @@
         <v>2.194309247799569</v>
       </c>
       <c r="K198">
-        <v>68.69432724183297</v>
+        <v>0.1869432724183296</v>
       </c>
       <c r="L198">
         <v>0.04230179398378943</v>
@@ -15638,13 +15638,13 @@
         <v>0.09499999999999886</v>
       </c>
       <c r="U198">
-        <v>1.000431549595007</v>
+        <v>0.0004315495950071302</v>
       </c>
       <c r="V198">
-        <v>1.000529217199559</v>
+        <v>0.0005292171995590067</v>
       </c>
       <c r="W198">
-        <v>1.000991080277503</v>
+        <v>0.0009910802775026095</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15679,7 +15679,7 @@
         <v>2.331486655949293</v>
       </c>
       <c r="K199">
-        <v>69.98337069085289</v>
+        <v>0.199833706908529</v>
       </c>
       <c r="L199">
         <v>0.04128144042580232</v>
@@ -15709,13 +15709,13 @@
         <v>0.06500000000000483</v>
       </c>
       <c r="U199">
-        <v>1.000442424041323</v>
+        <v>0.0004424240413225533</v>
       </c>
       <c r="V199">
-        <v>1.000374663904439</v>
+        <v>0.0003746639044386324</v>
       </c>
       <c r="W199">
-        <v>1.000660066006601</v>
+        <v>0.0006600660066007347</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15750,7 +15750,7 @@
         <v>2.692479835290683</v>
       </c>
       <c r="K200">
-        <v>72.91792928853525</v>
+        <v>0.2291792928853524</v>
       </c>
       <c r="L200">
         <v>0.04086778263795417</v>
@@ -15780,13 +15780,13 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="U200">
-        <v>1.000453284098573</v>
+        <v>0.0004532840985727038</v>
       </c>
       <c r="V200">
-        <v>1.000440615981142</v>
+        <v>0.0004406159811416455</v>
       </c>
       <c r="W200">
-        <v>1.00164907651715</v>
+        <v>0.001649076517150405</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15821,7 +15821,7 @@
         <v>2.920475527506277</v>
       </c>
       <c r="K201">
-        <v>74.49289013580257</v>
+        <v>0.2449289013580257</v>
       </c>
       <c r="L201">
         <v>0.04106012729708153</v>
@@ -15851,13 +15851,13 @@
         <v>0.06374999999999176</v>
       </c>
       <c r="U201">
-        <v>1.000530433629492</v>
+        <v>0.0005304336294920109</v>
       </c>
       <c r="V201">
-        <v>1.000352337539363</v>
+        <v>0.0003523375393628125</v>
       </c>
       <c r="W201">
-        <v>1.000987816924596</v>
+        <v>0.0009878169245964852</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15892,7 +15892,7 @@
         <v>2.517657877933308</v>
       </c>
       <c r="K202">
-        <v>71.57199378958595</v>
+        <v>0.2157199378958594</v>
       </c>
       <c r="L202">
         <v>0.0412146689119026</v>
@@ -15922,13 +15922,13 @@
         <v>0.06624999999999659</v>
       </c>
       <c r="U202">
-        <v>1.000474928208527</v>
+        <v>0.0004749282085267925</v>
       </c>
       <c r="V202">
-        <v>1.000352213441345</v>
+        <v>0.0003522134413453948</v>
       </c>
       <c r="W202">
-        <v>0.9993421052631579</v>
+        <v>-0.0006578947368420796</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15963,7 +15963,7 @@
         <v>2.198466490324416</v>
       </c>
       <c r="K203">
-        <v>68.73501713946138</v>
+        <v>0.1873501713946137</v>
       </c>
       <c r="L203">
         <v>0.04094396525683195</v>
@@ -15993,13 +15993,13 @@
         <v>0.06875000000000853</v>
       </c>
       <c r="U203">
-        <v>1.000386385966462</v>
+        <v>0.0003863859664616776</v>
       </c>
       <c r="V203">
-        <v>1.000308078251876</v>
+        <v>0.0003080782518758429</v>
       </c>
       <c r="W203">
-        <v>0.9993416721527321</v>
+        <v>-0.0006583278472679366</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -16034,7 +16034,7 @@
         <v>2.060945985022541</v>
       </c>
       <c r="K204">
-        <v>67.33036110754381</v>
+        <v>0.1733036110754381</v>
       </c>
       <c r="L204">
         <v>0.04016268431820123</v>
@@ -16064,13 +16064,13 @@
         <v>0.07249999999999801</v>
       </c>
       <c r="U204">
-        <v>1.000375201394866</v>
+        <v>0.0003752013948661315</v>
       </c>
       <c r="V204">
-        <v>1.00026398574477</v>
+        <v>0.0002639857447697125</v>
       </c>
       <c r="W204">
-        <v>0.9996706192358367</v>
+        <v>-0.000329380764163334</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16105,7 +16105,7 @@
         <v>2.258481531646508</v>
       </c>
       <c r="K205">
-        <v>69.31085874546292</v>
+        <v>0.1931085874546292</v>
       </c>
       <c r="L205">
         <v>0.03933722327602711</v>
@@ -16135,13 +16135,13 @@
         <v>0.08124999999999716</v>
       </c>
       <c r="U205">
-        <v>1.000430216652694</v>
+        <v>0.0004302166526939377</v>
       </c>
       <c r="V205">
-        <v>1.00032989509336</v>
+        <v>0.0003298950933603439</v>
       </c>
       <c r="W205">
-        <v>1.000988467874794</v>
+        <v>0.0009884678747940079</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16176,7 +16176,7 @@
         <v>2.112090988511385</v>
       </c>
       <c r="K206">
-        <v>67.86726340291443</v>
+        <v>0.1786726340291444</v>
       </c>
       <c r="L206">
         <v>0.03827324179470838</v>
@@ -16206,13 +16206,13 @@
         <v>0.08125000000000426</v>
       </c>
       <c r="U206">
-        <v>1.00039695228854</v>
+        <v>0.0003969522885400867</v>
       </c>
       <c r="V206">
-        <v>1.000131914519391</v>
+        <v>0.0001319145193914295</v>
       </c>
       <c r="W206">
-        <v>0.9996708360763661</v>
+        <v>-0.0003291639236339128</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16247,7 +16247,7 @@
         <v>1.858483754144479</v>
       </c>
       <c r="K207">
-        <v>65.01641828294063</v>
+        <v>0.1501641828294064</v>
       </c>
       <c r="L207">
         <v>0.03675193925262288</v>
@@ -16277,13 +16277,13 @@
         <v>0.08375000000000199</v>
       </c>
       <c r="U207">
-        <v>1.00033066231662</v>
+        <v>0.0003306623166201561</v>
       </c>
       <c r="V207">
-        <v>1.000153879973621</v>
+        <v>0.0001538799736207075</v>
       </c>
       <c r="W207">
-        <v>0.9993414553836023</v>
+        <v>-0.0006585446163976938</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16318,7 +16318,7 @@
         <v>1.921680601485846</v>
       </c>
       <c r="K208">
-        <v>65.77312388317048</v>
+        <v>0.1577312388317048</v>
       </c>
       <c r="L208">
         <v>0.03503727991710259</v>
@@ -16348,13 +16348,13 @@
         <v>0.07125000000000625</v>
       </c>
       <c r="U208">
-        <v>1.000264442412155</v>
+        <v>0.0002644424121553968</v>
       </c>
       <c r="V208">
-        <v>1.000197815240565</v>
+        <v>0.00019781524056528</v>
       </c>
       <c r="W208">
-        <v>1.000329489291598</v>
+        <v>0.0003294892915979286</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16389,7 +16389,7 @@
         <v>1.696030532722144</v>
       </c>
       <c r="K209">
-        <v>62.90843193862815</v>
+        <v>0.1290843193862815</v>
       </c>
       <c r="L209">
         <v>0.03294633377941922</v>
@@ -16419,13 +16419,13 @@
         <v>0.04749999999999943</v>
       </c>
       <c r="U209">
-        <v>1.000264372500854</v>
+        <v>0.0002643725008537601</v>
       </c>
       <c r="V209">
-        <v>1.000087900496638</v>
+        <v>8.790049663787158E-05</v>
       </c>
       <c r="W209">
-        <v>0.9993412384716732</v>
+        <v>-0.0006587615283267789</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16460,7 +16460,7 @@
         <v>1.696030532722144</v>
       </c>
       <c r="K210">
-        <v>62.90843193862815</v>
+        <v>0.1290843193862815</v>
       </c>
       <c r="L210">
         <v>0.03064098514968507</v>
@@ -16490,13 +16490,13 @@
         <v>0.03250000000000597</v>
       </c>
       <c r="U210">
-        <v>1.000275315235945</v>
+        <v>0.0002753152359451505</v>
       </c>
       <c r="V210">
-        <v>1.000131839156229</v>
+        <v>0.0001318391562292742</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16531,7 +16531,7 @@
         <v>1.761084989958746</v>
       </c>
       <c r="K211">
-        <v>63.78235354446871</v>
+        <v>0.1378235354446872</v>
       </c>
       <c r="L211">
         <v>0.02836163794033829</v>
@@ -16561,13 +16561,13 @@
         <v>0.02125000000000199</v>
       </c>
       <c r="U211">
-        <v>1.000297258614995</v>
+        <v>0.0002972586149949663</v>
       </c>
       <c r="V211">
-        <v>1.000175762369277</v>
+        <v>0.0001757623692768551</v>
       </c>
       <c r="W211">
-        <v>1.000329597890574</v>
+        <v>0.0003295978905735186</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16602,7 +16602,7 @@
         <v>1.311900806272816</v>
       </c>
       <c r="K212">
-        <v>56.74554906132963</v>
+        <v>0.06745549061329625</v>
       </c>
       <c r="L212">
         <v>0.02553859263450476</v>
@@ -16632,13 +16632,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U212">
-        <v>1.000220126132274</v>
+        <v>0.0002201261322738457</v>
       </c>
       <c r="V212">
-        <v>1.000065899305861</v>
+        <v>6.589930586065051E-05</v>
       </c>
       <c r="W212">
-        <v>0.9983525535420099</v>
+        <v>-0.001647446457990087</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16673,7 +16673,7 @@
         <v>1.311900806272817</v>
       </c>
       <c r="K213">
-        <v>56.74554906132964</v>
+        <v>0.06745549061329636</v>
       </c>
       <c r="L213">
         <v>0.02247364538326718</v>
@@ -16703,13 +16703,13 @@
         <v>-0.01875000000000426</v>
       </c>
       <c r="U213">
-        <v>1.000264093224909</v>
+        <v>0.0002640932249085015</v>
       </c>
       <c r="V213">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16744,7 +16744,7 @@
         <v>1.178657735829125</v>
       </c>
       <c r="K214">
-        <v>54.10017904352318</v>
+        <v>0.04100179043523189</v>
       </c>
       <c r="L214">
         <v>0.01913553747707116</v>
@@ -16774,13 +16774,13 @@
         <v>-0.03875000000000028</v>
       </c>
       <c r="U214">
-        <v>1.000143012728133</v>
+        <v>0.0001430127281327742</v>
       </c>
       <c r="V214">
-        <v>0.9999121400487623</v>
+        <v>-8.785995123772317E-05</v>
       </c>
       <c r="W214">
-        <v>0.9993399339933994</v>
+        <v>-0.0006600660066006236</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16815,7 +16815,7 @@
         <v>1.339023362888313</v>
       </c>
       <c r="K215">
-        <v>57.24711365152152</v>
+        <v>0.0724711365152152</v>
       </c>
       <c r="L215">
         <v>0.01613602794857913</v>
@@ -16845,13 +16845,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U215">
-        <v>1.000153991684449</v>
+        <v>0.0001539916844488509</v>
       </c>
       <c r="V215">
-        <v>0.9998681984930695</v>
+        <v>-0.0001318015069304845</v>
       </c>
       <c r="W215">
-        <v>1.000990752972259</v>
+        <v>0.0009907529722588126</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16886,7 +16886,7 @@
         <v>1.395292003961726</v>
       </c>
       <c r="K216">
-        <v>58.25143663711831</v>
+        <v>0.08251436637118315</v>
       </c>
       <c r="L216">
         <v>0.01359425482134863</v>
@@ -16916,13 +16916,13 @@
         <v>-0.05125000000000313</v>
       </c>
       <c r="U216">
-        <v>1.000087981699807</v>
+        <v>8.798169980650528E-05</v>
       </c>
       <c r="V216">
-        <v>0.9998242414921896</v>
+        <v>-0.0001757585078103752</v>
       </c>
       <c r="W216">
-        <v>1.000329924117453</v>
+        <v>0.0003299241174530287</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16957,7 +16957,7 @@
         <v>1.247511429514713</v>
       </c>
       <c r="K217">
-        <v>55.50634417837325</v>
+        <v>0.05506344178373246</v>
       </c>
       <c r="L217">
         <v>0.01120184681990853</v>
@@ -16987,13 +16987,13 @@
         <v>-0.04874999999999829</v>
       </c>
       <c r="U217">
-        <v>1.000087973959708</v>
+        <v>8.797395970794319E-05</v>
       </c>
       <c r="V217">
-        <v>0.9998242105957064</v>
+        <v>-0.0001757894042936359</v>
       </c>
       <c r="W217">
-        <v>0.9993403693931399</v>
+        <v>-0.0006596306068601399</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -17028,7 +17028,7 @@
         <v>1.18164190504383</v>
       </c>
       <c r="K218">
-        <v>54.16296333105549</v>
+        <v>0.04162963331055491</v>
       </c>
       <c r="L218">
         <v>0.008891477378613281</v>
@@ -17058,13 +17058,13 @@
         <v>-0.04999999999999005</v>
       </c>
       <c r="U218">
-        <v>1.00007697044335</v>
+        <v>7.697044334964431E-05</v>
       </c>
       <c r="V218">
-        <v>0.9998461572273138</v>
+        <v>-0.0001538427726861524</v>
       </c>
       <c r="W218">
-        <v>0.9996699669966996</v>
+        <v>-0.0003300330033003673</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -17099,7 +17099,7 @@
         <v>1.012772976101455</v>
       </c>
       <c r="K219">
-        <v>50.31729798276096</v>
+        <v>0.003172979827609557</v>
       </c>
       <c r="L219">
         <v>0.006385241164279551</v>
@@ -17129,13 +17129,13 @@
         <v>-0.06000000000000938</v>
       </c>
       <c r="U219">
-        <v>1.00003298479401</v>
+        <v>3.298479400992704E-05</v>
       </c>
       <c r="V219">
-        <v>0.9998021717149513</v>
+        <v>-0.0001978282850486623</v>
       </c>
       <c r="W219">
-        <v>0.9990095741168703</v>
+        <v>-0.0009904258831296975</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17170,7 +17170,7 @@
         <v>1.113060983011738</v>
       </c>
       <c r="K220">
-        <v>52.67528916393584</v>
+        <v>0.02675289163935846</v>
       </c>
       <c r="L220">
         <v>0.004137181407370426</v>
@@ -17200,13 +17200,13 @@
         <v>-0.05624999999999858</v>
       </c>
       <c r="U220">
-        <v>1.000054972843415</v>
+        <v>5.497284341537956E-05</v>
       </c>
       <c r="V220">
-        <v>0.999780147301308</v>
+        <v>-0.000219852698691958</v>
       </c>
       <c r="W220">
-        <v>1.000660938532717</v>
+        <v>0.0006609385327165374</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17241,7 +17241,7 @@
         <v>1.218627306075195</v>
       </c>
       <c r="K221">
-        <v>54.9270849925207</v>
+        <v>0.04927084992520703</v>
       </c>
       <c r="L221">
         <v>0.002413970697763801</v>
@@ -17271,13 +17271,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U221">
-        <v>0.9999890060356865</v>
+        <v>-1.09939643134771E-05</v>
       </c>
       <c r="V221">
-        <v>0.999846069268829</v>
+        <v>-0.0001539307311709814</v>
       </c>
       <c r="W221">
-        <v>1.000660501981506</v>
+        <v>0.0006605019815060231</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17312,7 +17312,7 @@
         <v>1.218627306075194</v>
       </c>
       <c r="K222">
-        <v>54.9270849925207</v>
+        <v>0.04927084992520703</v>
       </c>
       <c r="L222">
         <v>0.001109679625818697</v>
@@ -17342,13 +17342,13 @@
         <v>-0.03249999999999886</v>
       </c>
       <c r="U222">
-        <v>1.000021988170364</v>
+        <v>2.1988170364029E-05</v>
       </c>
       <c r="V222">
-        <v>0.9998900325503651</v>
+        <v>-0.0001099674496348735</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17383,7 +17383,7 @@
         <v>1.277112803617265</v>
       </c>
       <c r="K223">
-        <v>56.08474036018468</v>
+        <v>0.06084740360184671</v>
       </c>
       <c r="L223">
         <v>0.0002583527938158441</v>
@@ -17413,13 +17413,13 @@
         <v>-0.02749999999999631</v>
       </c>
       <c r="U223">
-        <v>1.000043975373791</v>
+        <v>4.397537379063898E-05</v>
       </c>
       <c r="V223">
-        <v>0.9998900204561952</v>
+        <v>-0.0001099795438047613</v>
       </c>
       <c r="W223">
-        <v>1.0003300330033</v>
+        <v>0.0003300330033002563</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17454,7 +17454,7 @@
         <v>1.584931211733491</v>
       </c>
       <c r="K224">
-        <v>61.31425101523742</v>
+        <v>0.1131425101523742</v>
       </c>
       <c r="L224">
         <v>0.0003354230155258066</v>
@@ -17484,13 +17484,13 @@
         <v>-0.0175000000000054</v>
       </c>
       <c r="U224">
-        <v>1.000065960160063</v>
+        <v>6.596016006343852E-05</v>
       </c>
       <c r="V224">
-        <v>1.000043996656254</v>
+        <v>4.399665625398619E-05</v>
       </c>
       <c r="W224">
-        <v>1.001649620587265</v>
+        <v>0.001649620587264922</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17525,7 +17525,7 @@
         <v>1.584931211733491</v>
       </c>
       <c r="K225">
-        <v>61.31425101523742</v>
+        <v>0.1131425101523742</v>
       </c>
       <c r="L225">
         <v>0.0009687968641706045</v>
@@ -17555,13 +17555,13 @@
         <v>-0.005000000000002558</v>
       </c>
       <c r="U225">
-        <v>1.000087941079477</v>
+        <v>8.794107947696084E-05</v>
       </c>
       <c r="V225">
-        <v>1.000043994720633</v>
+        <v>4.399472063343346E-05</v>
       </c>
       <c r="W225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17596,7 +17596,7 @@
         <v>1.857789634440385</v>
       </c>
       <c r="K226">
-        <v>65.00792122874989</v>
+        <v>0.150079212287499</v>
       </c>
       <c r="L226">
         <v>0.002375838733265204</v>
@@ -17626,13 +17626,13 @@
         <v>0.01499999999999346</v>
       </c>
       <c r="U226">
-        <v>1.0001428916881</v>
+        <v>0.0001428916881003328</v>
       </c>
       <c r="V226">
-        <v>1.000109981962958</v>
+        <v>0.0001099819629581944</v>
       </c>
       <c r="W226">
-        <v>1.001317523056654</v>
+        <v>0.001317523056653558</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17667,7 +17667,7 @@
         <v>2.575838115248028</v>
       </c>
       <c r="K227">
-        <v>72.03452819254269</v>
+        <v>0.2203452819254269</v>
       </c>
       <c r="L227">
         <v>0.00535454163534874</v>
@@ -17697,13 +17697,13 @@
         <v>0.05624999999999858</v>
       </c>
       <c r="U227">
-        <v>1.000252772252201</v>
+        <v>0.0002527722522007725</v>
       </c>
       <c r="V227">
-        <v>1.000439879473024</v>
+        <v>0.0004398794730242628</v>
       </c>
       <c r="W227">
-        <v>1.003289473684211</v>
+        <v>0.00328947368421062</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17738,7 +17738,7 @@
         <v>2.237586424182732</v>
       </c>
       <c r="K228">
-        <v>69.11279363754957</v>
+        <v>0.1911279363754957</v>
       </c>
       <c r="L228">
         <v>0.008835446780154877</v>
@@ -17768,13 +17768,13 @@
         <v>0.08375000000000909</v>
       </c>
       <c r="U228">
-        <v>1.000197771771376</v>
+        <v>0.0001977717713759208</v>
       </c>
       <c r="V228">
-        <v>1.000395717457735</v>
+        <v>0.0003957174577351452</v>
       </c>
       <c r="W228">
-        <v>0.999344262295082</v>
+        <v>-0.0006557377049180024</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17809,7 +17809,7 @@
         <v>1.853314841837151</v>
       </c>
       <c r="K229">
-        <v>64.9530439004714</v>
+        <v>0.149530439004714</v>
       </c>
       <c r="L229">
         <v>0.01200567093914304</v>
@@ -17839,13 +17839,13 @@
         <v>0.1024999999999991</v>
       </c>
       <c r="U229">
-        <v>1.000142806925037</v>
+        <v>0.0001428069250373198</v>
       </c>
       <c r="V229">
-        <v>1.000373585320295</v>
+        <v>0.0003735853202946338</v>
       </c>
       <c r="W229">
-        <v>0.9990157480314961</v>
+        <v>-0.0009842519685039353</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17880,7 +17880,7 @@
         <v>1.653983840644119</v>
       </c>
       <c r="K230">
-        <v>62.32079545151634</v>
+        <v>0.1232079545151634</v>
       </c>
       <c r="L230">
         <v>0.01450118304510961</v>
@@ -17910,13 +17910,13 @@
         <v>0.1162500000000009</v>
       </c>
       <c r="U230">
-        <v>1.000065901477291</v>
+        <v>6.590147729146345E-05</v>
       </c>
       <c r="V230">
-        <v>1.000263608804534</v>
+        <v>0.0002636088045340212</v>
       </c>
       <c r="W230">
-        <v>0.9993431855500822</v>
+        <v>-0.0006568144499178308</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17951,7 +17951,7 @@
         <v>2.276663570932394</v>
       </c>
       <c r="K231">
-        <v>69.48115122739183</v>
+        <v>0.1948115122739184</v>
       </c>
       <c r="L231">
         <v>0.01769666009892089</v>
@@ -17981,13 +17981,13 @@
         <v>0.1450000000000031</v>
       </c>
       <c r="U231">
-        <v>1.00015375998067</v>
+        <v>0.0001537599806702428</v>
       </c>
       <c r="V231">
-        <v>1.000483155444283</v>
+        <v>0.0004831554442834562</v>
       </c>
       <c r="W231">
-        <v>1.003614853762734</v>
+        <v>0.003614853762734072</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -18022,7 +18022,7 @@
         <v>2.336250147993483</v>
       </c>
       <c r="K232">
-        <v>70.02622838094354</v>
+        <v>0.2002622838094353</v>
       </c>
       <c r="L232">
         <v>0.02116705708151346</v>
@@ -18052,13 +18052,13 @@
         <v>0.1637500000000003</v>
       </c>
       <c r="U232">
-        <v>1.000186679844067</v>
+        <v>0.0001866798440672834</v>
       </c>
       <c r="V232">
-        <v>1.000548775133901</v>
+        <v>0.0005487751339010583</v>
       </c>
       <c r="W232">
-        <v>1.000327439423707</v>
+        <v>0.0003274394237067213</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -18093,7 +18093,7 @@
         <v>1.623456832597379</v>
       </c>
       <c r="K233">
-        <v>61.88235355830344</v>
+        <v>0.1188235355830344</v>
       </c>
       <c r="L233">
         <v>0.02366422345184046</v>
@@ -18123,13 +18123,13 @@
         <v>0.1712500000000077</v>
       </c>
       <c r="U233">
-        <v>1.000131749412617</v>
+        <v>0.000131749412617177</v>
       </c>
       <c r="V233">
-        <v>1.000416840350146</v>
+        <v>0.0004168403501458862</v>
       </c>
       <c r="W233">
-        <v>0.997708674304419</v>
+        <v>-0.002291325695580992</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18164,7 +18164,7 @@
         <v>1.552240180719349</v>
       </c>
       <c r="K234">
-        <v>60.81873455506253</v>
+        <v>0.1081873455506253</v>
       </c>
       <c r="L234">
         <v>0.0252059368274256</v>
@@ -18194,13 +18194,13 @@
         <v>0.166249999999998</v>
       </c>
       <c r="U234">
-        <v>1.000131732056996</v>
+        <v>0.0001317320569960145</v>
       </c>
       <c r="V234">
-        <v>1.00046052631579</v>
+        <v>0.0004605263157895223</v>
       </c>
       <c r="W234">
-        <v>0.9996719160104987</v>
+        <v>-0.0003280839895013488</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18235,7 +18235,7 @@
         <v>1.363374280389832</v>
       </c>
       <c r="K235">
-        <v>57.68761603705645</v>
+        <v>0.07687616037056455</v>
       </c>
       <c r="L235">
         <v>0.02561857461399003</v>
@@ -18265,13 +18265,13 @@
         <v>0.1287500000000037</v>
       </c>
       <c r="U235">
-        <v>1.000065857352973</v>
+        <v>6.585735297348627E-05</v>
       </c>
       <c r="V235">
-        <v>1.000350715679183</v>
+        <v>0.000350715679182878</v>
       </c>
       <c r="W235">
-        <v>0.9990154250082048</v>
+        <v>-0.0009845749917951618</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18306,7 +18306,7 @@
         <v>1.164511485175734</v>
       </c>
       <c r="K236">
-        <v>53.80019894332825</v>
+        <v>0.03800198943328248</v>
       </c>
       <c r="L236">
         <v>0.02474798622882904</v>
@@ -18336,13 +18336,13 @@
         <v>0.09375</v>
       </c>
       <c r="U236">
-        <v>1.000032926508034</v>
+        <v>3.292650803388142E-05</v>
       </c>
       <c r="V236">
-        <v>1.000219120450512</v>
+        <v>0.0002191204505115341</v>
       </c>
       <c r="W236">
-        <v>0.9986859395532194</v>
+        <v>-0.001314060446780618</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18377,7 +18377,7 @@
         <v>1.081487008203423</v>
       </c>
       <c r="K237">
-        <v>51.95742293567703</v>
+        <v>0.01957422935677033</v>
       </c>
       <c r="L237">
         <v>0.0228261339274841</v>
@@ -18407,13 +18407,13 @@
         <v>0.06624999999999659</v>
       </c>
       <c r="U237">
-        <v>1.000032925423915</v>
+        <v>3.292542391486464E-05</v>
       </c>
       <c r="V237">
-        <v>1.000175257957807</v>
+        <v>0.0001752579578067071</v>
       </c>
       <c r="W237">
-        <v>0.9993421052631579</v>
+        <v>-0.0006578947368420796</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18448,7 +18448,7 @@
         <v>1.042373034524724</v>
       </c>
       <c r="K238">
-        <v>51.0373480703192</v>
+        <v>0.010373480703192</v>
       </c>
       <c r="L238">
         <v>0.02018755748210141</v>
@@ -18478,13 +18478,13 @@
         <v>0.04250000000000398</v>
       </c>
       <c r="U238">
-        <v>1.000010974779956</v>
+        <v>1.097477995570806E-05</v>
       </c>
       <c r="V238">
-        <v>1.000131420435878</v>
+        <v>0.0001314204358777715</v>
       </c>
       <c r="W238">
-        <v>0.9996708360763661</v>
+        <v>-0.0003291639236339128</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18519,7 +18519,7 @@
         <v>0.9355256310992127</v>
       </c>
       <c r="K239">
-        <v>48.33444807279118</v>
+        <v>-0.01665551927208825</v>
       </c>
       <c r="L239">
         <v>0.01685037884616788</v>
@@ -18549,13 +18549,13 @@
         <v>-0.01124999999999687</v>
       </c>
       <c r="U239">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V239">
-        <v>0.9999561989443946</v>
+        <v>-4.380105560541914E-05</v>
       </c>
       <c r="W239">
-        <v>0.9990121830754033</v>
+        <v>-0.0009878169245967072</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18590,7 +18590,7 @@
         <v>0.8178634875536011</v>
       </c>
       <c r="K240">
-        <v>44.9903688122503</v>
+        <v>-0.05009631187749697</v>
       </c>
       <c r="L240">
         <v>0.01276244793812345</v>
@@ -18620,13 +18620,13 @@
         <v>-0.0662500000000108</v>
       </c>
       <c r="U240">
-        <v>0.9999561013619553</v>
+        <v>-4.389863804465932E-05</v>
       </c>
       <c r="V240">
-        <v>0.9998685910773343</v>
+        <v>-0.0001314089226657211</v>
       </c>
       <c r="W240">
-        <v>0.998681608437706</v>
+        <v>-0.001318391562293963</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18661,7 +18661,7 @@
         <v>0.8178634875536009</v>
       </c>
       <c r="K241">
-        <v>44.9903688122503</v>
+        <v>-0.05009631187749697</v>
       </c>
       <c r="L241">
         <v>0.00843420845149183</v>
@@ -18691,13 +18691,13 @@
         <v>-0.1037500000000051</v>
       </c>
       <c r="U241">
-        <v>0.9999451242934754</v>
+        <v>-5.487570652462637E-05</v>
       </c>
       <c r="V241">
-        <v>0.9997809563445993</v>
+        <v>-0.000219043655400708</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18732,7 +18732,7 @@
         <v>0.7178279683908462</v>
       </c>
       <c r="K242">
-        <v>41.78695315243135</v>
+        <v>-0.0821304684756865</v>
       </c>
       <c r="L242">
         <v>0.003726311032752973</v>
@@ -18762,13 +18762,13 @@
         <v>-0.1387500000000017</v>
       </c>
       <c r="U242">
-        <v>0.9999560970255734</v>
+        <v>-4.390297442657953E-05</v>
       </c>
       <c r="V242">
-        <v>0.9994741800495147</v>
+        <v>-0.0005258199504852845</v>
       </c>
       <c r="W242">
-        <v>0.9986798679867988</v>
+        <v>-0.001320132013201247</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18803,7 +18803,7 @@
         <v>0.8143910392054632</v>
       </c>
       <c r="K243">
-        <v>44.88508935549482</v>
+        <v>-0.05114910644505177</v>
       </c>
       <c r="L243">
         <v>-0.0005657802710418329</v>
@@ -18833,13 +18833,13 @@
         <v>-0.1499999999999915</v>
       </c>
       <c r="U243">
-        <v>0.9999890237745045</v>
+        <v>-1.097622549550703E-05</v>
       </c>
       <c r="V243">
-        <v>0.9995835068721366</v>
+        <v>-0.0004164931278634043</v>
       </c>
       <c r="W243">
-        <v>1.000991407799075</v>
+        <v>0.000991407799074695</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18874,7 +18874,7 @@
         <v>0.7171920661879323</v>
       </c>
       <c r="K244">
-        <v>41.76539598043086</v>
+        <v>-0.08234604019569142</v>
       </c>
       <c r="L244">
         <v>-0.004810023135169579</v>
@@ -18904,13 +18904,13 @@
         <v>-0.1587499999999977</v>
       </c>
       <c r="U244">
-        <v>0.9999670709620766</v>
+        <v>-3.292903792340152E-05</v>
       </c>
       <c r="V244">
-        <v>0.9995614035087719</v>
+        <v>-0.0004385964912281271</v>
       </c>
       <c r="W244">
-        <v>0.998679432155827</v>
+        <v>-0.001320567844173004</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18945,7 +18945,7 @@
         <v>0.7171920661879324</v>
       </c>
       <c r="K245">
-        <v>41.76539598043086</v>
+        <v>-0.08234604019569142</v>
       </c>
       <c r="L245">
         <v>-0.008737791060278001</v>
@@ -18975,13 +18975,13 @@
         <v>-0.1662499999999909</v>
       </c>
       <c r="U245">
-        <v>0.9999341397554391</v>
+        <v>-6.586024456090023E-05</v>
       </c>
       <c r="V245">
-        <v>0.9996050899517334</v>
+        <v>-0.000394910048266639</v>
       </c>
       <c r="W245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -19016,7 +19016,7 @@
         <v>0.6524766542727213</v>
       </c>
       <c r="K246">
-        <v>39.4847729065126</v>
+        <v>-0.1051522709348739</v>
       </c>
       <c r="L246">
         <v>-0.01255181567641664</v>
@@ -19046,13 +19046,13 @@
         <v>-0.177500000000002</v>
       </c>
       <c r="U246">
-        <v>0.999890225695969</v>
+        <v>-0.0001097743040310295</v>
       </c>
       <c r="V246">
-        <v>0.9992976603309777</v>
+        <v>-0.0007023396690223338</v>
       </c>
       <c r="W246">
-        <v>0.9990082644628099</v>
+        <v>-0.0009917355371901193</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -19087,7 +19087,7 @@
         <v>0.6324524502012714</v>
       </c>
       <c r="K247">
-        <v>38.74247302721092</v>
+        <v>-0.1125752697278908</v>
       </c>
       <c r="L247">
         <v>-0.01612879881997036</v>
@@ -19117,13 +19117,13 @@
         <v>-0.1687500000000028</v>
       </c>
       <c r="U247">
-        <v>0.9999011922798234</v>
+        <v>-9.880772017656358E-05</v>
       </c>
       <c r="V247">
-        <v>0.999253239622227</v>
+        <v>-0.0007467603777729925</v>
       </c>
       <c r="W247">
-        <v>0.9996690933156851</v>
+        <v>-0.0003309066843149022</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19158,7 +19158,7 @@
         <v>0.6647572221971205</v>
       </c>
       <c r="K248">
-        <v>39.93118115563928</v>
+        <v>-0.1006881884436072</v>
       </c>
       <c r="L248">
         <v>-0.01915649080209236</v>
@@ -19188,13 +19188,13 @@
         <v>-0.1475000000000009</v>
       </c>
       <c r="U248">
-        <v>0.9999231419568059</v>
+        <v>-7.685804319412792E-05</v>
       </c>
       <c r="V248">
-        <v>0.9994285211886761</v>
+        <v>-0.0005714788113239111</v>
       </c>
       <c r="W248">
-        <v>1.000331016219795</v>
+        <v>0.0003310162197946998</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19229,7 +19229,7 @@
         <v>0.8007773148112578</v>
       </c>
       <c r="K249">
-        <v>44.46842528639853</v>
+        <v>-0.05531574713601473</v>
       </c>
       <c r="L249">
         <v>-0.02110987631060271</v>
@@ -19259,13 +19259,13 @@
         <v>-0.1300000000000026</v>
       </c>
       <c r="U249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V249">
-        <v>0.9995381570266109</v>
+        <v>-0.0004618429733891372</v>
       </c>
       <c r="W249">
-        <v>1.00132362673726</v>
+        <v>0.001323626737260275</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19300,7 +19300,7 @@
         <v>0.7472799034060065</v>
       </c>
       <c r="K250">
-        <v>42.76818510585049</v>
+        <v>-0.07231814894149508</v>
       </c>
       <c r="L250">
         <v>-0.02245116452040764</v>
@@ -19330,13 +19330,13 @@
         <v>-0.1062500000000028</v>
       </c>
       <c r="U250">
-        <v>0.9999560777423958</v>
+        <v>-4.392225760418977E-05</v>
       </c>
       <c r="V250">
-        <v>0.9995599463134502</v>
+        <v>-0.0004400536865497573</v>
       </c>
       <c r="W250">
-        <v>0.9993390614672835</v>
+        <v>-0.0006609385327165374</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19371,7 +19371,7 @@
         <v>0.6981816723307835</v>
       </c>
       <c r="K251">
-        <v>41.11348530646413</v>
+        <v>-0.08886514693535874</v>
       </c>
       <c r="L251">
         <v>-0.02349461643845839</v>
@@ -19401,13 +19401,13 @@
         <v>-0.09625000000000483</v>
       </c>
       <c r="U251">
-        <v>0.9999121516262931</v>
+        <v>-8.784837370690024E-05</v>
       </c>
       <c r="V251">
-        <v>0.9996037773228554</v>
+        <v>-0.0003962226771445643</v>
       </c>
       <c r="W251">
-        <v>0.9993386243386243</v>
+        <v>-0.000661375661375696</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19442,7 +19442,7 @@
         <v>0.6981816723307834</v>
       </c>
       <c r="K252">
-        <v>41.11348530646413</v>
+        <v>-0.08886514693535874</v>
       </c>
       <c r="L252">
         <v>-0.02420601830895461</v>
@@ -19472,13 +19472,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U252">
-        <v>0.9999121439082782</v>
+        <v>-8.785609172179409E-05</v>
       </c>
       <c r="V252">
-        <v>0.9996476624606373</v>
+        <v>-0.0003523375393627015</v>
       </c>
       <c r="W252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19513,7 +19513,7 @@
         <v>0.6736602172440325</v>
       </c>
       <c r="K253">
-        <v>40.25071578467278</v>
+        <v>-0.0974928421532722</v>
       </c>
       <c r="L253">
         <v>-0.02470312560451437</v>
@@ -19543,13 +19543,13 @@
         <v>-0.07000000000000739</v>
       </c>
       <c r="U253">
-        <v>0.999890170236134</v>
+        <v>-0.0001098297638659762</v>
       </c>
       <c r="V253">
-        <v>0.9996475382751403</v>
+        <v>-0.0003524617248596984</v>
       </c>
       <c r="W253">
-        <v>0.9996690933156851</v>
+        <v>-0.0003309066843149022</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19584,7 +19584,7 @@
         <v>0.7106306205201361</v>
       </c>
       <c r="K254">
-        <v>41.54202619757041</v>
+        <v>-0.08457973802429591</v>
       </c>
       <c r="L254">
         <v>-0.02482911307764462</v>
@@ -19614,13 +19614,13 @@
         <v>-0.05125000000001023</v>
       </c>
       <c r="U254">
-        <v>0.9998462214411247</v>
+        <v>-0.0001537785588753282</v>
       </c>
       <c r="V254">
-        <v>0.9997355605015537</v>
+        <v>-0.000264439498446345</v>
       </c>
       <c r="W254">
-        <v>1.000331016219795</v>
+        <v>0.0003310162197946998</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19655,7 +19655,7 @@
         <v>0.7495468344949962</v>
       </c>
       <c r="K255">
-        <v>42.84234178339968</v>
+        <v>-0.07157658216600316</v>
       </c>
       <c r="L255">
         <v>-0.02451194556779142</v>
@@ -19685,13 +19685,13 @@
         <v>-0.03249999999999886</v>
       </c>
       <c r="U255">
-        <v>0.999857183661811</v>
+        <v>-0.0001428163381890224</v>
       </c>
       <c r="V255">
-        <v>0.9998457028236383</v>
+        <v>-0.0001542971763617285</v>
       </c>
       <c r="W255">
-        <v>1.000330906684315</v>
+        <v>0.0003309066843151243</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19726,7 +19726,7 @@
         <v>0.8314757060210025</v>
       </c>
       <c r="K256">
-        <v>45.39922114650575</v>
+        <v>-0.04600778853494247</v>
       </c>
       <c r="L256">
         <v>-0.0236170945342123</v>
@@ -19756,13 +19756,13 @@
         <v>-0.01874999999999005</v>
       </c>
       <c r="U256">
-        <v>0.9998351883796821</v>
+        <v>-0.0001648116203178951</v>
       </c>
       <c r="V256">
-        <v>0.999889770723104</v>
+        <v>-0.0001102292768959678</v>
       </c>
       <c r="W256">
-        <v>1.000661594442607</v>
+        <v>0.0006615944426067166</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19797,7 +19797,7 @@
         <v>0.8745961647189082</v>
       </c>
       <c r="K257">
-        <v>46.65517732188746</v>
+        <v>-0.03344822678112536</v>
       </c>
       <c r="L257">
         <v>-0.02222296630131357</v>
@@ -19827,13 +19827,13 @@
         <v>-0.0137499999999946</v>
       </c>
       <c r="U257">
-        <v>0.9997362579397349</v>
+        <v>-0.0002637420602651375</v>
       </c>
       <c r="V257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W257">
-        <v>1.000330578512397</v>
+        <v>0.0003305785123968175</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19868,7 +19868,7 @@
         <v>0.9653760777671146</v>
       </c>
       <c r="K258">
-        <v>49.11915275085107</v>
+        <v>-0.008808472491489305</v>
       </c>
       <c r="L258">
         <v>-0.0202937176150267</v>
@@ -19898,13 +19898,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U258">
-        <v>0.9997801569679249</v>
+        <v>-0.0002198430320751177</v>
       </c>
       <c r="V258">
-        <v>0.9999779517142543</v>
+        <v>-2.204828574570161E-05</v>
       </c>
       <c r="W258">
-        <v>1.000660938532717</v>
+        <v>0.0006609385327165374</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19939,7 +19939,7 @@
         <v>0.9213547593762</v>
       </c>
       <c r="K259">
-        <v>47.9533909539607</v>
+        <v>-0.02046609046039299</v>
       </c>
       <c r="L259">
         <v>-0.01820911318676742</v>
@@ -19969,13 +19969,13 @@
         <v>0.008749999999999147</v>
       </c>
       <c r="U259">
-        <v>0.9998020977637049</v>
+        <v>-0.0001979022362951222</v>
       </c>
       <c r="V259">
-        <v>1.000044097543767</v>
+        <v>4.409754376677455E-05</v>
       </c>
       <c r="W259">
-        <v>0.999669749009247</v>
+        <v>-0.0003302509907530116</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -20010,7 +20010,7 @@
         <v>0.8791551499382049</v>
       </c>
       <c r="K260">
-        <v>46.78459625683997</v>
+        <v>-0.03215403743160034</v>
       </c>
       <c r="L260">
         <v>-0.0162169243226685</v>
@@ -20040,13 +20040,13 @@
         <v>0.0175000000000054</v>
       </c>
       <c r="U260">
-        <v>0.9998130553356206</v>
+        <v>-0.000186944664379407</v>
       </c>
       <c r="V260">
-        <v>1.00002204779963</v>
+        <v>2.204779962955428E-05</v>
       </c>
       <c r="W260">
-        <v>0.9996696399074992</v>
+        <v>-0.0003303600925007588</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -20081,7 +20081,7 @@
         <v>0.9273674601928933</v>
       </c>
       <c r="K261">
-        <v>48.11575785865355</v>
+        <v>-0.01884242141346454</v>
       </c>
       <c r="L261">
         <v>-0.01422834768511375</v>
@@ -20111,13 +20111,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U261">
-        <v>0.9997030323694717</v>
+        <v>-0.0002969676305283331</v>
       </c>
       <c r="V261">
-        <v>1.000110236567674</v>
+        <v>0.0001102365676741712</v>
       </c>
       <c r="W261">
-        <v>1.000330469266358</v>
+        <v>0.0003304692663581577</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20152,7 +20152,7 @@
         <v>0.9781172604610043</v>
       </c>
       <c r="K262">
-        <v>49.44687961688642</v>
+        <v>-0.005531203831135811</v>
       </c>
       <c r="L262">
         <v>-0.01219654036509338</v>
@@ -20182,13 +20182,13 @@
         <v>0.03750000000000853</v>
       </c>
       <c r="U262">
-        <v>0.999702944153501</v>
+        <v>-0.0002970558464989725</v>
       </c>
       <c r="V262">
-        <v>1.000154314183678</v>
+        <v>0.0001543141836779505</v>
       </c>
       <c r="W262">
-        <v>1.000330360092501</v>
+        <v>0.0003303600925008698</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20223,7 +20223,7 @@
         <v>0.7719311886474386</v>
       </c>
       <c r="K263">
-        <v>43.56439988150295</v>
+        <v>-0.06435600118497048</v>
       </c>
       <c r="L263">
         <v>-0.01082471262736892</v>
@@ -20253,13 +20253,13 @@
         <v>0.03499999999999659</v>
       </c>
       <c r="U263">
-        <v>0.9997248665602815</v>
+        <v>-0.0002751334397185223</v>
       </c>
       <c r="V263">
-        <v>1.000022041482069</v>
+        <v>2.204148206930157E-05</v>
       </c>
       <c r="W263">
-        <v>0.9983487450462352</v>
+        <v>-0.001651254953764836</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20294,7 +20294,7 @@
         <v>0.8163099107298459</v>
       </c>
       <c r="K264">
-        <v>44.94331644107084</v>
+        <v>-0.05056683558929159</v>
       </c>
       <c r="L264">
         <v>-0.009780616504561749</v>
@@ -20324,13 +20324,13 @@
         <v>0.03000000000000824</v>
       </c>
       <c r="U264">
-        <v>0.9997468075737561</v>
+        <v>-0.0002531924262438867</v>
       </c>
       <c r="V264">
-        <v>0.9999559180074939</v>
+        <v>-4.408199250605094E-05</v>
       </c>
       <c r="W264">
-        <v>1.000330797221303</v>
+        <v>0.0003307972213033583</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20365,7 +20365,7 @@
         <v>0.8630243550271335</v>
       </c>
       <c r="K265">
-        <v>46.32383643822865</v>
+        <v>-0.03676163561771356</v>
       </c>
       <c r="L265">
         <v>-0.008845780236196752</v>
@@ -20395,13 +20395,13 @@
         <v>0.02874999999999517</v>
       </c>
       <c r="U265">
-        <v>0.9997907880683132</v>
+        <v>-0.0002092119316867702</v>
       </c>
       <c r="V265">
-        <v>1.000022041967907</v>
+        <v>2.204196790689394E-05</v>
       </c>
       <c r="W265">
-        <v>1.000330687830688</v>
+        <v>0.0003306878306879035</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20436,7 +20436,7 @@
         <v>0.7857489343429057</v>
       </c>
       <c r="K266">
-        <v>44.00108655991075</v>
+        <v>-0.05998913440089254</v>
       </c>
       <c r="L266">
         <v>-0.008245059672950987</v>
@@ -20466,13 +20466,13 @@
         <v>0.0175000000000054</v>
       </c>
       <c r="U266">
-        <v>0.9998127712064142</v>
+        <v>-0.0001872287935857919</v>
       </c>
       <c r="V266">
-        <v>1.000022041482069</v>
+        <v>2.204148206930157E-05</v>
       </c>
       <c r="W266">
-        <v>0.9993388429752066</v>
+        <v>-0.0006611570247934129</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20507,7 +20507,7 @@
         <v>0.6884204927260454</v>
       </c>
       <c r="K267">
-        <v>40.77304769113254</v>
+        <v>-0.09226952308867459</v>
       </c>
       <c r="L267">
         <v>-0.008215949699814932</v>
@@ -20537,13 +20537,13 @@
         <v>0.002499999999990621</v>
       </c>
       <c r="U267">
-        <v>0.9998017206243597</v>
+        <v>-0.0001982793756403201</v>
       </c>
       <c r="V267">
-        <v>0.9999559180074939</v>
+        <v>-4.408199250605094E-05</v>
       </c>
       <c r="W267">
-        <v>0.9990076083360899</v>
+        <v>-0.0009923916639100749</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20578,7 +20578,7 @@
         <v>0.6333656401524129</v>
       </c>
       <c r="K268">
-        <v>38.77672118126056</v>
+        <v>-0.1122327881873944</v>
       </c>
       <c r="L268">
         <v>-0.008745826651318058</v>
@@ -20608,13 +20608,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U268">
-        <v>0.9997906635963993</v>
+        <v>-0.0002093364036006573</v>
       </c>
       <c r="V268">
-        <v>0.9999338740962792</v>
+        <v>-6.612590372079286E-05</v>
       </c>
       <c r="W268">
-        <v>0.9993377483443708</v>
+        <v>-0.0006622516556291647</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20649,7 +20649,7 @@
         <v>0.6077834861453526</v>
       </c>
       <c r="K269">
-        <v>37.80257051915046</v>
+        <v>-0.1219742948084954</v>
       </c>
       <c r="L269">
         <v>-0.009669257449630299</v>
@@ -20679,13 +20679,13 @@
         <v>-0.03249999999999176</v>
       </c>
       <c r="U269">
-        <v>0.9998126597901792</v>
+        <v>-0.0001873402098208077</v>
       </c>
       <c r="V269">
-        <v>0.9998897828722584</v>
+        <v>-0.0001102171277416186</v>
       </c>
       <c r="W269">
-        <v>0.9996686547382373</v>
+        <v>-0.0003313452617627055</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20720,7 +20720,7 @@
         <v>0.692816779580252</v>
       </c>
       <c r="K270">
-        <v>40.92686154446329</v>
+        <v>-0.09073138455536717</v>
       </c>
       <c r="L270">
         <v>-0.01049665788107411</v>
@@ -20750,13 +20750,13 @@
         <v>-0.05124999999999602</v>
       </c>
       <c r="U270">
-        <v>0.9998787571505724</v>
+        <v>-0.0001212428494276052</v>
       </c>
       <c r="V270">
-        <v>0.9999118165784833</v>
+        <v>-8.818342151672987E-05</v>
       </c>
       <c r="W270">
-        <v>1.000662910175671</v>
+        <v>0.0006629101756712164</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20791,7 +20791,7 @@
         <v>0.663138439821659</v>
       </c>
       <c r="K271">
-        <v>39.87271437805072</v>
+        <v>-0.1012728562194928</v>
       </c>
       <c r="L271">
         <v>-0.01129540832055807</v>
@@ -20821,13 +20821,13 @@
         <v>-0.05750000000000455</v>
       </c>
       <c r="U271">
-        <v>0.9998677190352309</v>
+        <v>-0.0001322809647691381</v>
       </c>
       <c r="V271">
-        <v>0.9998456654025929</v>
+        <v>-0.000154334597407102</v>
       </c>
       <c r="W271">
-        <v>0.9996687644915534</v>
+        <v>-0.0003312355084466034</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20862,7 +20862,7 @@
         <v>0.663138439821659</v>
       </c>
       <c r="K272">
-        <v>39.87271437805072</v>
+        <v>-0.1012728562194928</v>
       </c>
       <c r="L272">
         <v>-0.01198494095720838</v>
@@ -20892,13 +20892,13 @@
         <v>-0.06375000000000597</v>
       </c>
       <c r="U272">
-        <v>0.9999118010231082</v>
+        <v>-8.819897689182898E-05</v>
       </c>
       <c r="V272">
-        <v>0.9998235903768551</v>
+        <v>-0.000176409623144913</v>
       </c>
       <c r="W272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20933,7 +20933,7 @@
         <v>0.6631384398216591</v>
       </c>
       <c r="K273">
-        <v>39.87271437805072</v>
+        <v>-0.1012728562194928</v>
       </c>
       <c r="L273">
         <v>-0.01252087207876654</v>
@@ -20963,13 +20963,13 @@
         <v>-0.07125000000000625</v>
       </c>
       <c r="U273">
-        <v>0.9998787157096232</v>
+        <v>-0.000121284290376833</v>
       </c>
       <c r="V273">
-        <v>0.9997794490637613</v>
+        <v>-0.0002205509362387392</v>
       </c>
       <c r="W273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -21004,7 +21004,7 @@
         <v>0.6028934481183376</v>
       </c>
       <c r="K274">
-        <v>37.61282129052832</v>
+        <v>-0.1238717870947169</v>
       </c>
       <c r="L274">
         <v>-0.01312487798492761</v>
@@ -21034,13 +21034,13 @@
         <v>-0.07375000000000398</v>
       </c>
       <c r="U274">
-        <v>0.9999007553619672</v>
+        <v>-9.92446380327916E-05</v>
       </c>
       <c r="V274">
-        <v>0.9997573404513468</v>
+        <v>-0.0002426595486532124</v>
       </c>
       <c r="W274">
-        <v>0.9993373094764745</v>
+        <v>-0.000662690523525522</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -21075,7 +21075,7 @@
         <v>0.5753816393525701</v>
       </c>
       <c r="K275">
-        <v>36.52331758728844</v>
+        <v>-0.1347668241271156</v>
       </c>
       <c r="L275">
         <v>-0.01380444460498519</v>
@@ -21105,13 +21105,13 @@
         <v>-0.07124999999999915</v>
       </c>
       <c r="U275">
-        <v>0.9998897172349905</v>
+        <v>-0.0001102827650094618</v>
       </c>
       <c r="V275">
-        <v>0.9997572815533982</v>
+        <v>-0.0002427184466018417</v>
       </c>
       <c r="W275">
-        <v>0.9996684350132625</v>
+        <v>-0.0003315649867374759</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21146,7 +21146,7 @@
         <v>0.482646536162846</v>
       </c>
       <c r="K276">
-        <v>32.55304109177338</v>
+        <v>-0.1744695890822662</v>
       </c>
       <c r="L276">
         <v>-0.01491809198172804</v>
@@ -21176,13 +21176,13 @@
         <v>-0.07000000000000739</v>
       </c>
       <c r="U276">
-        <v>0.9998786755784971</v>
+        <v>-0.0001213244215029219</v>
       </c>
       <c r="V276">
-        <v>0.9996468692754198</v>
+        <v>-0.0003531307245802084</v>
       </c>
       <c r="W276">
-        <v>0.9986733001658376</v>
+        <v>-0.001326699834162448</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21217,7 +21217,7 @@
         <v>0.482646536162846</v>
       </c>
       <c r="K277">
-        <v>32.55304109177338</v>
+        <v>-0.1744695890822662</v>
       </c>
       <c r="L277">
         <v>-0.01616989011131157</v>
@@ -21247,13 +21247,13 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="U277">
-        <v>0.9998896916882686</v>
+        <v>-0.0001103083117314219</v>
       </c>
       <c r="V277">
-        <v>0.9996246660631886</v>
+        <v>-0.0003753339368114395</v>
       </c>
       <c r="W277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21288,7 +21288,7 @@
         <v>0.462019298396091</v>
       </c>
       <c r="K278">
-        <v>31.60145005629882</v>
+        <v>-0.1839854994370118</v>
       </c>
       <c r="L278">
         <v>-0.01748761161182249</v>
@@ -21318,13 +21318,13 @@
         <v>-0.06500000000000483</v>
       </c>
       <c r="U278">
-        <v>0.9998676154228032</v>
+        <v>-0.0001323845771967758</v>
       </c>
       <c r="V278">
-        <v>0.9997128721618518</v>
+        <v>-0.0002871278381482156</v>
       </c>
       <c r="W278">
-        <v>0.9996678844237795</v>
+        <v>-0.0003321155762204819</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21359,7 +21359,7 @@
         <v>0.551993555882194</v>
       </c>
       <c r="K279">
-        <v>35.56674277351792</v>
+        <v>-0.1443325722648208</v>
       </c>
       <c r="L279">
         <v>-0.0184571513101203</v>
@@ -21389,13 +21389,13 @@
         <v>-0.06624999999999659</v>
       </c>
       <c r="U279">
-        <v>0.9998455308772742</v>
+        <v>-0.0001544691227257644</v>
       </c>
       <c r="V279">
-        <v>0.9997348827961027</v>
+        <v>-0.0002651172038973248</v>
       </c>
       <c r="W279">
-        <v>1.000664451827243</v>
+        <v>0.0006644518272425071</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21430,7 +21430,7 @@
         <v>0.5519935558821939</v>
       </c>
       <c r="K280">
-        <v>35.56674277351792</v>
+        <v>-0.1443325722648208</v>
       </c>
       <c r="L280">
         <v>-0.01908701360171589</v>
@@ -21460,13 +21460,13 @@
         <v>-0.06624999999999659</v>
       </c>
       <c r="U280">
-        <v>0.9998675774396099</v>
+        <v>-0.0001324225603901441</v>
       </c>
       <c r="V280">
-        <v>0.9997127135311927</v>
+        <v>-0.0002872864688072685</v>
       </c>
       <c r="W280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21501,7 +21501,7 @@
         <v>0.551993555882194</v>
       </c>
       <c r="K281">
-        <v>35.56674277351792</v>
+        <v>-0.1443325722648208</v>
       </c>
       <c r="L281">
         <v>-0.01940164521852045</v>
@@ -21531,13 +21531,13 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="U281">
-        <v>0.999889633251294</v>
+        <v>-0.0001103667487060145</v>
       </c>
       <c r="V281">
-        <v>0.9997568415933509</v>
+        <v>-0.0002431584066491244</v>
       </c>
       <c r="W281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21572,7 +21572,7 @@
         <v>0.604464328581472</v>
       </c>
       <c r="K282">
-        <v>37.67390261121522</v>
+        <v>-0.1232609738878478</v>
       </c>
       <c r="L282">
         <v>-0.01931421166057664</v>
@@ -21602,13 +21602,13 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="U282">
-        <v>0.9999006589622174</v>
+        <v>-9.934103778264092E-05</v>
       </c>
       <c r="V282">
-        <v>0.9998452251973377</v>
+        <v>-0.0001547748026623497</v>
       </c>
       <c r="W282">
-        <v>1.000332005312085</v>
+        <v>0.0003320053120849931</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21643,7 +21643,7 @@
         <v>0.6596967208965211</v>
       </c>
       <c r="K283">
-        <v>39.74802821446629</v>
+        <v>-0.1025197178553371</v>
       </c>
       <c r="L283">
         <v>-0.01879789799963577</v>
@@ -21673,13 +21673,13 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="U283">
-        <v>0.9999227270720183</v>
+        <v>-7.727292798165308E-05</v>
       </c>
       <c r="V283">
-        <v>0.9999115435647944</v>
+        <v>-8.845643520560831E-05</v>
       </c>
       <c r="W283">
-        <v>1.000331895121142</v>
+        <v>0.0003318951211417343</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21714,7 +21714,7 @@
         <v>0.6234497511648807</v>
       </c>
       <c r="K284">
-        <v>38.40277475280859</v>
+        <v>-0.1159722524719141</v>
       </c>
       <c r="L284">
         <v>-0.01810671055985187</v>
@@ -21744,13 +21744,13 @@
         <v>-0.04374999999999574</v>
       </c>
       <c r="U284">
-        <v>0.9999006414148662</v>
+        <v>-9.935858513376861E-05</v>
       </c>
       <c r="V284">
-        <v>0.9999115357395613</v>
+        <v>-8.846426043873645E-05</v>
       </c>
       <c r="W284">
-        <v>0.9996682149966821</v>
+        <v>-0.0003317850033178749</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21785,7 +21785,7 @@
         <v>0.6234497511648807</v>
       </c>
       <c r="K285">
-        <v>38.40277475280859</v>
+        <v>-0.1159722524719141</v>
       </c>
       <c r="L285">
         <v>-0.01728769189664194</v>
@@ -21815,13 +21815,13 @@
         <v>-0.03374999999999773</v>
       </c>
       <c r="U285">
-        <v>0.999889590601952</v>
+        <v>-0.0001104093980479615</v>
       </c>
       <c r="V285">
-        <v>0.9998672918694153</v>
+        <v>-0.0001327081305847466</v>
       </c>
       <c r="W285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21856,7 +21856,7 @@
         <v>0.5876718346779651</v>
       </c>
       <c r="K286">
-        <v>37.01469169144551</v>
+        <v>-0.1298530830855449</v>
       </c>
       <c r="L286">
         <v>-0.01650108751292611</v>
@@ -21886,13 +21886,13 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="U286">
-        <v>0.9998564519334819</v>
+        <v>-0.0001435480665180622</v>
       </c>
       <c r="V286">
-        <v>0.9998672742556297</v>
+        <v>-0.0001327257443702878</v>
       </c>
       <c r="W286">
-        <v>0.9996681048788584</v>
+        <v>-0.0003318951211416232</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21927,7 +21927,7 @@
         <v>0.5541944038896451</v>
       </c>
       <c r="K287">
-        <v>35.65798477350556</v>
+        <v>-0.1434201522649444</v>
       </c>
       <c r="L287">
         <v>-0.01584486232606338</v>
@@ -21957,13 +21957,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U287">
-        <v>0.9998343438359341</v>
+        <v>-0.0001656561640659415</v>
       </c>
       <c r="V287">
-        <v>0.9998451327433628</v>
+        <v>-0.0001548672566371589</v>
       </c>
       <c r="W287">
-        <v>0.999667994687915</v>
+        <v>-0.0003320053120849931</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21998,7 +21998,7 @@
         <v>0.4948478723874416</v>
       </c>
       <c r="K288">
-        <v>33.10356067183703</v>
+        <v>-0.1689643932816297</v>
       </c>
       <c r="L288">
         <v>-0.01549317958960564</v>
@@ -22028,13 +22028,13 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="U288">
-        <v>0.9997901340932689</v>
+        <v>-0.0002098659067311104</v>
       </c>
       <c r="V288">
-        <v>0.9998008541145751</v>
+        <v>-0.0001991458854249117</v>
       </c>
       <c r="W288">
-        <v>0.9993357688475589</v>
+        <v>-0.0006642311524410749</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -22069,7 +22069,7 @@
         <v>0.4684457460879936</v>
       </c>
       <c r="K289">
-        <v>31.90078675606193</v>
+        <v>-0.1809921324393807</v>
       </c>
       <c r="L289">
         <v>-0.0154128840830362</v>
@@ -22099,13 +22099,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U289">
-        <v>0.9997900900403248</v>
+        <v>-0.0002099099596751808</v>
       </c>
       <c r="V289">
-        <v>0.9998229461756374</v>
+        <v>-0.0001770538243626163</v>
       </c>
       <c r="W289">
-        <v>0.9996676636756398</v>
+        <v>-0.0003323363243602495</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22140,7 +22140,7 @@
         <v>0.5246078788260248</v>
       </c>
       <c r="K290">
-        <v>34.4093642773237</v>
+        <v>-0.1559063572267629</v>
       </c>
       <c r="L290">
         <v>-0.01532552702479403</v>
@@ -22170,13 +22170,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U290">
-        <v>0.9998121463932109</v>
+        <v>-0.000187853606789079</v>
       </c>
       <c r="V290">
-        <v>0.9998671861165221</v>
+        <v>-0.0001328138834778558</v>
       </c>
       <c r="W290">
-        <v>1.000332446808511</v>
+        <v>0.0003324468085106336</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22211,7 +22211,7 @@
         <v>0.8201980511314106</v>
       </c>
       <c r="K291">
-        <v>45.06092348695718</v>
+        <v>-0.04939076513042823</v>
       </c>
       <c r="L291">
         <v>-0.01458017947979005</v>
@@ -22241,13 +22241,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U291">
-        <v>0.9998563202511079</v>
+        <v>-0.0001436797488920671</v>
       </c>
       <c r="V291">
-        <v>1.000066415762674</v>
+        <v>6.641576267440996E-05</v>
       </c>
       <c r="W291">
-        <v>1.001661681621801</v>
+        <v>0.001661681621801359</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22282,7 +22282,7 @@
         <v>0.8201980511314108</v>
       </c>
       <c r="K292">
-        <v>45.06092348695718</v>
+        <v>-0.04939076513042823</v>
       </c>
       <c r="L292">
         <v>-0.01343039224242469</v>
@@ -22312,13 +22312,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U292">
-        <v>0.9998452457276766</v>
+        <v>-0.0001547542723233652</v>
       </c>
       <c r="V292">
-        <v>1.000066411351914</v>
+        <v>6.641135191398639E-05</v>
       </c>
       <c r="W292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22353,7 +22353,7 @@
         <v>0.8201980511314108</v>
       </c>
       <c r="K293">
-        <v>45.06092348695718</v>
+        <v>-0.04939076513042823</v>
       </c>
       <c r="L293">
         <v>-0.01205977874167326</v>
@@ -22383,13 +22383,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U293">
-        <v>0.9999004997125548</v>
+        <v>-9.950028744520889E-05</v>
       </c>
       <c r="V293">
-        <v>1.000088542588985</v>
+        <v>8.854258898516321E-05</v>
       </c>
       <c r="W293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22424,7 +22424,7 @@
         <v>0.7672914879296358</v>
       </c>
       <c r="K294">
-        <v>43.41623853054993</v>
+        <v>-0.06583761469450067</v>
       </c>
       <c r="L294">
         <v>-0.01071945547838324</v>
@@ -22454,13 +22454,13 @@
         <v>-0.01124999999999687</v>
       </c>
       <c r="U294">
-        <v>0.9998783764359873</v>
+        <v>-0.000121623564012685</v>
       </c>
       <c r="V294">
-        <v>1.000022133687472</v>
+        <v>2.213368747239208E-05</v>
       </c>
       <c r="W294">
-        <v>0.9996682149966821</v>
+        <v>-0.0003317850033178749</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22495,7 +22495,7 @@
         <v>0.6374447568933802</v>
       </c>
       <c r="K295">
-        <v>38.92923741151205</v>
+        <v>-0.1107076258848795</v>
       </c>
       <c r="L295">
         <v>-0.009806165386219801</v>
@@ -22525,13 +22525,13 @@
         <v>-0.01124999999999687</v>
       </c>
       <c r="U295">
-        <v>0.9998341295116773</v>
+        <v>-0.000165870488322728</v>
       </c>
       <c r="V295">
-        <v>0.9999557336048337</v>
+        <v>-4.42663951663036E-05</v>
       </c>
       <c r="W295">
-        <v>0.9990043146365749</v>
+        <v>-0.0009956853634250917</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22566,7 +22566,7 @@
         <v>0.5697799372043565</v>
       </c>
       <c r="K296">
-        <v>36.29680337354073</v>
+        <v>-0.1370319662645927</v>
       </c>
       <c r="L296">
         <v>-0.009415755277471202</v>
@@ -22596,13 +22596,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U296">
-        <v>0.9998341019940939</v>
+        <v>-0.0001658980059060511</v>
       </c>
       <c r="V296">
-        <v>0.999911463290467</v>
+        <v>-8.853670953301584E-05</v>
       </c>
       <c r="W296">
-        <v>0.9993355481727574</v>
+        <v>-0.0006644518272426181</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22637,7 +22637,7 @@
         <v>0.5396315484672864</v>
       </c>
       <c r="K297">
-        <v>35.04939535725241</v>
+        <v>-0.1495060464274759</v>
       </c>
       <c r="L297">
         <v>-0.009453662476372441</v>
@@ -22667,13 +22667,13 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="U297">
-        <v>0.9998561978717284</v>
+        <v>-0.0001438021282715862</v>
       </c>
       <c r="V297">
-        <v>0.9998671831765357</v>
+        <v>-0.0001328168234643323</v>
       </c>
       <c r="W297">
-        <v>0.9996675531914895</v>
+        <v>-0.0003324468085105226</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22708,7 +22708,7 @@
         <v>0.5953287465728053</v>
       </c>
       <c r="K298">
-        <v>37.31699487342225</v>
+        <v>-0.1268300512657775</v>
       </c>
       <c r="L298">
         <v>-0.009593556258825225</v>
@@ -22738,13 +22738,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U298">
-        <v>0.9998893670690019</v>
+        <v>-0.0001106329309981113</v>
       </c>
       <c r="V298">
-        <v>0.9998671655338839</v>
+        <v>-0.0001328344661161163</v>
       </c>
       <c r="W298">
-        <v>1.000332557366146</v>
+        <v>0.0003325573661456804</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22779,7 +22779,7 @@
         <v>0.506281053515732</v>
       </c>
       <c r="K299">
-        <v>33.61132720444488</v>
+        <v>-0.1638867279555513</v>
       </c>
       <c r="L299">
         <v>-0.01011396272065305</v>
@@ -22809,13 +22809,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U299">
-        <v>0.9998672257936024</v>
+        <v>-0.0001327742063975679</v>
       </c>
       <c r="V299">
-        <v>0.9998228638487258</v>
+        <v>-0.0001771361512742375</v>
       </c>
       <c r="W299">
-        <v>0.9990026595744682</v>
+        <v>-0.0009973404255317897</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22850,7 +22850,7 @@
         <v>0.4374107953534701</v>
       </c>
       <c r="K300">
-        <v>30.43046544296389</v>
+        <v>-0.1956953455703611</v>
       </c>
       <c r="L300">
         <v>-0.01115762801140291</v>
@@ -22880,13 +22880,13 @@
         <v>-0.02874999999999517</v>
       </c>
       <c r="U300">
-        <v>0.9998118782298848</v>
+        <v>-0.0001881217701151794</v>
       </c>
       <c r="V300">
-        <v>0.999756394640682</v>
+        <v>-0.0002436053593179999</v>
       </c>
       <c r="W300">
-        <v>0.9990016638935107</v>
+        <v>-0.0009983361064892504</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22921,7 +22921,7 @@
         <v>0.4174841072476551</v>
       </c>
       <c r="K301">
-        <v>29.4524718205334</v>
+        <v>-0.205475281794666</v>
       </c>
       <c r="L301">
         <v>-0.01253234891662711</v>
@@ -22951,13 +22951,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U301">
-        <v>0.9998118428334255</v>
+        <v>-0.0001881571665744985</v>
       </c>
       <c r="V301">
-        <v>0.9997563352826511</v>
+        <v>-0.0002436647173489348</v>
       </c>
       <c r="W301">
-        <v>0.9996668887408395</v>
+        <v>-0.0003331112591604679</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22992,7 +22992,7 @@
         <v>0.6572525513148465</v>
       </c>
       <c r="K302">
-        <v>39.65916666071139</v>
+        <v>-0.1034083333928861</v>
       </c>
       <c r="L302">
         <v>-0.01337043537594245</v>
@@ -23022,13 +23022,13 @@
         <v>-0.05624999999999858</v>
       </c>
       <c r="U302">
-        <v>0.9998671581813957</v>
+        <v>-0.0001328418186042901</v>
       </c>
       <c r="V302">
-        <v>0.999889216316221</v>
+        <v>-0.0001107836837790366</v>
       </c>
       <c r="W302">
-        <v>1.001666111296234</v>
+        <v>0.001666111296234396</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -23063,7 +23063,7 @@
         <v>0.7077301184868975</v>
       </c>
       <c r="K303">
-        <v>41.44273798449889</v>
+        <v>-0.0855726201550111</v>
       </c>
       <c r="L303">
         <v>-0.0136605088302118</v>
@@ -23093,13 +23093,13 @@
         <v>-0.05875000000000341</v>
       </c>
       <c r="U303">
-        <v>0.999878212154427</v>
+        <v>-0.0001217878455730403</v>
       </c>
       <c r="V303">
-        <v>0.9999556816167346</v>
+        <v>-4.431838326535154E-05</v>
       </c>
       <c r="W303">
-        <v>1.000332667997339</v>
+        <v>0.0003326679973387758</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23134,7 +23134,7 @@
         <v>0.7077301184868975</v>
       </c>
       <c r="K304">
-        <v>41.44273798449889</v>
+        <v>-0.0855726201550111</v>
       </c>
       <c r="L304">
         <v>-0.01355033259553541</v>
@@ -23164,13 +23164,13 @@
         <v>-0.05875000000000341</v>
       </c>
       <c r="U304">
-        <v>0.9999003432620971</v>
+        <v>-9.965673790290897E-05</v>
       </c>
       <c r="V304">
-        <v>0.9999778398262642</v>
+        <v>-2.216017373579682E-05</v>
       </c>
       <c r="W304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23205,7 +23205,7 @@
         <v>0.6702428828727183</v>
       </c>
       <c r="K305">
-        <v>40.12846812554234</v>
+        <v>-0.09871531874457662</v>
       </c>
       <c r="L305">
         <v>-0.01327623529376564</v>
@@ -23235,13 +23235,13 @@
         <v>-0.05875000000000341</v>
       </c>
       <c r="U305">
-        <v>0.999900333329642</v>
+        <v>-9.96666703579896E-05</v>
       </c>
       <c r="V305">
-        <v>0.9999335180055403</v>
+        <v>-6.648199445968839E-05</v>
       </c>
       <c r="W305">
-        <v>0.9996674426338543</v>
+        <v>-0.0003325573661456804</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23276,7 +23276,7 @@
         <v>0.7817550171853943</v>
       </c>
       <c r="K306">
-        <v>43.87556143494511</v>
+        <v>-0.06124438565054896</v>
       </c>
       <c r="L306">
         <v>-0.01263010380621301</v>
@@ -23306,13 +23306,13 @@
         <v>-0.05749999999999744</v>
       </c>
       <c r="U306">
-        <v>0.999966774465069</v>
+        <v>-3.322553493101399E-05</v>
       </c>
       <c r="V306">
-        <v>0.9998670271707814</v>
+        <v>-0.0001329728292186472</v>
       </c>
       <c r="W306">
-        <v>1.000665335994677</v>
+        <v>0.0006653359946773296</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23347,7 +23347,7 @@
         <v>0.6996314430329128</v>
       </c>
       <c r="K307">
-        <v>41.16371498661223</v>
+        <v>-0.08836285013387774</v>
       </c>
       <c r="L307">
         <v>-0.01199556553363021</v>
@@ -23377,13 +23377,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U307">
-        <v>0.9999446222684933</v>
+        <v>-5.537773150665615E-05</v>
       </c>
       <c r="V307">
-        <v>0.999822679315542</v>
+        <v>-0.0001773206844579711</v>
       </c>
       <c r="W307">
-        <v>0.9993351063829787</v>
+        <v>-0.0006648936170212671</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23418,7 +23418,7 @@
         <v>0.6996314430329128</v>
       </c>
       <c r="K308">
-        <v>41.16371498661223</v>
+        <v>-0.08836285013387774</v>
       </c>
       <c r="L308">
         <v>-0.01136482633011965</v>
@@ -23448,13 +23448,13 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="U308">
-        <v>0.9999556953613045</v>
+        <v>-4.430463869553591E-05</v>
       </c>
       <c r="V308">
-        <v>0.9998226478673407</v>
+        <v>-0.0001773521326593475</v>
       </c>
       <c r="W308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23489,7 +23489,7 @@
         <v>0.6266857320389422</v>
       </c>
       <c r="K309">
-        <v>38.52531067899842</v>
+        <v>-0.1147468932100159</v>
       </c>
       <c r="L309">
         <v>-0.01097716569523371</v>
@@ -23519,13 +23519,13 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="U309">
-        <v>0.9999113867966326</v>
+        <v>-8.861320336739364E-05</v>
       </c>
       <c r="V309">
-        <v>0.99980044345898</v>
+        <v>-0.0001995565410199962</v>
       </c>
       <c r="W309">
-        <v>0.9993346640053227</v>
+        <v>-0.0006653359946773296</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23560,7 +23560,7 @@
         <v>0.6266857320389423</v>
       </c>
       <c r="K310">
-        <v>38.52531067899842</v>
+        <v>-0.1147468932100157</v>
       </c>
       <c r="L310">
         <v>-0.01072160024748578</v>
@@ -23590,13 +23590,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U310">
-        <v>0.999911378943637</v>
+        <v>-8.862105636298079E-05</v>
       </c>
       <c r="V310">
-        <v>0.9998669357521456</v>
+        <v>-0.0001330642478544197</v>
       </c>
       <c r="W310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23631,7 +23631,7 @@
         <v>0.6844491969134823</v>
       </c>
       <c r="K311">
-        <v>40.63341287868104</v>
+        <v>-0.09366587121318959</v>
       </c>
       <c r="L311">
         <v>-0.01040238127537715</v>
@@ -23661,13 +23661,13 @@
         <v>0.002499999999990621</v>
       </c>
       <c r="U311">
-        <v>0.9999224497030932</v>
+        <v>-7.755029690681425E-05</v>
       </c>
       <c r="V311">
-        <v>0.9999334590218476</v>
+        <v>-6.654097815239624E-05</v>
       </c>
       <c r="W311">
-        <v>1.000332889480692</v>
+        <v>0.0003328894806924332</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23702,7 +23702,7 @@
         <v>0.6844491969134823</v>
       </c>
       <c r="K312">
-        <v>40.63341287868104</v>
+        <v>-0.09366587121318959</v>
       </c>
       <c r="L312">
         <v>-0.01002707946041653</v>
@@ -23732,13 +23732,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U312">
-        <v>0.999911364215518</v>
+        <v>-8.863578448203846E-05</v>
       </c>
       <c r="V312">
-        <v>0.9999556363959009</v>
+        <v>-4.436360409909579E-05</v>
       </c>
       <c r="W312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23773,7 +23773,7 @@
         <v>0.6844491969134823</v>
       </c>
       <c r="K313">
-        <v>40.63341287868104</v>
+        <v>-0.09366587121318959</v>
       </c>
       <c r="L313">
         <v>-0.009605215679409479</v>
@@ -23803,13 +23803,13 @@
         <v>0.001250000000005969</v>
       </c>
       <c r="U313">
-        <v>0.999900275903334</v>
+        <v>-9.972409666603177E-05</v>
       </c>
       <c r="V313">
-        <v>0.9999334516415261</v>
+        <v>-6.654835847386131E-05</v>
       </c>
       <c r="W313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23844,7 +23844,7 @@
         <v>0.8191941215369664</v>
       </c>
       <c r="K314">
-        <v>45.03060513656789</v>
+        <v>-0.04969394863432108</v>
       </c>
       <c r="L314">
         <v>-0.008904977730195697</v>
@@ -23874,13 +23874,13 @@
         <v>-7.105427357601002E-15</v>
       </c>
       <c r="U314">
-        <v>0.9999335106382978</v>
+        <v>-6.648936170217112E-05</v>
       </c>
       <c r="V314">
-        <v>1.000044368524968</v>
+        <v>4.436852496825239E-05</v>
       </c>
       <c r="W314">
-        <v>1.000665557404326</v>
+        <v>0.0006655574043261669</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23915,7 +23915,7 @@
         <v>1.031949265679322</v>
       </c>
       <c r="K315">
-        <v>50.78617281983762</v>
+        <v>0.007861728198376272</v>
       </c>
       <c r="L315">
         <v>-0.007685065730549035</v>
@@ -23945,13 +23945,13 @@
         <v>0.003750000000003695</v>
       </c>
       <c r="U315">
-        <v>0.9999667531085844</v>
+        <v>-3.324689141559478E-05</v>
       </c>
       <c r="V315">
-        <v>1.000177466225959</v>
+        <v>0.0001774662259590443</v>
       </c>
       <c r="W315">
-        <v>1.000997672098437</v>
+        <v>0.0009976720984370413</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23986,7 +23986,7 @@
         <v>1.106600193448552</v>
       </c>
       <c r="K316">
-        <v>52.53014771811174</v>
+        <v>0.02530147718111742</v>
       </c>
       <c r="L316">
         <v>-0.006078865275902434</v>
@@ -24016,13 +24016,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U316">
-        <v>0.9999889173343972</v>
+        <v>-1.10826656027907E-05</v>
       </c>
       <c r="V316">
-        <v>1.000221793421607</v>
+        <v>0.0002217934216071082</v>
       </c>
       <c r="W316">
-        <v>1.000332225913621</v>
+        <v>0.0003322259136211425</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -24057,7 +24057,7 @@
         <v>0.9563071129914232</v>
       </c>
       <c r="K317">
-        <v>48.88328149710182</v>
+        <v>-0.01116718502898179</v>
       </c>
       <c r="L317">
         <v>-0.004560881196064675</v>
@@ -24087,13 +24087,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U317">
-        <v>0.999977834423141</v>
+        <v>-2.216557685896792E-05</v>
       </c>
       <c r="V317">
-        <v>1.000066523272058</v>
+        <v>6.652327205802777E-05</v>
       </c>
       <c r="W317">
-        <v>0.9993357688475589</v>
+        <v>-0.0006642311524410749</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24128,7 +24128,7 @@
         <v>1.027788775258924</v>
       </c>
       <c r="K318">
-        <v>50.68519896149873</v>
+        <v>0.006851989614987231</v>
       </c>
       <c r="L318">
         <v>-0.00305538367678478</v>
@@ -24158,13 +24158,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U318">
-        <v>1.000011083034091</v>
+        <v>1.108303409114164E-05</v>
       </c>
       <c r="V318">
-        <v>1.000066518847007</v>
+        <v>6.651884700659139E-05</v>
       </c>
       <c r="W318">
-        <v>1.00033233632436</v>
+        <v>0.0003323363243603605</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24199,7 +24199,7 @@
         <v>1.103032630277318</v>
       </c>
       <c r="K319">
-        <v>52.44962034335462</v>
+        <v>0.02449620343354619</v>
       </c>
       <c r="L319">
         <v>-0.001521179463995528</v>
@@ -24229,13 +24229,13 @@
         <v>0.02749999999999631</v>
       </c>
       <c r="U319">
-        <v>1.000033248733778</v>
+        <v>3.324873377752446E-05</v>
       </c>
       <c r="V319">
-        <v>1.000088685896725</v>
+        <v>8.868589672528238E-05</v>
       </c>
       <c r="W319">
-        <v>1.000332225913621</v>
+        <v>0.0003322259136211425</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24270,7 +24270,7 @@
         <v>1.103032630277318</v>
       </c>
       <c r="K320">
-        <v>52.44962034335462</v>
+        <v>0.02449620343354619</v>
       </c>
       <c r="L320">
         <v>-6.182023808675245E-05</v>
@@ -24300,13 +24300,13 @@
         <v>0.03750000000000853</v>
       </c>
       <c r="U320">
-        <v>1.000022165085557</v>
+        <v>2.216508555719088E-05</v>
       </c>
       <c r="V320">
-        <v>1.000110847540293</v>
+        <v>0.000110847540292891</v>
       </c>
       <c r="W320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24341,7 +24341,7 @@
         <v>1.103032630277318</v>
       </c>
       <c r="K321">
-        <v>52.44962034335462</v>
+        <v>0.02449620343354619</v>
       </c>
       <c r="L321">
         <v>0.001259391686740582</v>
@@ -24371,13 +24371,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U321">
-        <v>0.9999667531085844</v>
+        <v>-3.324689141559478E-05</v>
       </c>
       <c r="V321">
-        <v>1.000066501152687</v>
+        <v>6.650115268680423E-05</v>
       </c>
       <c r="W321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24412,7 +24412,7 @@
         <v>1.190793359268041</v>
       </c>
       <c r="K322">
-        <v>54.35443531131997</v>
+        <v>0.04354435311319971</v>
       </c>
       <c r="L322">
         <v>0.002529164282627202</v>
@@ -24442,13 +24442,13 @@
         <v>0.05375000000000085</v>
       </c>
       <c r="U322">
-        <v>0.9999778346687945</v>
+        <v>-2.216533120547037E-05</v>
       </c>
       <c r="V322">
-        <v>1.000132993461155</v>
+        <v>0.0001329934611549177</v>
       </c>
       <c r="W322">
-        <v>1.000332115576221</v>
+        <v>0.000332115576220593</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24483,7 +24483,7 @@
         <v>1.375552788722163</v>
       </c>
       <c r="K323">
-        <v>57.90453469409487</v>
+        <v>0.07904534694094867</v>
       </c>
       <c r="L323">
         <v>0.003919738477667275</v>
@@ -24513,13 +24513,13 @@
         <v>0.05375000000000796</v>
       </c>
       <c r="U323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V323">
-        <v>1.000177301034995</v>
+        <v>0.0001773010349948034</v>
       </c>
       <c r="W323">
-        <v>1.00066401062417</v>
+        <v>0.0006640106241699861</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24554,7 +24554,7 @@
         <v>1.472794593697999</v>
       </c>
       <c r="K324">
-        <v>59.55992452634221</v>
+        <v>0.09559924526342212</v>
       </c>
       <c r="L324">
         <v>0.005401582696403086</v>
@@ -24584,13 +24584,13 @@
         <v>0.05250000000000199</v>
       </c>
       <c r="U324">
-        <v>1.000022165822518</v>
+        <v>2.216582251834964E-05</v>
       </c>
       <c r="V324">
-        <v>1.000243745706752</v>
+        <v>0.0002437457067518967</v>
       </c>
       <c r="W324">
-        <v>1.000331785003318</v>
+        <v>0.0003317850033177638</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24625,7 +24625,7 @@
         <v>1.677514183120885</v>
       </c>
       <c r="K325">
-        <v>62.6519251959887</v>
+        <v>0.126519251959887</v>
       </c>
       <c r="L325">
         <v>0.007066610744589274</v>
@@ -24655,13 +24655,13 @@
         <v>0.05624999999999147</v>
       </c>
       <c r="U325">
-        <v>1.000077578659219</v>
+        <v>7.757865921931284E-05</v>
       </c>
       <c r="V325">
-        <v>1.000287992910943</v>
+        <v>0.000287992910943391</v>
       </c>
       <c r="W325">
-        <v>1.000663349917081</v>
+        <v>0.0006633499170813906</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24696,7 +24696,7 @@
         <v>1.785261335448681</v>
       </c>
       <c r="K326">
-        <v>64.09672631890001</v>
+        <v>0.1409672631890001</v>
       </c>
       <c r="L326">
         <v>0.008831626902107143</v>
@@ -24726,13 +24726,13 @@
         <v>0.05875000000000341</v>
       </c>
       <c r="U326">
-        <v>1.000110818058911</v>
+        <v>0.0001108180589108887</v>
       </c>
       <c r="V326">
-        <v>1.000287909994906</v>
+        <v>0.0002879099949062436</v>
       </c>
       <c r="W326">
-        <v>1.000331455087835</v>
+        <v>0.0003314550878354972</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24767,7 +24767,7 @@
         <v>1.603406130608666</v>
       </c>
       <c r="K327">
-        <v>61.58878216338055</v>
+        <v>0.1158878216338055</v>
       </c>
       <c r="L327">
         <v>0.01039128023274914</v>
@@ -24797,13 +24797,13 @@
         <v>0.05875000000000341</v>
       </c>
       <c r="U327">
-        <v>1.00011080577963</v>
+        <v>0.0001108057796295192</v>
       </c>
       <c r="V327">
-        <v>1.0002656865784</v>
+        <v>0.0002656865783998708</v>
       </c>
       <c r="W327">
-        <v>0.9996686547382373</v>
+        <v>-0.0003313452617627055</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24838,7 +24838,7 @@
         <v>1.603406130608666</v>
       </c>
       <c r="K328">
-        <v>61.58878216338055</v>
+        <v>0.1158878216338055</v>
       </c>
       <c r="L328">
         <v>0.01168907513079182</v>
@@ -24868,13 +24868,13 @@
         <v>0.05875000000000341</v>
       </c>
       <c r="U328">
-        <v>1.000099714152762</v>
+        <v>9.971415276188722E-05</v>
       </c>
       <c r="V328">
-        <v>1.000265616007791</v>
+        <v>0.0002656160077914027</v>
       </c>
       <c r="W328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24909,7 +24909,7 @@
         <v>1.440785360758233</v>
       </c>
       <c r="K329">
-        <v>59.02958055724535</v>
+        <v>0.09029580557245354</v>
       </c>
       <c r="L329">
         <v>0.01258175550321926</v>
@@ -24939,13 +24939,13 @@
         <v>0.05750000000000455</v>
       </c>
       <c r="U329">
-        <v>1.000121860702139</v>
+        <v>0.0001218607021391538</v>
       </c>
       <c r="V329">
-        <v>1.000199159105997</v>
+        <v>0.0001991591059968822</v>
       </c>
       <c r="W329">
-        <v>0.9996685449121644</v>
+        <v>-0.0003314550878356082</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24980,7 +24980,7 @@
         <v>1.187277658530613</v>
       </c>
       <c r="K330">
-        <v>54.28106733043723</v>
+        <v>0.04281067330437227</v>
       </c>
       <c r="L330">
         <v>0.01288419926141965</v>
@@ -25010,13 +25010,13 @@
         <v>0.05374999999999375</v>
       </c>
       <c r="U330">
-        <v>1.000132922749729</v>
+        <v>0.0001329227497286478</v>
       </c>
       <c r="V330">
-        <v>1.000088497533131</v>
+        <v>8.849753313122655E-05</v>
       </c>
       <c r="W330">
-        <v>0.9993368700265252</v>
+        <v>-0.0006631299734748408</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -25051,7 +25051,7 @@
         <v>1.187277658530613</v>
       </c>
       <c r="K331">
-        <v>54.28106733043723</v>
+        <v>0.04281067330437227</v>
       </c>
       <c r="L331">
         <v>0.01276291086637825</v>
@@ -25081,13 +25081,13 @@
         <v>0.04874999999999829</v>
       </c>
       <c r="U331">
-        <v>1.000143980507254</v>
+        <v>0.0001439805072542821</v>
       </c>
       <c r="V331">
-        <v>1.000066367276508</v>
+        <v>6.636727650821683E-05</v>
       </c>
       <c r="W331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25122,7 +25122,7 @@
         <v>1.284757466615682</v>
       </c>
       <c r="K332">
-        <v>56.23167821478841</v>
+        <v>0.06231678214788405</v>
       </c>
       <c r="L332">
         <v>0.01246718805540475</v>
@@ -25152,13 +25152,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U332">
-        <v>1.000099664462975</v>
+        <v>9.966446297471343E-05</v>
       </c>
       <c r="V332">
-        <v>1.00013272574437</v>
+        <v>0.0001327257443701768</v>
       </c>
       <c r="W332">
-        <v>1.000331785003318</v>
+        <v>0.0003317850033177638</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25193,7 +25193,7 @@
         <v>1.284757466615682</v>
       </c>
       <c r="K333">
-        <v>56.23167821478842</v>
+        <v>0.06231678214788416</v>
       </c>
       <c r="L333">
         <v>0.01203923148493053</v>
@@ -25223,13 +25223,13 @@
         <v>0.03124999999999289</v>
       </c>
       <c r="U333">
-        <v>1.000088581805297</v>
+        <v>8.858180529736082E-05</v>
       </c>
       <c r="V333">
-        <v>1.000110590108821</v>
+        <v>0.0001105901088207517</v>
       </c>
       <c r="W333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25264,7 +25264,7 @@
         <v>1.284757466615682</v>
       </c>
       <c r="K334">
-        <v>56.23167821478842</v>
+        <v>0.06231678214788416</v>
       </c>
       <c r="L334">
         <v>0.01151459764069676</v>
@@ -25294,13 +25294,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U334">
-        <v>1.000088573959256</v>
+        <v>8.857395925576661E-05</v>
       </c>
       <c r="V334">
-        <v>1.000088462304001</v>
+        <v>8.846230400050281E-05</v>
       </c>
       <c r="W334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25335,7 +25335,7 @@
         <v>1.046738286485763</v>
       </c>
       <c r="K335">
-        <v>51.14177486184646</v>
+        <v>0.01141774861846456</v>
       </c>
       <c r="L335">
         <v>0.01068104885348815</v>
@@ -25365,13 +25365,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U335">
-        <v>1.000077495350279</v>
+        <v>7.749535027912202E-05</v>
       </c>
       <c r="V335">
-        <v>1.000044227239557</v>
+        <v>4.422723955688213E-05</v>
       </c>
       <c r="W335">
-        <v>0.9993366500829187</v>
+        <v>-0.0006633499170812795</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25406,7 +25406,7 @@
         <v>0.8759208949284389</v>
       </c>
       <c r="K336">
-        <v>46.69284815241918</v>
+        <v>-0.03307151847580819</v>
       </c>
       <c r="L336">
         <v>0.009432844095912133</v>
@@ -25436,13 +25436,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U336">
-        <v>1.000033209719378</v>
+        <v>3.320971937781358E-05</v>
       </c>
       <c r="V336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W336">
-        <v>0.9993362097577165</v>
+        <v>-0.0006637902422834685</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25477,7 +25477,7 @@
         <v>1.047700013842995</v>
       </c>
       <c r="K337">
-        <v>51.16472172487499</v>
+        <v>0.01164721724874984</v>
       </c>
       <c r="L337">
         <v>0.008220575181245122</v>
@@ -25507,13 +25507,13 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="U337">
-        <v>1.000077486771901</v>
+        <v>7.748677190111408E-05</v>
       </c>
       <c r="V337">
-        <v>1.000022112641797</v>
+        <v>2.211264179741157E-05</v>
       </c>
       <c r="W337">
-        <v>1.000664231152441</v>
+        <v>0.0006642311524409639</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25548,7 +25548,7 @@
         <v>1.770980514535896</v>
       </c>
       <c r="K338">
-        <v>63.91169137587793</v>
+        <v>0.1391169137587793</v>
       </c>
       <c r="L338">
         <v>0.008044558126689657</v>
@@ -25578,13 +25578,13 @@
         <v>-0.0137499999999946</v>
       </c>
       <c r="U338">
-        <v>1.0001660302175</v>
+        <v>0.0001660302174995021</v>
       </c>
       <c r="V338">
-        <v>1.000154785069874</v>
+        <v>0.0001547850698744302</v>
       </c>
       <c r="W338">
-        <v>1.002655160969134</v>
+        <v>0.002655160969133874</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25619,7 +25619,7 @@
         <v>2.151654462268985</v>
       </c>
       <c r="K339">
-        <v>68.27063334601517</v>
+        <v>0.1827063334601517</v>
       </c>
       <c r="L339">
         <v>0.008961543415751861</v>
@@ -25649,13 +25649,13 @@
         <v>0</v>
       </c>
       <c r="U339">
-        <v>1.00023240371846</v>
+        <v>0.0002324037184595618</v>
       </c>
       <c r="V339">
-        <v>1.000221087307378</v>
+        <v>0.0002210873073775765</v>
       </c>
       <c r="W339">
-        <v>1.001324064879179</v>
+        <v>0.001324064879179021</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25690,7 +25690,7 @@
         <v>2.35200917160219</v>
       </c>
       <c r="K340">
-        <v>70.16714606654787</v>
+        <v>0.2016714606654787</v>
       </c>
       <c r="L340">
         <v>0.01069101961059052</v>
@@ -25720,13 +25720,13 @@
         <v>0.01499999999999346</v>
       </c>
       <c r="U340">
-        <v>1.000254478264237</v>
+        <v>0.000254478264236857</v>
       </c>
       <c r="V340">
-        <v>1.000221038438585</v>
+        <v>0.0002210384385845643</v>
       </c>
       <c r="W340">
-        <v>1.000661157024793</v>
+        <v>0.0006611570247934129</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25761,7 +25761,7 @@
         <v>2.35200917160219</v>
       </c>
       <c r="K341">
-        <v>70.16714606654787</v>
+        <v>0.2016714606654787</v>
       </c>
       <c r="L341">
         <v>0.01276311826323546</v>
@@ -25791,13 +25791,13 @@
         <v>0.03250000000000597</v>
       </c>
       <c r="U341">
-        <v>1.000243352064068</v>
+        <v>0.0002433520640678921</v>
       </c>
       <c r="V341">
-        <v>1.000198890632251</v>
+        <v>0.000198890632251203</v>
       </c>
       <c r="W341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25832,7 +25832,7 @@
         <v>2.574008849533718</v>
       </c>
       <c r="K342">
-        <v>72.02021477561632</v>
+        <v>0.2202021477561632</v>
       </c>
       <c r="L342">
         <v>0.01510544835051112</v>
@@ -25862,13 +25862,13 @@
         <v>0.05374999999999375</v>
       </c>
       <c r="U342">
-        <v>1.000265410390817</v>
+        <v>0.0002654103908168448</v>
       </c>
       <c r="V342">
-        <v>1.000265134776845</v>
+        <v>0.0002651347768449774</v>
       </c>
       <c r="W342">
-        <v>1.000660720185002</v>
+        <v>0.0006607201850017397</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25903,7 +25903,7 @@
         <v>2.574008849533718</v>
       </c>
       <c r="K343">
-        <v>72.02021477561632</v>
+        <v>0.2202021477561632</v>
       </c>
       <c r="L343">
         <v>0.01740657718082984</v>
@@ -25933,13 +25933,13 @@
         <v>0.07874999999999943</v>
       </c>
       <c r="U343">
-        <v>1.000265339966833</v>
+        <v>0.000265339966832645</v>
       </c>
       <c r="V343">
-        <v>1.000265064499028</v>
+        <v>0.0002650644990278561</v>
       </c>
       <c r="W343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25974,7 +25974,7 @@
         <v>2.574008849533719</v>
       </c>
       <c r="K344">
-        <v>72.02021477561634</v>
+        <v>0.2202021477561634</v>
       </c>
       <c r="L344">
         <v>0.01947208316294635</v>
@@ -26004,13 +26004,13 @@
         <v>0.1087500000000006</v>
       </c>
       <c r="U344">
-        <v>1.00024316378186</v>
+        <v>0.0002431637818598453</v>
       </c>
       <c r="V344">
-        <v>1.000287077113329</v>
+        <v>0.0002870771133294259</v>
       </c>
       <c r="W344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -26045,7 +26045,7 @@
         <v>2.044601270059597</v>
       </c>
       <c r="K345">
-        <v>67.15497658646035</v>
+        <v>0.1715497658646035</v>
       </c>
       <c r="L345">
         <v>0.02095016257101302</v>
@@ -26075,13 +26075,13 @@
         <v>0.1299999999999955</v>
       </c>
       <c r="U345">
-        <v>1.000187853606789</v>
+        <v>0.0001878536067891901</v>
       </c>
       <c r="V345">
-        <v>1.000286994723712</v>
+        <v>0.0002869947237122972</v>
       </c>
       <c r="W345">
-        <v>0.9993397160779135</v>
+        <v>-0.000660283922086502</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26116,7 +26116,7 @@
         <v>2.261100578672891</v>
       </c>
       <c r="K346">
-        <v>69.33550573263977</v>
+        <v>0.1933550573263978</v>
       </c>
       <c r="L346">
         <v>0.02214306567362365</v>
@@ -26146,13 +26146,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U346">
-        <v>1.000198866461171</v>
+        <v>0.0001988664611713986</v>
       </c>
       <c r="V346">
-        <v>1.000331052747738</v>
+        <v>0.0003310527477378145</v>
       </c>
       <c r="W346">
-        <v>1.000660720185002</v>
+        <v>0.0006607201850017397</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26187,7 +26187,7 @@
         <v>2.029809828897757</v>
       </c>
       <c r="K347">
-        <v>66.99462816239529</v>
+        <v>0.1699462816239529</v>
       </c>
       <c r="L347">
         <v>0.02288539141672498</v>
@@ -26217,13 +26217,13 @@
         <v>0.1212500000000034</v>
       </c>
       <c r="U347">
-        <v>1.00020987286123</v>
+        <v>0.000209872861229865</v>
       </c>
       <c r="V347">
-        <v>1.000286817429675</v>
+        <v>0.000286817429674624</v>
       </c>
       <c r="W347">
-        <v>0.9996698580389568</v>
+        <v>-0.0003301419610431955</v>
       </c>
     </row>
     <row r="348" spans="1:23">
@@ -26258,7 +26258,7 @@
         <v>1.53421888951735</v>
       </c>
       <c r="K348">
-        <v>60.54010945398434</v>
+        <v>0.1054010945398434</v>
       </c>
       <c r="L348">
         <v>0.02286175330020322</v>
@@ -26288,13 +26288,13 @@
         <v>0.1037500000000051</v>
       </c>
       <c r="U348">
-        <v>1.000165654334622</v>
+        <v>0.0001656543346217898</v>
       </c>
       <c r="V348">
-        <v>1.000220565530019</v>
+        <v>0.0002205655300189235</v>
       </c>
       <c r="W348">
-        <v>0.9990092470277411</v>
+        <v>-0.0009907529722589237</v>
       </c>
     </row>
     <row r="349" spans="1:23">
@@ -26329,7 +26329,7 @@
         <v>1.309800564958404</v>
       </c>
       <c r="K349">
-        <v>56.70621891903432</v>
+        <v>0.06706218919034324</v>
       </c>
       <c r="L349">
         <v>0.02205109908399404</v>
@@ -26359,13 +26359,13 @@
         <v>0.08375000000000199</v>
       </c>
       <c r="U349">
-        <v>1.000132501518247</v>
+        <v>0.0001325015182465084</v>
       </c>
       <c r="V349">
-        <v>1.000176413513275</v>
+        <v>0.000176413513275131</v>
       </c>
       <c r="W349">
-        <v>0.9993388429752066</v>
+        <v>-0.0006611570247934129</v>
       </c>
     </row>
     <row r="350" spans="1:23">
@@ -26400,7 +26400,7 @@
         <v>1.064047170534039</v>
       </c>
       <c r="K350">
-        <v>51.55149483617343</v>
+        <v>0.01551494836173428</v>
       </c>
       <c r="L350">
         <v>0.02037338330985738</v>
@@ -26430,13 +26430,13 @@
         <v>0.05499999999999972</v>
       </c>
       <c r="U350">
-        <v>1.00009936297294</v>
+        <v>9.936297294022012E-05</v>
       </c>
       <c r="V350">
-        <v>1.000154334597407</v>
+        <v>0.000154334597407324</v>
       </c>
       <c r="W350">
-        <v>0.9990076083360899</v>
+        <v>-0.0009923916639100749</v>
       </c>
     </row>
     <row r="351" spans="1:23">
@@ -26471,7 +26471,7 @@
         <v>1.590718259299488</v>
       </c>
       <c r="K351">
-        <v>61.40066576477549</v>
+        <v>0.1140066576477549</v>
       </c>
       <c r="L351">
         <v>0.01916859345961994</v>
@@ -26501,13 +26501,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U351">
-        <v>1.000187666968406</v>
+        <v>0.0001876669684057752</v>
       </c>
       <c r="V351">
-        <v>1.000374754756079</v>
+        <v>0.0003747547560786213</v>
       </c>
       <c r="W351">
-        <v>1.002649006622517</v>
+        <v>0.002649006622516659</v>
       </c>
     </row>
     <row r="352" spans="1:23">
@@ -26542,7 +26542,7 @@
         <v>1.660017086768611</v>
       </c>
       <c r="K352">
-        <v>62.40625652466014</v>
+        <v>0.1240625652466014</v>
       </c>
       <c r="L352">
         <v>0.01837763572314686</v>
@@ -26572,13 +26572,13 @@
         <v>0.01124999999999687</v>
       </c>
       <c r="U352">
-        <v>1.000187631756123</v>
+        <v>0.0001876317561229079</v>
       </c>
       <c r="V352">
-        <v>1.000352578228294</v>
+        <v>0.0003525782282942647</v>
       </c>
       <c r="W352">
-        <v>1.000330250990753</v>
+        <v>0.0003302509907530116</v>
       </c>
     </row>
     <row r="353" spans="1:23">
@@ -26613,7 +26613,7 @@
         <v>1.951801623480758</v>
       </c>
       <c r="K353">
-        <v>66.12238464653996</v>
+        <v>0.1612238464653996</v>
       </c>
       <c r="L353">
         <v>0.01830291531623561</v>
@@ -26643,13 +26643,13 @@
         <v>0.001250000000005969</v>
       </c>
       <c r="U353">
-        <v>1.000209666740234</v>
+        <v>0.000209666740234038</v>
       </c>
       <c r="V353">
-        <v>1.000264340470526</v>
+        <v>0.0002643404705260366</v>
       </c>
       <c r="W353">
-        <v>1.001320567844173</v>
+        <v>0.001320567844173004</v>
       </c>
     </row>
     <row r="354" spans="1:23">
@@ -26684,7 +26684,7 @@
         <v>1.951801623480758</v>
       </c>
       <c r="K354">
-        <v>66.12238464653996</v>
+        <v>0.1612238464653996</v>
       </c>
       <c r="L354">
         <v>0.01859971447114013</v>
@@ -26714,13 +26714,13 @@
         <v>-0.003750000000003695</v>
       </c>
       <c r="U354">
-        <v>1.000198590010922</v>
+        <v>0.0001985900109224836</v>
       </c>
       <c r="V354">
-        <v>1.000176180408739</v>
+        <v>0.0001761804087385688</v>
       </c>
       <c r="W354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:23">
@@ -26755,7 +26755,7 @@
         <v>2.113455106423805</v>
       </c>
       <c r="K355">
-        <v>67.88134192342262</v>
+        <v>0.1788134192342262</v>
       </c>
       <c r="L355">
         <v>0.01927558478447399</v>
@@ -26785,13 +26785,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U355">
-        <v>1.00019855058076</v>
+        <v>0.0001985505807604593</v>
       </c>
       <c r="V355">
-        <v>1.000176149374669</v>
+        <v>0.0001761493746694764</v>
       </c>
       <c r="W355">
-        <v>1.000659413122321</v>
+        <v>0.0006594131223212063</v>
       </c>
     </row>
     <row r="356" spans="1:23">
@@ -26826,7 +26826,7 @@
         <v>1.947739877446786</v>
       </c>
       <c r="K356">
-        <v>66.07570404529181</v>
+        <v>0.1607570404529182</v>
       </c>
       <c r="L356">
         <v>0.01994681035785834</v>
@@ -26856,13 +26856,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U356">
-        <v>1.000176454370003</v>
+        <v>0.0001764543700026877</v>
       </c>
       <c r="V356">
-        <v>1.000154103557591</v>
+        <v>0.0001541035575907124</v>
       </c>
       <c r="W356">
-        <v>0.999670510708402</v>
+        <v>-0.0003294892915980396</v>
       </c>
     </row>
     <row r="357" spans="1:23">
@@ -26897,7 +26897,7 @@
         <v>1.464305547200192</v>
       </c>
       <c r="K357">
-        <v>59.42061644360032</v>
+        <v>0.09420616443600316</v>
       </c>
       <c r="L357">
         <v>0.02001749981953043</v>
@@ -26927,13 +26927,13 @@
         <v>0.02874999999999517</v>
       </c>
       <c r="U357">
-        <v>1.000143343881973</v>
+        <v>0.0001433438819729016</v>
       </c>
       <c r="V357">
-        <v>1.000022011401906</v>
+        <v>2.201140190627449E-05</v>
       </c>
       <c r="W357">
-        <v>0.998681608437706</v>
+        <v>-0.001318391562293963</v>
       </c>
     </row>
     <row r="358" spans="1:23">
@@ -26968,7 +26968,7 @@
         <v>1.529622051762369</v>
       </c>
       <c r="K358">
-        <v>60.46840280731632</v>
+        <v>0.1046840280731631</v>
       </c>
       <c r="L358">
         <v>0.01976746747124591</v>
@@ -26998,13 +26998,13 @@
         <v>0.05375000000000085</v>
       </c>
       <c r="U358">
-        <v>1.000154348209561</v>
+        <v>0.0001543482095607285</v>
       </c>
       <c r="V358">
-        <v>1.00004402183483</v>
+        <v>4.402183483009914E-05</v>
       </c>
       <c r="W358">
-        <v>1.0003300330033</v>
+        <v>0.0003300330033002563</v>
       </c>
     </row>
     <row r="359" spans="1:23">
@@ -27039,7 +27039,7 @@
         <v>1.667130482419607</v>
       </c>
       <c r="K359">
-        <v>62.50652127477448</v>
+        <v>0.1250652127477447</v>
       </c>
       <c r="L359">
         <v>0.01950792914070871</v>
@@ -27069,13 +27069,13 @@
         <v>0.06125000000000114</v>
       </c>
       <c r="U359">
-        <v>1.000187393901982</v>
+        <v>0.0001873939019820803</v>
       </c>
       <c r="V359">
-        <v>1.000088039793987</v>
+        <v>8.803979398686046E-05</v>
       </c>
       <c r="W359">
-        <v>1.000659848234906</v>
+        <v>0.0006598482349060575</v>
       </c>
     </row>
     <row r="360" spans="1:23">
@@ -27110,7 +27110,7 @@
         <v>1.554618311726709</v>
       </c>
       <c r="K360">
-        <v>60.85520895980412</v>
+        <v>0.1085520895980412</v>
       </c>
       <c r="L360">
         <v>0.01906754700241517</v>
@@ -27140,13 +27140,13 @@
         <v>0.06500000000000483</v>
       </c>
       <c r="U360">
-        <v>1.000198379897504</v>
+        <v>0.0001983798975035977</v>
       </c>
       <c r="V360">
-        <v>1.00011004005458</v>
+        <v>0.0001100400545799296</v>
       </c>
       <c r="W360">
-        <v>0.9996702934388395</v>
+        <v>-0.0003297065611604921</v>
       </c>
     </row>
     <row r="361" spans="1:23">
@@ -27181,7 +27181,7 @@
         <v>1.451502759543688</v>
       </c>
       <c r="K361">
-        <v>59.20869368361895</v>
+        <v>0.09208693683618951</v>
       </c>
       <c r="L361">
         <v>0.01835579318354506</v>
@@ -27211,13 +27211,13 @@
         <v>0.05499999999999972</v>
       </c>
       <c r="U361">
-        <v>1.000187321631241</v>
+        <v>0.0001873216312409109</v>
       </c>
       <c r="V361">
-        <v>1.000044011178839</v>
+        <v>4.401117883934269E-05</v>
       </c>
       <c r="W361">
-        <v>0.9996701846965699</v>
+        <v>-0.0003298153034301254</v>
       </c>
     </row>
     <row r="362" spans="1:23">
@@ -27252,7 +27252,7 @@
         <v>1.591141776644761</v>
       </c>
       <c r="K362">
-        <v>61.40697475477824</v>
+        <v>0.1140697475477824</v>
       </c>
       <c r="L362">
         <v>0.01769893368467656</v>
@@ -27282,13 +27282,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U362">
-        <v>1.000198303404208</v>
+        <v>0.0001983034042083442</v>
       </c>
       <c r="V362">
-        <v>1.000110023104852</v>
+        <v>0.0001100231048520861</v>
       </c>
       <c r="W362">
-        <v>1.000659848234906</v>
+        <v>0.0006598482349060575</v>
       </c>
     </row>
     <row r="363" spans="1:23">
@@ -27323,7 +27323,7 @@
         <v>1.811624435225414</v>
       </c>
       <c r="K363">
-        <v>64.4333721292393</v>
+        <v>0.144333721292393</v>
       </c>
       <c r="L363">
         <v>0.01741367781109472</v>
@@ -27353,13 +27353,13 @@
         <v>0.04249999999999687</v>
       </c>
       <c r="U363">
-        <v>1.000231308102392</v>
+        <v>0.000231308102392136</v>
       </c>
       <c r="V363">
-        <v>1.00024202420242</v>
+        <v>0.0002420242024203656</v>
       </c>
       <c r="W363">
-        <v>1.000989119683482</v>
+        <v>0.0009891196834816984</v>
       </c>
     </row>
     <row r="364" spans="1:23">
@@ -27394,7 +27394,7 @@
         <v>1.681536818312207</v>
       </c>
       <c r="K364">
-        <v>62.70795190388575</v>
+        <v>0.1270795190388575</v>
       </c>
       <c r="L364">
         <v>0.01718769625760194</v>
@@ -27424,13 +27424,13 @@
         <v>0.03249999999999176</v>
       </c>
       <c r="U364">
-        <v>1.000220242486978</v>
+        <v>0.0002202424869783837</v>
       </c>
       <c r="V364">
-        <v>1.000263962517322</v>
+        <v>0.0002639625173224136</v>
       </c>
       <c r="W364">
-        <v>0.9996706192358367</v>
+        <v>-0.000329380764163334</v>
       </c>
     </row>
     <row r="365" spans="1:23">
@@ -27465,7 +27465,7 @@
         <v>1.37071435468907</v>
       </c>
       <c r="K365">
-        <v>57.81862129353182</v>
+        <v>0.07818621293531824</v>
       </c>
       <c r="L365">
         <v>0.01658835702590133</v>
@@ -27495,13 +27495,13 @@
         <v>0.02624999999999744</v>
       </c>
       <c r="U365">
-        <v>1.000209184291361</v>
+        <v>0.0002091842913607422</v>
       </c>
       <c r="V365">
-        <v>1.000263892859499</v>
+        <v>0.0002638928594989043</v>
       </c>
       <c r="W365">
-        <v>0.9990115321252059</v>
+        <v>-0.0009884678747941189</v>
       </c>
     </row>
     <row r="366" spans="1:23">
@@ -27536,7 +27536,7 @@
         <v>1.147451380880861</v>
       </c>
       <c r="K366">
-        <v>53.43317157709941</v>
+        <v>0.03433171577099403</v>
       </c>
       <c r="L366">
         <v>0.01537984289493532</v>
@@ -27566,13 +27566,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U366">
-        <v>1.000198133145474</v>
+        <v>0.0001981331454736779</v>
       </c>
       <c r="V366">
-        <v>1.000021985269869</v>
+        <v>2.198526986907368E-05</v>
       </c>
       <c r="W366">
-        <v>0.9990105540897097</v>
+        <v>-0.0009894459102902653</v>
       </c>
     </row>
     <row r="367" spans="1:23">
@@ -27607,7 +27607,7 @@
         <v>0.9339468734559795</v>
       </c>
       <c r="K367">
-        <v>48.29227143075593</v>
+        <v>-0.01707728569244066</v>
       </c>
       <c r="L367">
         <v>0.01334248079582382</v>
@@ -27637,13 +27637,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U367">
-        <v>1.000132062597671</v>
+        <v>0.0001320625976712897</v>
       </c>
       <c r="V367">
-        <v>0.9999120608538892</v>
+        <v>-8.793914611082698E-05</v>
       </c>
       <c r="W367">
-        <v>0.998679432155827</v>
+        <v>-0.001320567844173004</v>
       </c>
     </row>
     <row r="368" spans="1:23">
@@ -27678,7 +27678,7 @@
         <v>0.8506427744406703</v>
       </c>
       <c r="K368">
-        <v>45.96472026848967</v>
+        <v>-0.04035279731510327</v>
       </c>
       <c r="L368">
         <v>0.01064413739871596</v>
@@ -27708,13 +27708,13 @@
         <v>-0.02125000000000199</v>
       </c>
       <c r="U368">
-        <v>1.000022007526574</v>
+        <v>2.200752657421923E-05</v>
       </c>
       <c r="V368">
-        <v>0.9997801327997891</v>
+        <v>-0.0002198672002109436</v>
       </c>
       <c r="W368">
-        <v>0.9993388429752066</v>
+        <v>-0.0006611570247934129</v>
       </c>
     </row>
     <row r="369" spans="1:23">
@@ -27749,7 +27749,7 @@
         <v>0.7161615668953892</v>
       </c>
       <c r="K369">
-        <v>41.73042799175118</v>
+        <v>-0.08269572008248816</v>
       </c>
       <c r="L369">
         <v>0.007197919680933883</v>
@@ -27779,13 +27779,13 @@
         <v>-0.03375000000000483</v>
       </c>
       <c r="U369">
-        <v>0.9999339788732394</v>
+        <v>-6.60211267605737E-05</v>
       </c>
       <c r="V369">
-        <v>0.999692118226601</v>
+        <v>-0.0003078817733990213</v>
       </c>
       <c r="W369">
-        <v>0.9986768111147867</v>
+        <v>-0.001323188885213322</v>
       </c>
     </row>
     <row r="370" spans="1:23">
@@ -27820,7 +27820,7 @@
         <v>0.7161615668953892</v>
       </c>
       <c r="K370">
-        <v>41.73042799175118</v>
+        <v>-0.08269572008248816</v>
       </c>
       <c r="L370">
         <v>0.003492257772899959</v>
@@ -27850,13 +27850,13 @@
         <v>-0.05124999999999602</v>
       </c>
       <c r="U370">
-        <v>0.9999119660188832</v>
+        <v>-8.803398111678629E-05</v>
       </c>
       <c r="V370">
-        <v>0.999648026749967</v>
+        <v>-0.0003519732500329997</v>
       </c>
       <c r="W370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:23">
@@ -27891,7 +27891,7 @@
         <v>0.6861143876801018</v>
       </c>
       <c r="K371">
-        <v>40.69204276372469</v>
+        <v>-0.09307957236275305</v>
       </c>
       <c r="L371">
         <v>-0.0002674197686164677</v>
@@ -27921,13 +27921,13 @@
         <v>-0.07500000000000284</v>
       </c>
       <c r="U371">
-        <v>0.9999009530517465</v>
+        <v>-9.904694825346727E-05</v>
       </c>
       <c r="V371">
-        <v>0.9996479028211785</v>
+        <v>-0.0003520971788214533</v>
       </c>
       <c r="W371">
-        <v>0.9996687644915534</v>
+        <v>-0.0003312355084466034</v>
       </c>
     </row>
     <row r="372" spans="1:23">
@@ -27962,7 +27962,7 @@
         <v>0.6058446859900929</v>
       </c>
       <c r="K372">
-        <v>37.72747708889144</v>
+        <v>-0.1227252291110856</v>
       </c>
       <c r="L372">
         <v>-0.004180160497876669</v>
@@ -27992,13 +27992,13 @@
         <v>-0.1012499999999932</v>
       </c>
       <c r="U372">
-        <v>0.9998459117074086</v>
+        <v>-0.0001540882925914477</v>
       </c>
       <c r="V372">
-        <v>0.9996697926297714</v>
+        <v>-0.0003302073702285968</v>
       </c>
       <c r="W372">
-        <v>0.9990059642147117</v>
+        <v>-0.0009940357852883386</v>
       </c>
     </row>
     <row r="373" spans="1:23">
@@ -28033,7 +28033,7 @@
         <v>0.64689441197786</v>
       </c>
       <c r="K373">
-        <v>39.27965310180168</v>
+        <v>-0.1072034689819832</v>
       </c>
       <c r="L373">
         <v>-0.007801243973864028</v>
@@ -28063,13 +28063,13 @@
         <v>-0.123749999999994</v>
       </c>
       <c r="U373">
-        <v>0.9998568959633652</v>
+        <v>-0.0001431040366347558</v>
       </c>
       <c r="V373">
-        <v>0.9996696835568475</v>
+        <v>-0.0003303164431525119</v>
       </c>
       <c r="W373">
-        <v>1.000331674958541</v>
+        <v>0.0003316749585406953</v>
       </c>
     </row>
     <row r="374" spans="1:23">
@@ -28104,7 +28104,7 @@
         <v>0.6901046498597203</v>
       </c>
       <c r="K374">
-        <v>40.83206622246731</v>
+        <v>-0.09167933777532689</v>
       </c>
       <c r="L374">
         <v>-0.0108667285151846</v>
@@ -28134,13 +28134,13 @@
         <v>-0.1362499999999969</v>
       </c>
       <c r="U374">
-        <v>0.9998678850600022</v>
+        <v>-0.0001321149399977628</v>
       </c>
       <c r="V374">
-        <v>0.9996475460392986</v>
+        <v>-0.0003524539607013821</v>
       </c>
       <c r="W374">
-        <v>1.000331564986737</v>
+        <v>0.0003315649867374759</v>
       </c>
     </row>
     <row r="375" spans="1:23">
@@ -28175,7 +28175,7 @@
         <v>0.6325612361948315</v>
       </c>
       <c r="K375">
-        <v>38.7465549328614</v>
+        <v>-0.112534450671386</v>
       </c>
       <c r="L375">
         <v>-0.01360165929516899</v>
@@ -28205,13 +28205,13 @@
         <v>-0.1387500000000017</v>
       </c>
       <c r="U375">
-        <v>0.9998678676033385</v>
+        <v>-0.000132132396661544</v>
       </c>
       <c r="V375">
-        <v>0.9996253856324372</v>
+        <v>-0.0003746143675628089</v>
       </c>
       <c r="W375">
-        <v>0.9993370898243287</v>
+        <v>-0.0006629101756713274</v>
       </c>
     </row>
     <row r="376" spans="1:23">
@@ -28246,7 +28246,7 @@
         <v>0.5815199422228072</v>
       </c>
       <c r="K376">
-        <v>36.76968760858544</v>
+        <v>-0.1323031239141456</v>
       </c>
       <c r="L376">
         <v>-0.01615357457633867</v>
@@ -28276,13 +28276,13 @@
         <v>-0.1400000000000006</v>
       </c>
       <c r="U376">
-        <v>0.999823800189415</v>
+        <v>-0.0001761998105850315</v>
       </c>
       <c r="V376">
-        <v>0.9996032008465049</v>
+        <v>-0.0003967991534951087</v>
       </c>
       <c r="W376">
-        <v>0.9993366500829187</v>
+        <v>-0.0006633499170812795</v>
       </c>
     </row>
     <row r="377" spans="1:23">
@@ -28317,7 +28317,7 @@
         <v>0.5815199422228071</v>
       </c>
       <c r="K377">
-        <v>36.76968760858544</v>
+        <v>-0.1323031239141457</v>
       </c>
       <c r="L377">
         <v>-0.01837378228657706</v>
@@ -28347,13 +28347,13 @@
         <v>-0.1325000000000003</v>
       </c>
       <c r="U377">
-        <v>0.999834783566472</v>
+        <v>-0.0001652164335279593</v>
       </c>
       <c r="V377">
-        <v>0.9995589370382622</v>
+        <v>-0.0004410629617378481</v>
       </c>
       <c r="W377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:23">
@@ -28388,7 +28388,7 @@
         <v>0.6709270180100043</v>
       </c>
       <c r="K378">
-        <v>40.15298159515351</v>
+        <v>-0.09847018404846497</v>
       </c>
       <c r="L378">
         <v>-0.01994458226711357</v>
@@ -28418,13 +28418,13 @@
         <v>-0.1199999999999974</v>
       </c>
       <c r="U378">
-        <v>0.9998898375103277</v>
+        <v>-0.0001101624896723274</v>
       </c>
       <c r="V378">
-        <v>0.9995366795366796</v>
+        <v>-0.0004633204633204269</v>
       </c>
       <c r="W378">
-        <v>1.000663790242283</v>
+        <v>0.0006637902422834685</v>
       </c>
     </row>
     <row r="379" spans="1:23">
@@ -28459,7 +28459,7 @@
         <v>0.7179833736874849</v>
       </c>
       <c r="K379">
-        <v>41.79221898675323</v>
+        <v>-0.08207781013246768</v>
       </c>
       <c r="L379">
         <v>-0.02082920309086242</v>
@@ -28489,13 +28489,13 @@
         <v>-0.1000000000000014</v>
       </c>
       <c r="U379">
-        <v>0.9999228777612517</v>
+        <v>-7.712223874833946E-05</v>
       </c>
       <c r="V379">
-        <v>0.9995806109835775</v>
+        <v>-0.0004193890164224667</v>
       </c>
       <c r="W379">
-        <v>1.000331674958541</v>
+        <v>0.0003316749585406953</v>
       </c>
     </row>
     <row r="380" spans="1:23">
@@ -28530,7 +28530,7 @@
         <v>0.653266833729062</v>
       </c>
       <c r="K380">
-        <v>39.51369618028155</v>
+        <v>-0.1048630381971845</v>
       </c>
       <c r="L380">
         <v>-0.02140675162527916</v>
@@ -28560,13 +28560,13 @@
         <v>-0.07625000000000171</v>
       </c>
       <c r="U380">
-        <v>0.9999338901253885</v>
+        <v>-6.610987461153073E-05</v>
       </c>
       <c r="V380">
-        <v>0.9996025173898642</v>
+        <v>-0.0003974826101358353</v>
       </c>
       <c r="W380">
-        <v>0.9993368700265252</v>
+        <v>-0.0006631299734748408</v>
       </c>
     </row>
     <row r="381" spans="1:23">
@@ -28601,7 +28601,7 @@
         <v>0.795587692686934</v>
       </c>
       <c r="K381">
-        <v>44.30792747840731</v>
+        <v>-0.05692072521592684</v>
       </c>
       <c r="L381">
         <v>-0.0213226065463019</v>
@@ -28631,13 +28631,13 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="U381">
-        <v>0.9998787905500706</v>
+        <v>-0.0001212094499294381</v>
       </c>
       <c r="V381">
-        <v>0.9997349062230766</v>
+        <v>-0.0002650937769234085</v>
       </c>
       <c r="W381">
-        <v>1.000995355009954</v>
+        <v>0.0009953550099535136</v>
       </c>
     </row>
     <row r="382" spans="1:23">
@@ -28672,7 +28672,7 @@
         <v>0.9953362666628828</v>
       </c>
       <c r="K382">
-        <v>49.88313415099408</v>
+        <v>-0.001168658490059205</v>
       </c>
       <c r="L382">
         <v>-0.02028357694851431</v>
@@ -28702,13 +28702,13 @@
         <v>-0.03499999999999659</v>
       </c>
       <c r="U382">
-        <v>0.999911836986588</v>
+        <v>-8.816301341196819E-05</v>
       </c>
       <c r="V382">
-        <v>0.9999116119765771</v>
+        <v>-8.838802342292507E-05</v>
       </c>
       <c r="W382">
-        <v>1.001325820351342</v>
+        <v>0.001325820351342433</v>
       </c>
     </row>
   </sheetData>
